--- a/data_month/zb/价格指数/商品零售价格分类指数(上月=100)/农村商品零售价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/商品零售价格分类指数(上月=100)/农村商品零售价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,6842 +523,6842 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.0979935</v>
+        <v>100.4</v>
       </c>
       <c r="C2" t="n">
-        <v>100.00766421</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>99.8194977</v>
+        <v>99.8</v>
       </c>
       <c r="E2" t="n">
-        <v>100.07428708</v>
+        <v>100.2</v>
       </c>
       <c r="F2" t="n">
-        <v>99.89971804</v>
+        <v>100.2</v>
       </c>
       <c r="G2" t="n">
-        <v>100.20626388</v>
+        <v>100.1</v>
       </c>
       <c r="H2" t="n">
-        <v>100.56002933</v>
+        <v>100.1</v>
       </c>
       <c r="I2" t="n">
-        <v>99.85932793000001</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
-        <v>99.81091180999999</v>
+        <v>100.7</v>
       </c>
       <c r="K2" t="n">
-        <v>100.02874944</v>
+        <v>100</v>
       </c>
       <c r="L2" t="n">
-        <v>100.10361209</v>
+        <v>100.4</v>
       </c>
       <c r="M2" t="n">
-        <v>101.30382101</v>
+        <v>100.5</v>
       </c>
       <c r="N2" t="n">
-        <v>99.23868202</v>
+        <v>103.2</v>
       </c>
       <c r="O2" t="n">
-        <v>100.36740886</v>
+        <v>100.4</v>
       </c>
       <c r="P2" t="n">
-        <v>97.28795664</v>
+        <v>102.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>99.56106256</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>100.30598671</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.00459508</v>
+        <v>100.4</v>
       </c>
       <c r="C3" t="n">
-        <v>100.06110065</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>99.88360883999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>100.06493229</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>99.83065306</v>
+        <v>100.1</v>
       </c>
       <c r="G3" t="n">
-        <v>100.15383604</v>
+        <v>100.1</v>
       </c>
       <c r="H3" t="n">
-        <v>100.29840321</v>
+        <v>100.1</v>
       </c>
       <c r="I3" t="n">
-        <v>100.01853736</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>99.85576648999999</v>
+        <v>100.7</v>
       </c>
       <c r="K3" t="n">
-        <v>100.14453828</v>
+        <v>100</v>
       </c>
       <c r="L3" t="n">
-        <v>100.10547918</v>
+        <v>100.4</v>
       </c>
       <c r="M3" t="n">
-        <v>101.59959024</v>
+        <v>100.6</v>
       </c>
       <c r="N3" t="n">
-        <v>99.82996365</v>
+        <v>100.9</v>
       </c>
       <c r="O3" t="n">
-        <v>100.56385234</v>
+        <v>100.3</v>
       </c>
       <c r="P3" t="n">
-        <v>100.5072991</v>
+        <v>102.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.98022648</v>
+        <v>99.7</v>
       </c>
       <c r="R3" t="n">
-        <v>100.15518118</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.17371511</v>
+        <v>100.7</v>
       </c>
       <c r="C4" t="n">
-        <v>100.03898637</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>99.7243229</v>
+        <v>99.8</v>
       </c>
       <c r="E4" t="n">
-        <v>100.04199412</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>100.28335677</v>
+        <v>100.4</v>
       </c>
       <c r="G4" t="n">
-        <v>100.14194831</v>
+        <v>100.2</v>
       </c>
       <c r="H4" t="n">
-        <v>99.52271268</v>
+        <v>100.2</v>
       </c>
       <c r="I4" t="n">
-        <v>99.6738498</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>99.8904675</v>
+        <v>100.2</v>
       </c>
       <c r="K4" t="n">
-        <v>99.99537445</v>
+        <v>99.8</v>
       </c>
       <c r="L4" t="n">
-        <v>100.03408361</v>
+        <v>100.1</v>
       </c>
       <c r="M4" t="n">
-        <v>100.77812875</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>100.16318846</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>100.38278413</v>
+        <v>100.1</v>
       </c>
       <c r="P4" t="n">
-        <v>98.14440686</v>
+        <v>100.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>100.72993944</v>
+        <v>101.3</v>
       </c>
       <c r="R4" t="n">
-        <v>100.34609566</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.4</v>
+        <v>100.64218009</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>100.00086019</v>
       </c>
       <c r="D5" t="n">
-        <v>99.8</v>
+        <v>99.66990221</v>
       </c>
       <c r="E5" t="n">
-        <v>100.2</v>
+        <v>100.0018446</v>
       </c>
       <c r="F5" t="n">
-        <v>100.2</v>
+        <v>100.39949543</v>
       </c>
       <c r="G5" t="n">
-        <v>100.1</v>
+        <v>100.09725176</v>
       </c>
       <c r="H5" t="n">
-        <v>100.1</v>
+        <v>100.04933244</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>99.82629727</v>
       </c>
       <c r="J5" t="n">
-        <v>100.7</v>
+        <v>100.1716683</v>
       </c>
       <c r="K5" t="n">
-        <v>100</v>
+        <v>99.87121041</v>
       </c>
       <c r="L5" t="n">
-        <v>100.4</v>
+        <v>100.17860196</v>
       </c>
       <c r="M5" t="n">
-        <v>100.5</v>
+        <v>99.64825786</v>
       </c>
       <c r="N5" t="n">
-        <v>103.2</v>
+        <v>99.84629609</v>
       </c>
       <c r="O5" t="n">
-        <v>100.4</v>
+        <v>100.14674711</v>
       </c>
       <c r="P5" t="n">
-        <v>102.5</v>
+        <v>100.89975257</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.40000000000001</v>
+        <v>101.23705987</v>
       </c>
       <c r="R5" t="n">
-        <v>100.4</v>
+        <v>100.20391792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.4</v>
+        <v>100.32563602</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>100.05419697</v>
       </c>
       <c r="D6" t="n">
-        <v>99.59999999999999</v>
+        <v>99.84306045</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>100.01706914</v>
       </c>
       <c r="F6" t="n">
-        <v>100.1</v>
+        <v>100.35341258</v>
       </c>
       <c r="G6" t="n">
-        <v>100.1</v>
+        <v>100.006072</v>
       </c>
       <c r="H6" t="n">
-        <v>100.1</v>
+        <v>100.12413239</v>
       </c>
       <c r="I6" t="n">
-        <v>99.90000000000001</v>
+        <v>99.77698645</v>
       </c>
       <c r="J6" t="n">
-        <v>100.7</v>
+        <v>100.13139333</v>
       </c>
       <c r="K6" t="n">
-        <v>100</v>
+        <v>99.82203792</v>
       </c>
       <c r="L6" t="n">
-        <v>100.4</v>
+        <v>100.28369147</v>
       </c>
       <c r="M6" t="n">
-        <v>100.6</v>
+        <v>99.80874492</v>
       </c>
       <c r="N6" t="n">
-        <v>100.9</v>
+        <v>100.38579556</v>
       </c>
       <c r="O6" t="n">
-        <v>100.3</v>
+        <v>100.28954723</v>
       </c>
       <c r="P6" t="n">
-        <v>102.6</v>
+        <v>105.40141143</v>
       </c>
       <c r="Q6" t="n">
-        <v>99.7</v>
+        <v>100.73830415</v>
       </c>
       <c r="R6" t="n">
-        <v>100.4</v>
+        <v>100.25180554</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.7</v>
+        <v>100.34763655</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>100.05398729</v>
       </c>
       <c r="D7" t="n">
-        <v>99.8</v>
+        <v>99.88461590999999</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>100.19134589</v>
       </c>
       <c r="F7" t="n">
-        <v>100.4</v>
+        <v>100.59741448</v>
       </c>
       <c r="G7" t="n">
-        <v>100.2</v>
+        <v>100.22119596</v>
       </c>
       <c r="H7" t="n">
-        <v>100.2</v>
+        <v>100.05790503</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>99.76193529</v>
       </c>
       <c r="J7" t="n">
-        <v>100.2</v>
+        <v>100.14677282</v>
       </c>
       <c r="K7" t="n">
-        <v>99.8</v>
+        <v>99.81399236</v>
       </c>
       <c r="L7" t="n">
-        <v>100.1</v>
+        <v>100.34515226</v>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>100.6991396</v>
       </c>
       <c r="N7" t="n">
-        <v>99.09999999999999</v>
+        <v>100.3087323</v>
       </c>
       <c r="O7" t="n">
-        <v>100.1</v>
+        <v>100.25187465</v>
       </c>
       <c r="P7" t="n">
-        <v>100.6</v>
+        <v>101.75799204</v>
       </c>
       <c r="Q7" t="n">
-        <v>101.3</v>
+        <v>101.32645101</v>
       </c>
       <c r="R7" t="n">
-        <v>100.2</v>
+        <v>100.45868015</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.64218009</v>
+        <v>100.0979935</v>
       </c>
       <c r="C8" t="n">
-        <v>100.00086019</v>
+        <v>100.00766421</v>
       </c>
       <c r="D8" t="n">
-        <v>99.66990221</v>
+        <v>99.8194977</v>
       </c>
       <c r="E8" t="n">
-        <v>100.0018446</v>
+        <v>100.07428708</v>
       </c>
       <c r="F8" t="n">
-        <v>100.39949543</v>
+        <v>99.89971804</v>
       </c>
       <c r="G8" t="n">
-        <v>100.09725176</v>
+        <v>100.20626388</v>
       </c>
       <c r="H8" t="n">
-        <v>100.04933244</v>
+        <v>100.56002933</v>
       </c>
       <c r="I8" t="n">
-        <v>99.82629727</v>
+        <v>99.85932793000001</v>
       </c>
       <c r="J8" t="n">
-        <v>100.1716683</v>
+        <v>99.81091180999999</v>
       </c>
       <c r="K8" t="n">
-        <v>99.87121041</v>
+        <v>100.02874944</v>
       </c>
       <c r="L8" t="n">
-        <v>100.17860196</v>
+        <v>100.10361209</v>
       </c>
       <c r="M8" t="n">
-        <v>99.64825786</v>
+        <v>101.30382101</v>
       </c>
       <c r="N8" t="n">
-        <v>99.84629609</v>
+        <v>99.23868202</v>
       </c>
       <c r="O8" t="n">
-        <v>100.14674711</v>
+        <v>100.36740886</v>
       </c>
       <c r="P8" t="n">
-        <v>100.89975257</v>
+        <v>97.28795664</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.23705987</v>
+        <v>99.56106256</v>
       </c>
       <c r="R8" t="n">
-        <v>100.20391792</v>
+        <v>100.30598671</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.32563602</v>
+        <v>100.00459508</v>
       </c>
       <c r="C9" t="n">
-        <v>100.05419697</v>
+        <v>100.06110065</v>
       </c>
       <c r="D9" t="n">
-        <v>99.84306045</v>
+        <v>99.88360883999999</v>
       </c>
       <c r="E9" t="n">
-        <v>100.01706914</v>
+        <v>100.06493229</v>
       </c>
       <c r="F9" t="n">
-        <v>100.35341258</v>
+        <v>99.83065306</v>
       </c>
       <c r="G9" t="n">
-        <v>100.006072</v>
+        <v>100.15383604</v>
       </c>
       <c r="H9" t="n">
-        <v>100.12413239</v>
+        <v>100.29840321</v>
       </c>
       <c r="I9" t="n">
-        <v>99.77698645</v>
+        <v>100.01853736</v>
       </c>
       <c r="J9" t="n">
-        <v>100.13139333</v>
+        <v>99.85576648999999</v>
       </c>
       <c r="K9" t="n">
-        <v>99.82203792</v>
+        <v>100.14453828</v>
       </c>
       <c r="L9" t="n">
-        <v>100.28369147</v>
+        <v>100.10547918</v>
       </c>
       <c r="M9" t="n">
-        <v>99.80874492</v>
+        <v>101.59959024</v>
       </c>
       <c r="N9" t="n">
-        <v>100.38579556</v>
+        <v>99.82996365</v>
       </c>
       <c r="O9" t="n">
-        <v>100.28954723</v>
+        <v>100.56385234</v>
       </c>
       <c r="P9" t="n">
-        <v>105.40141143</v>
+        <v>100.5072991</v>
       </c>
       <c r="Q9" t="n">
-        <v>100.73830415</v>
+        <v>98.98022648</v>
       </c>
       <c r="R9" t="n">
-        <v>100.25180554</v>
+        <v>100.15518118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.34763655</v>
+        <v>100.17371511</v>
       </c>
       <c r="C10" t="n">
-        <v>100.05398729</v>
+        <v>100.03898637</v>
       </c>
       <c r="D10" t="n">
-        <v>99.88461590999999</v>
+        <v>99.7243229</v>
       </c>
       <c r="E10" t="n">
-        <v>100.19134589</v>
+        <v>100.04199412</v>
       </c>
       <c r="F10" t="n">
-        <v>100.59741448</v>
+        <v>100.28335677</v>
       </c>
       <c r="G10" t="n">
-        <v>100.22119596</v>
+        <v>100.14194831</v>
       </c>
       <c r="H10" t="n">
-        <v>100.05790503</v>
+        <v>99.52271268</v>
       </c>
       <c r="I10" t="n">
-        <v>99.76193529</v>
+        <v>99.6738498</v>
       </c>
       <c r="J10" t="n">
-        <v>100.14677282</v>
+        <v>99.8904675</v>
       </c>
       <c r="K10" t="n">
-        <v>99.81399236</v>
+        <v>99.99537445</v>
       </c>
       <c r="L10" t="n">
-        <v>100.34515226</v>
+        <v>100.03408361</v>
       </c>
       <c r="M10" t="n">
-        <v>100.6991396</v>
+        <v>100.77812875</v>
       </c>
       <c r="N10" t="n">
-        <v>100.3087323</v>
+        <v>100.16318846</v>
       </c>
       <c r="O10" t="n">
-        <v>100.25187465</v>
+        <v>100.38278413</v>
       </c>
       <c r="P10" t="n">
-        <v>101.75799204</v>
+        <v>98.14440686</v>
       </c>
       <c r="Q10" t="n">
-        <v>101.32645101</v>
+        <v>100.72993944</v>
       </c>
       <c r="R10" t="n">
-        <v>100.45868015</v>
+        <v>100.34609566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.98269788</v>
+        <v>99.95483132</v>
       </c>
       <c r="C11" t="n">
-        <v>100.05892086</v>
+        <v>100.22762262</v>
       </c>
       <c r="D11" t="n">
-        <v>99.86924036000001</v>
+        <v>100.04567757</v>
       </c>
       <c r="E11" t="n">
-        <v>100.07110837</v>
+        <v>100.05372803</v>
       </c>
       <c r="F11" t="n">
-        <v>99.92791314</v>
+        <v>101.34281185</v>
       </c>
       <c r="G11" t="n">
-        <v>100.32273071</v>
+        <v>100.02702161</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0464043</v>
+        <v>100.21512949</v>
       </c>
       <c r="I11" t="n">
-        <v>99.74082086999999</v>
+        <v>99.92701964</v>
       </c>
       <c r="J11" t="n">
-        <v>100.26944304</v>
+        <v>100.06661007</v>
       </c>
       <c r="K11" t="n">
-        <v>99.84730451999999</v>
+        <v>99.91000292</v>
       </c>
       <c r="L11" t="n">
-        <v>100.121055</v>
+        <v>100.00071218</v>
       </c>
       <c r="M11" t="n">
-        <v>100.87132524</v>
+        <v>99.78993991999999</v>
       </c>
       <c r="N11" t="n">
-        <v>101.10208538</v>
+        <v>100.25401388</v>
       </c>
       <c r="O11" t="n">
-        <v>100.29187238</v>
+        <v>100.04904554</v>
       </c>
       <c r="P11" t="n">
-        <v>101.22641758</v>
+        <v>98.95604410999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.17302915</v>
+        <v>104.1597754</v>
       </c>
       <c r="R11" t="n">
-        <v>100.15493177</v>
+        <v>100.18057337</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.07214855</v>
+        <v>100.15433669</v>
       </c>
       <c r="C12" t="n">
-        <v>100.06260661</v>
+        <v>100.24116468</v>
       </c>
       <c r="D12" t="n">
-        <v>99.78143043</v>
+        <v>99.89122327</v>
       </c>
       <c r="E12" t="n">
-        <v>100.04867745</v>
+        <v>100.04280191</v>
       </c>
       <c r="F12" t="n">
-        <v>100.17541022</v>
+        <v>99.92670833</v>
       </c>
       <c r="G12" t="n">
-        <v>100.13575087</v>
+        <v>100.09013757</v>
       </c>
       <c r="H12" t="n">
-        <v>100.21501663</v>
+        <v>100.13186179</v>
       </c>
       <c r="I12" t="n">
-        <v>99.99456778</v>
+        <v>100.03913397</v>
       </c>
       <c r="J12" t="n">
-        <v>100.08659409</v>
+        <v>99.9566792</v>
       </c>
       <c r="K12" t="n">
-        <v>100.00051512</v>
+        <v>99.81200324</v>
       </c>
       <c r="L12" t="n">
-        <v>100.07603697</v>
+        <v>100.0857157</v>
       </c>
       <c r="M12" t="n">
-        <v>100.86732907</v>
+        <v>99.30328629</v>
       </c>
       <c r="N12" t="n">
-        <v>99.83050875000001</v>
+        <v>101.44549522</v>
       </c>
       <c r="O12" t="n">
-        <v>100.31953129</v>
+        <v>99.90401734</v>
       </c>
       <c r="P12" t="n">
-        <v>99.1682495</v>
+        <v>101.44692621</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.31849123</v>
+        <v>99.50635299</v>
       </c>
       <c r="R12" t="n">
-        <v>100.08759048</v>
+        <v>100.27312632</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.85724223</v>
+        <v>100.22255727</v>
       </c>
       <c r="C13" t="n">
-        <v>100.05975794</v>
+        <v>100.06128298</v>
       </c>
       <c r="D13" t="n">
-        <v>99.89248952</v>
+        <v>99.72983062</v>
       </c>
       <c r="E13" t="n">
-        <v>99.99396369999999</v>
+        <v>100.16919457</v>
       </c>
       <c r="F13" t="n">
-        <v>100.8478668</v>
+        <v>100.24383934</v>
       </c>
       <c r="G13" t="n">
-        <v>100.06355826</v>
+        <v>100.0652924</v>
       </c>
       <c r="H13" t="n">
-        <v>100.0079135</v>
+        <v>99.88999993</v>
       </c>
       <c r="I13" t="n">
-        <v>99.93036246</v>
+        <v>99.88387826</v>
       </c>
       <c r="J13" t="n">
-        <v>99.93925059</v>
+        <v>100.24468382</v>
       </c>
       <c r="K13" t="n">
-        <v>99.94527167</v>
+        <v>99.99915906</v>
       </c>
       <c r="L13" t="n">
-        <v>100.08971721</v>
+        <v>100.09906906</v>
       </c>
       <c r="M13" t="n">
-        <v>100.42332876</v>
+        <v>100.01813556</v>
       </c>
       <c r="N13" t="n">
-        <v>99.57594603</v>
+        <v>103.13759556</v>
       </c>
       <c r="O13" t="n">
-        <v>100.19634463</v>
+        <v>99.88817025</v>
       </c>
       <c r="P13" t="n">
-        <v>99.44524985</v>
+        <v>99.64367876999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.58444332</v>
+        <v>99.97039875999999</v>
       </c>
       <c r="R13" t="n">
-        <v>100.4399499</v>
+        <v>100.18331377</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.95483132</v>
+        <v>100.35298972</v>
       </c>
       <c r="C14" t="n">
-        <v>100.22762262</v>
+        <v>99.98145889</v>
       </c>
       <c r="D14" t="n">
-        <v>100.04567757</v>
+        <v>99.68828852</v>
       </c>
       <c r="E14" t="n">
-        <v>100.05372803</v>
+        <v>100.07947395</v>
       </c>
       <c r="F14" t="n">
-        <v>101.34281185</v>
+        <v>99.87685392</v>
       </c>
       <c r="G14" t="n">
-        <v>100.02702161</v>
+        <v>100.4575529</v>
       </c>
       <c r="H14" t="n">
-        <v>100.21512949</v>
+        <v>99.83731942999999</v>
       </c>
       <c r="I14" t="n">
-        <v>99.92701964</v>
+        <v>99.89838114</v>
       </c>
       <c r="J14" t="n">
-        <v>100.06661007</v>
+        <v>100.15283894</v>
       </c>
       <c r="K14" t="n">
-        <v>99.91000292</v>
+        <v>99.87124149</v>
       </c>
       <c r="L14" t="n">
-        <v>100.00071218</v>
+        <v>100.12389386</v>
       </c>
       <c r="M14" t="n">
-        <v>99.78993991999999</v>
+        <v>100.37456499</v>
       </c>
       <c r="N14" t="n">
-        <v>100.25401388</v>
+        <v>101.910709</v>
       </c>
       <c r="O14" t="n">
-        <v>100.04904554</v>
+        <v>100.02127322</v>
       </c>
       <c r="P14" t="n">
-        <v>98.95604410999999</v>
+        <v>99.57455163</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.1597754</v>
+        <v>99.02746655999999</v>
       </c>
       <c r="R14" t="n">
-        <v>100.18057337</v>
+        <v>100.12623074</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.15433669</v>
+        <v>100.24031284</v>
       </c>
       <c r="C15" t="n">
-        <v>100.24116468</v>
+        <v>100.00122617</v>
       </c>
       <c r="D15" t="n">
-        <v>99.89122327</v>
+        <v>99.76997382</v>
       </c>
       <c r="E15" t="n">
-        <v>100.04280191</v>
+        <v>100.03035819</v>
       </c>
       <c r="F15" t="n">
-        <v>99.92670833</v>
+        <v>99.51607334000001</v>
       </c>
       <c r="G15" t="n">
-        <v>100.09013757</v>
+        <v>100.24995819</v>
       </c>
       <c r="H15" t="n">
-        <v>100.13186179</v>
+        <v>100.09045058</v>
       </c>
       <c r="I15" t="n">
-        <v>100.03913397</v>
+        <v>99.93793941</v>
       </c>
       <c r="J15" t="n">
-        <v>99.9566792</v>
+        <v>99.84203512000001</v>
       </c>
       <c r="K15" t="n">
-        <v>99.81200324</v>
+        <v>99.84665055000001</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0857157</v>
+        <v>100.1086822</v>
       </c>
       <c r="M15" t="n">
-        <v>99.30328629</v>
+        <v>100.2427312</v>
       </c>
       <c r="N15" t="n">
-        <v>101.44549522</v>
+        <v>98.04124197</v>
       </c>
       <c r="O15" t="n">
-        <v>99.90401734</v>
+        <v>99.97484347</v>
       </c>
       <c r="P15" t="n">
-        <v>101.44692621</v>
+        <v>98.35935635</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.50635299</v>
+        <v>98.97791534</v>
       </c>
       <c r="R15" t="n">
-        <v>100.27312632</v>
+        <v>100.15314384</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.22255727</v>
+        <v>100.01738414</v>
       </c>
       <c r="C16" t="n">
-        <v>100.06128298</v>
+        <v>100.28685334</v>
       </c>
       <c r="D16" t="n">
-        <v>99.72983062</v>
+        <v>99.78142142</v>
       </c>
       <c r="E16" t="n">
-        <v>100.16919457</v>
+        <v>100.03992939</v>
       </c>
       <c r="F16" t="n">
-        <v>100.24383934</v>
+        <v>99.28164148</v>
       </c>
       <c r="G16" t="n">
-        <v>100.0652924</v>
+        <v>100.17605599</v>
       </c>
       <c r="H16" t="n">
-        <v>99.88999993</v>
+        <v>100.15775545</v>
       </c>
       <c r="I16" t="n">
-        <v>99.88387826</v>
+        <v>99.84318220999999</v>
       </c>
       <c r="J16" t="n">
-        <v>100.24468382</v>
+        <v>99.80496072</v>
       </c>
       <c r="K16" t="n">
-        <v>99.99915906</v>
+        <v>99.89147524000001</v>
       </c>
       <c r="L16" t="n">
-        <v>100.09906906</v>
+        <v>100.15573146</v>
       </c>
       <c r="M16" t="n">
-        <v>100.01813556</v>
+        <v>100.1446193</v>
       </c>
       <c r="N16" t="n">
-        <v>103.13759556</v>
+        <v>96.30273418</v>
       </c>
       <c r="O16" t="n">
-        <v>99.88817025</v>
+        <v>100.16128086</v>
       </c>
       <c r="P16" t="n">
-        <v>99.64367876999999</v>
+        <v>99.76347677</v>
       </c>
       <c r="Q16" t="n">
-        <v>99.97039875999999</v>
+        <v>98.64571945</v>
       </c>
       <c r="R16" t="n">
-        <v>100.18331377</v>
+        <v>100.18652234</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.35298972</v>
+        <v>100.15162578</v>
       </c>
       <c r="C17" t="n">
-        <v>99.98145889</v>
+        <v>100.09593506</v>
       </c>
       <c r="D17" t="n">
-        <v>99.68828852</v>
+        <v>99.65164328</v>
       </c>
       <c r="E17" t="n">
-        <v>100.07947395</v>
+        <v>100.0848936</v>
       </c>
       <c r="F17" t="n">
-        <v>99.87685392</v>
+        <v>99.70050807</v>
       </c>
       <c r="G17" t="n">
-        <v>100.4575529</v>
+        <v>100.17955012</v>
       </c>
       <c r="H17" t="n">
-        <v>99.83731942999999</v>
+        <v>100.2094764</v>
       </c>
       <c r="I17" t="n">
-        <v>99.89838114</v>
+        <v>99.88060727</v>
       </c>
       <c r="J17" t="n">
-        <v>100.15283894</v>
+        <v>99.95562371</v>
       </c>
       <c r="K17" t="n">
-        <v>99.87124149</v>
+        <v>100.00688942</v>
       </c>
       <c r="L17" t="n">
-        <v>100.12389386</v>
+        <v>100.21444844</v>
       </c>
       <c r="M17" t="n">
-        <v>100.37456499</v>
+        <v>99.66886769</v>
       </c>
       <c r="N17" t="n">
-        <v>101.910709</v>
+        <v>97.59065115999999</v>
       </c>
       <c r="O17" t="n">
-        <v>100.02127322</v>
+        <v>99.95519557999999</v>
       </c>
       <c r="P17" t="n">
-        <v>99.57455163</v>
+        <v>99.89963679</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.02746655999999</v>
+        <v>99.71402295</v>
       </c>
       <c r="R17" t="n">
-        <v>100.12623074</v>
+        <v>100.17680474</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.24031284</v>
+        <v>99.98476651</v>
       </c>
       <c r="C18" t="n">
-        <v>100.00122617</v>
+        <v>100.26939651</v>
       </c>
       <c r="D18" t="n">
-        <v>99.76997382</v>
+        <v>99.74567734</v>
       </c>
       <c r="E18" t="n">
-        <v>100.03035819</v>
+        <v>100.09865328</v>
       </c>
       <c r="F18" t="n">
-        <v>99.51607334000001</v>
+        <v>100.64026301</v>
       </c>
       <c r="G18" t="n">
-        <v>100.24995819</v>
+        <v>100.12219693</v>
       </c>
       <c r="H18" t="n">
-        <v>100.09045058</v>
+        <v>99.88887674</v>
       </c>
       <c r="I18" t="n">
-        <v>99.93793941</v>
+        <v>99.78626738</v>
       </c>
       <c r="J18" t="n">
-        <v>99.84203512000001</v>
+        <v>99.76001164</v>
       </c>
       <c r="K18" t="n">
-        <v>99.84665055000001</v>
+        <v>99.90527632</v>
       </c>
       <c r="L18" t="n">
-        <v>100.1086822</v>
+        <v>100.15750294</v>
       </c>
       <c r="M18" t="n">
-        <v>100.2427312</v>
+        <v>99.70707471</v>
       </c>
       <c r="N18" t="n">
-        <v>98.04124197</v>
+        <v>101.54349617</v>
       </c>
       <c r="O18" t="n">
-        <v>99.97484347</v>
+        <v>99.87750846</v>
       </c>
       <c r="P18" t="n">
-        <v>98.35935635</v>
+        <v>100.27741229</v>
       </c>
       <c r="Q18" t="n">
-        <v>98.97791534</v>
+        <v>101.75652251</v>
       </c>
       <c r="R18" t="n">
-        <v>100.15314384</v>
+        <v>100.34481276</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.01738414</v>
+        <v>100.05856127</v>
       </c>
       <c r="C19" t="n">
-        <v>100.28685334</v>
+        <v>100.78567899</v>
       </c>
       <c r="D19" t="n">
-        <v>99.78142142</v>
+        <v>99.85322103</v>
       </c>
       <c r="E19" t="n">
-        <v>100.03992939</v>
+        <v>100.31751169</v>
       </c>
       <c r="F19" t="n">
-        <v>99.28164148</v>
+        <v>100.4565714</v>
       </c>
       <c r="G19" t="n">
-        <v>100.17605599</v>
+        <v>100.18958674</v>
       </c>
       <c r="H19" t="n">
-        <v>100.15775545</v>
+        <v>100.05242595</v>
       </c>
       <c r="I19" t="n">
-        <v>99.84318220999999</v>
+        <v>99.83612681</v>
       </c>
       <c r="J19" t="n">
-        <v>99.80496072</v>
+        <v>99.87597427</v>
       </c>
       <c r="K19" t="n">
-        <v>99.89147524000001</v>
+        <v>100.09192084</v>
       </c>
       <c r="L19" t="n">
-        <v>100.15573146</v>
+        <v>100.11686509</v>
       </c>
       <c r="M19" t="n">
-        <v>100.1446193</v>
+        <v>100.45035655</v>
       </c>
       <c r="N19" t="n">
-        <v>96.30273418</v>
+        <v>102.67139986</v>
       </c>
       <c r="O19" t="n">
-        <v>100.16128086</v>
+        <v>100.16629603</v>
       </c>
       <c r="P19" t="n">
-        <v>99.76347677</v>
+        <v>102.77224821</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.64571945</v>
+        <v>100.51794742</v>
       </c>
       <c r="R19" t="n">
-        <v>100.18652234</v>
+        <v>100.06620939</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.15162578</v>
+        <v>99.98269788</v>
       </c>
       <c r="C20" t="n">
-        <v>100.09593506</v>
+        <v>100.05892086</v>
       </c>
       <c r="D20" t="n">
-        <v>99.65164328</v>
+        <v>99.86924036000001</v>
       </c>
       <c r="E20" t="n">
-        <v>100.0848936</v>
+        <v>100.07110837</v>
       </c>
       <c r="F20" t="n">
-        <v>99.70050807</v>
+        <v>99.92791314</v>
       </c>
       <c r="G20" t="n">
-        <v>100.17955012</v>
+        <v>100.32273071</v>
       </c>
       <c r="H20" t="n">
-        <v>100.2094764</v>
+        <v>100.0464043</v>
       </c>
       <c r="I20" t="n">
-        <v>99.88060727</v>
+        <v>99.74082086999999</v>
       </c>
       <c r="J20" t="n">
-        <v>99.95562371</v>
+        <v>100.26944304</v>
       </c>
       <c r="K20" t="n">
-        <v>100.00688942</v>
+        <v>99.84730451999999</v>
       </c>
       <c r="L20" t="n">
-        <v>100.21444844</v>
+        <v>100.121055</v>
       </c>
       <c r="M20" t="n">
-        <v>99.66886769</v>
+        <v>100.87132524</v>
       </c>
       <c r="N20" t="n">
-        <v>97.59065115999999</v>
+        <v>101.10208538</v>
       </c>
       <c r="O20" t="n">
-        <v>99.95519557999999</v>
+        <v>100.29187238</v>
       </c>
       <c r="P20" t="n">
-        <v>99.89963679</v>
+        <v>101.22641758</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.71402295</v>
+        <v>99.17302915</v>
       </c>
       <c r="R20" t="n">
-        <v>100.17680474</v>
+        <v>100.15493177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.98476651</v>
+        <v>100.07214855</v>
       </c>
       <c r="C21" t="n">
-        <v>100.26939651</v>
+        <v>100.06260661</v>
       </c>
       <c r="D21" t="n">
-        <v>99.74567734</v>
+        <v>99.78143043</v>
       </c>
       <c r="E21" t="n">
-        <v>100.09865328</v>
+        <v>100.04867745</v>
       </c>
       <c r="F21" t="n">
-        <v>100.64026301</v>
+        <v>100.17541022</v>
       </c>
       <c r="G21" t="n">
-        <v>100.12219693</v>
+        <v>100.13575087</v>
       </c>
       <c r="H21" t="n">
-        <v>99.88887674</v>
+        <v>100.21501663</v>
       </c>
       <c r="I21" t="n">
-        <v>99.78626738</v>
+        <v>99.99456778</v>
       </c>
       <c r="J21" t="n">
-        <v>99.76001164</v>
+        <v>100.08659409</v>
       </c>
       <c r="K21" t="n">
-        <v>99.90527632</v>
+        <v>100.00051512</v>
       </c>
       <c r="L21" t="n">
-        <v>100.15750294</v>
+        <v>100.07603697</v>
       </c>
       <c r="M21" t="n">
-        <v>99.70707471</v>
+        <v>100.86732907</v>
       </c>
       <c r="N21" t="n">
-        <v>101.54349617</v>
+        <v>99.83050875000001</v>
       </c>
       <c r="O21" t="n">
-        <v>99.87750846</v>
+        <v>100.31953129</v>
       </c>
       <c r="P21" t="n">
-        <v>100.27741229</v>
+        <v>99.1682495</v>
       </c>
       <c r="Q21" t="n">
-        <v>101.75652251</v>
+        <v>100.31849123</v>
       </c>
       <c r="R21" t="n">
-        <v>100.34481276</v>
+        <v>100.08759048</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.05856127</v>
+        <v>99.85724223</v>
       </c>
       <c r="C22" t="n">
-        <v>100.78567899</v>
+        <v>100.05975794</v>
       </c>
       <c r="D22" t="n">
-        <v>99.85322103</v>
+        <v>99.89248952</v>
       </c>
       <c r="E22" t="n">
-        <v>100.31751169</v>
+        <v>99.99396369999999</v>
       </c>
       <c r="F22" t="n">
-        <v>100.4565714</v>
+        <v>100.8478668</v>
       </c>
       <c r="G22" t="n">
-        <v>100.18958674</v>
+        <v>100.06355826</v>
       </c>
       <c r="H22" t="n">
-        <v>100.05242595</v>
+        <v>100.0079135</v>
       </c>
       <c r="I22" t="n">
-        <v>99.83612681</v>
+        <v>99.93036246</v>
       </c>
       <c r="J22" t="n">
-        <v>99.87597427</v>
+        <v>99.93925059</v>
       </c>
       <c r="K22" t="n">
-        <v>100.09192084</v>
+        <v>99.94527167</v>
       </c>
       <c r="L22" t="n">
-        <v>100.11686509</v>
+        <v>100.08971721</v>
       </c>
       <c r="M22" t="n">
-        <v>100.45035655</v>
+        <v>100.42332876</v>
       </c>
       <c r="N22" t="n">
-        <v>102.67139986</v>
+        <v>99.57594603</v>
       </c>
       <c r="O22" t="n">
-        <v>100.16629603</v>
+        <v>100.19634463</v>
       </c>
       <c r="P22" t="n">
-        <v>102.77224821</v>
+        <v>99.44524985</v>
       </c>
       <c r="Q22" t="n">
-        <v>100.51794742</v>
+        <v>102.58444332</v>
       </c>
       <c r="R22" t="n">
-        <v>100.06620939</v>
+        <v>100.4399499</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.23540869</v>
+        <v>99.52994058</v>
       </c>
       <c r="C23" t="n">
-        <v>100.06719186</v>
+        <v>100.20306685</v>
       </c>
       <c r="D23" t="n">
-        <v>99.90883402</v>
+        <v>99.90665125</v>
       </c>
       <c r="E23" t="n">
-        <v>100.12745602</v>
+        <v>100.19116593</v>
       </c>
       <c r="F23" t="n">
-        <v>99.78926155000001</v>
+        <v>101.06954499</v>
       </c>
       <c r="G23" t="n">
-        <v>99.98675484</v>
+        <v>100.03880872</v>
       </c>
       <c r="H23" t="n">
-        <v>100.24978603</v>
+        <v>100.23111401</v>
       </c>
       <c r="I23" t="n">
-        <v>99.86005056</v>
+        <v>99.91272275999999</v>
       </c>
       <c r="J23" t="n">
-        <v>100.08688454</v>
+        <v>100.15215833</v>
       </c>
       <c r="K23" t="n">
-        <v>100.15338031</v>
+        <v>100.08817315</v>
       </c>
       <c r="L23" t="n">
-        <v>100.11660826</v>
+        <v>100.03760184</v>
       </c>
       <c r="M23" t="n">
-        <v>100.61618231</v>
+        <v>100.16553664</v>
       </c>
       <c r="N23" t="n">
-        <v>99.42833301</v>
+        <v>100.1683054</v>
       </c>
       <c r="O23" t="n">
-        <v>100.27721641</v>
+        <v>100.1684503</v>
       </c>
       <c r="P23" t="n">
-        <v>98.65670518</v>
+        <v>99.39109173</v>
       </c>
       <c r="Q23" t="n">
-        <v>99.30028391</v>
+        <v>103.22160533</v>
       </c>
       <c r="R23" t="n">
-        <v>99.98482471</v>
+        <v>100.05694078</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.17181435</v>
+        <v>100.29821249</v>
       </c>
       <c r="C24" t="n">
-        <v>100.01610179</v>
+        <v>100.15398269</v>
       </c>
       <c r="D24" t="n">
-        <v>99.92645596</v>
+        <v>100.00714459</v>
       </c>
       <c r="E24" t="n">
-        <v>99.92207593000001</v>
+        <v>99.9839626</v>
       </c>
       <c r="F24" t="n">
-        <v>99.92416709</v>
+        <v>100.85488699</v>
       </c>
       <c r="G24" t="n">
-        <v>100.06769618</v>
+        <v>100.0832553</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1094576</v>
+        <v>100.04460954</v>
       </c>
       <c r="I24" t="n">
-        <v>99.98647275</v>
+        <v>99.89402355</v>
       </c>
       <c r="J24" t="n">
-        <v>100.32308892</v>
+        <v>100.12149773</v>
       </c>
       <c r="K24" t="n">
-        <v>100.01842881</v>
+        <v>100.0165431</v>
       </c>
       <c r="L24" t="n">
-        <v>100.00607738</v>
+        <v>99.98704863</v>
       </c>
       <c r="M24" t="n">
-        <v>100.84176203</v>
+        <v>99.57033607</v>
       </c>
       <c r="N24" t="n">
-        <v>99.75226137999999</v>
+        <v>100.35989965</v>
       </c>
       <c r="O24" t="n">
-        <v>100.14387129</v>
+        <v>100.00033373</v>
       </c>
       <c r="P24" t="n">
-        <v>98.64013164000001</v>
+        <v>99.40616389</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.53398706999999</v>
+        <v>102.5283154</v>
       </c>
       <c r="R24" t="n">
-        <v>100.09041112</v>
+        <v>100.02086006</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.17325574</v>
+        <v>100.19619433</v>
       </c>
       <c r="C25" t="n">
-        <v>100.02979211</v>
+        <v>100.18634332</v>
       </c>
       <c r="D25" t="n">
-        <v>99.92654448</v>
+        <v>99.89664175</v>
       </c>
       <c r="E25" t="n">
-        <v>100.01830176</v>
+        <v>100.14663778</v>
       </c>
       <c r="F25" t="n">
-        <v>100.3650745</v>
+        <v>99.00945924</v>
       </c>
       <c r="G25" t="n">
-        <v>100.03692588</v>
+        <v>100.08309439</v>
       </c>
       <c r="H25" t="n">
-        <v>100.16138916</v>
+        <v>100.05349033</v>
       </c>
       <c r="I25" t="n">
-        <v>99.93309689</v>
+        <v>99.99418266000001</v>
       </c>
       <c r="J25" t="n">
-        <v>100.17243801</v>
+        <v>100.07770719</v>
       </c>
       <c r="K25" t="n">
-        <v>99.99266367</v>
+        <v>100.04725871</v>
       </c>
       <c r="L25" t="n">
-        <v>100.07423301</v>
+        <v>100.18356675</v>
       </c>
       <c r="M25" t="n">
-        <v>100.46752385</v>
+        <v>100.01028509</v>
       </c>
       <c r="N25" t="n">
-        <v>101.71033352</v>
+        <v>100.68834985</v>
       </c>
       <c r="O25" t="n">
-        <v>100.59732479</v>
+        <v>99.94070576999999</v>
       </c>
       <c r="P25" t="n">
-        <v>97.52662946</v>
+        <v>99.05445478</v>
       </c>
       <c r="Q25" t="n">
-        <v>100.54535948</v>
+        <v>96.88821470000001</v>
       </c>
       <c r="R25" t="n">
-        <v>100.04514928</v>
+        <v>100.00784811</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99.52994058</v>
+        <v>100.16151132</v>
       </c>
       <c r="C26" t="n">
-        <v>100.20306685</v>
+        <v>100.01780479</v>
       </c>
       <c r="D26" t="n">
-        <v>99.90665125</v>
+        <v>99.72058584</v>
       </c>
       <c r="E26" t="n">
-        <v>100.19116593</v>
+        <v>100.02199935</v>
       </c>
       <c r="F26" t="n">
-        <v>101.06954499</v>
+        <v>99.84561569</v>
       </c>
       <c r="G26" t="n">
-        <v>100.03880872</v>
+        <v>100.2663325</v>
       </c>
       <c r="H26" t="n">
-        <v>100.23111401</v>
+        <v>100.00183034</v>
       </c>
       <c r="I26" t="n">
-        <v>99.91272275999999</v>
+        <v>99.94878457</v>
       </c>
       <c r="J26" t="n">
-        <v>100.15215833</v>
+        <v>99.9866844</v>
       </c>
       <c r="K26" t="n">
-        <v>100.08817315</v>
+        <v>99.98642848999999</v>
       </c>
       <c r="L26" t="n">
-        <v>100.03760184</v>
+        <v>100.08982744</v>
       </c>
       <c r="M26" t="n">
-        <v>100.16553664</v>
+        <v>100.53684292</v>
       </c>
       <c r="N26" t="n">
-        <v>100.1683054</v>
+        <v>97.84671969</v>
       </c>
       <c r="O26" t="n">
-        <v>100.1684503</v>
+        <v>100.24012614</v>
       </c>
       <c r="P26" t="n">
-        <v>99.39109173</v>
+        <v>97.33737834999999</v>
       </c>
       <c r="Q26" t="n">
-        <v>103.22160533</v>
+        <v>99.98366378999999</v>
       </c>
       <c r="R26" t="n">
-        <v>100.05694078</v>
+        <v>99.97618278</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.29821249</v>
+        <v>100.30422844</v>
       </c>
       <c r="C27" t="n">
-        <v>100.15398269</v>
+        <v>99.99525226</v>
       </c>
       <c r="D27" t="n">
-        <v>100.00714459</v>
+        <v>99.76631771</v>
       </c>
       <c r="E27" t="n">
-        <v>99.9839626</v>
+        <v>99.99847831</v>
       </c>
       <c r="F27" t="n">
-        <v>100.85488699</v>
+        <v>99.30773786</v>
       </c>
       <c r="G27" t="n">
-        <v>100.0832553</v>
+        <v>100.12184584</v>
       </c>
       <c r="H27" t="n">
-        <v>100.04460954</v>
+        <v>99.93032371</v>
       </c>
       <c r="I27" t="n">
-        <v>99.89402355</v>
+        <v>99.94327844</v>
       </c>
       <c r="J27" t="n">
-        <v>100.12149773</v>
+        <v>100.0369278</v>
       </c>
       <c r="K27" t="n">
-        <v>100.0165431</v>
+        <v>99.9596576</v>
       </c>
       <c r="L27" t="n">
-        <v>99.98704863</v>
+        <v>100.07875145</v>
       </c>
       <c r="M27" t="n">
-        <v>99.57033607</v>
+        <v>100.17233153</v>
       </c>
       <c r="N27" t="n">
-        <v>100.35989965</v>
+        <v>98.45954628</v>
       </c>
       <c r="O27" t="n">
-        <v>100.00033373</v>
+        <v>99.95876779</v>
       </c>
       <c r="P27" t="n">
-        <v>99.40616389</v>
+        <v>97.69795304</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.5283154</v>
+        <v>98.30752004</v>
       </c>
       <c r="R27" t="n">
-        <v>100.02086006</v>
+        <v>99.92400074</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.19619433</v>
+        <v>100.23513192</v>
       </c>
       <c r="C28" t="n">
-        <v>100.18634332</v>
+        <v>100.0270524</v>
       </c>
       <c r="D28" t="n">
-        <v>99.89664175</v>
+        <v>99.85955503</v>
       </c>
       <c r="E28" t="n">
-        <v>100.14663778</v>
+        <v>99.79407338999999</v>
       </c>
       <c r="F28" t="n">
-        <v>99.00945924</v>
+        <v>99.97981532999999</v>
       </c>
       <c r="G28" t="n">
-        <v>100.08309439</v>
+        <v>100.03082779</v>
       </c>
       <c r="H28" t="n">
-        <v>100.05349033</v>
+        <v>100.06096654</v>
       </c>
       <c r="I28" t="n">
-        <v>99.99418266000001</v>
+        <v>100.01764681</v>
       </c>
       <c r="J28" t="n">
-        <v>100.07770719</v>
+        <v>99.99741066999999</v>
       </c>
       <c r="K28" t="n">
-        <v>100.04725871</v>
+        <v>99.98166811999999</v>
       </c>
       <c r="L28" t="n">
-        <v>100.18356675</v>
+        <v>100.02678804</v>
       </c>
       <c r="M28" t="n">
-        <v>100.01028509</v>
+        <v>100.0958583</v>
       </c>
       <c r="N28" t="n">
-        <v>100.68834985</v>
+        <v>99.48099978</v>
       </c>
       <c r="O28" t="n">
-        <v>99.94070576999999</v>
+        <v>100.08032202</v>
       </c>
       <c r="P28" t="n">
-        <v>99.05445478</v>
+        <v>97.73437358</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.88821470000001</v>
+        <v>100.09894325</v>
       </c>
       <c r="R28" t="n">
-        <v>100.00784811</v>
+        <v>99.92047586</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.16151132</v>
+        <v>100.18238153</v>
       </c>
       <c r="C29" t="n">
-        <v>100.01780479</v>
+        <v>99.99861853</v>
       </c>
       <c r="D29" t="n">
-        <v>99.72058584</v>
+        <v>99.85720494</v>
       </c>
       <c r="E29" t="n">
-        <v>100.02199935</v>
+        <v>100.09604103</v>
       </c>
       <c r="F29" t="n">
-        <v>99.84561569</v>
+        <v>99.97424321</v>
       </c>
       <c r="G29" t="n">
-        <v>100.2663325</v>
+        <v>100.11891225</v>
       </c>
       <c r="H29" t="n">
-        <v>100.00183034</v>
+        <v>100.04719744</v>
       </c>
       <c r="I29" t="n">
-        <v>99.94878457</v>
+        <v>100.0055032</v>
       </c>
       <c r="J29" t="n">
-        <v>99.9866844</v>
+        <v>100.05667545</v>
       </c>
       <c r="K29" t="n">
-        <v>99.98642848999999</v>
+        <v>99.90011466</v>
       </c>
       <c r="L29" t="n">
-        <v>100.08982744</v>
+        <v>100.10362984</v>
       </c>
       <c r="M29" t="n">
-        <v>100.53684292</v>
+        <v>99.61608923999999</v>
       </c>
       <c r="N29" t="n">
-        <v>97.84671969</v>
+        <v>100.32296877</v>
       </c>
       <c r="O29" t="n">
-        <v>100.24012614</v>
+        <v>100.14194926</v>
       </c>
       <c r="P29" t="n">
-        <v>97.33737834999999</v>
+        <v>95.89696557000001</v>
       </c>
       <c r="Q29" t="n">
-        <v>99.98366378999999</v>
+        <v>100.03134682</v>
       </c>
       <c r="R29" t="n">
-        <v>99.97618278</v>
+        <v>100.05199749</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.30422844</v>
+        <v>100.07804798</v>
       </c>
       <c r="C30" t="n">
-        <v>99.99525226</v>
+        <v>100.08118343</v>
       </c>
       <c r="D30" t="n">
-        <v>99.76631771</v>
+        <v>99.85434789</v>
       </c>
       <c r="E30" t="n">
-        <v>99.99847831</v>
+        <v>100.06053204</v>
       </c>
       <c r="F30" t="n">
-        <v>99.30773786</v>
+        <v>100.64234986</v>
       </c>
       <c r="G30" t="n">
-        <v>100.12184584</v>
+        <v>100.10546168</v>
       </c>
       <c r="H30" t="n">
-        <v>99.93032371</v>
+        <v>100.05629067</v>
       </c>
       <c r="I30" t="n">
-        <v>99.94327844</v>
+        <v>99.91468576</v>
       </c>
       <c r="J30" t="n">
-        <v>100.0369278</v>
+        <v>100.18566484</v>
       </c>
       <c r="K30" t="n">
-        <v>99.9596576</v>
+        <v>99.93160902</v>
       </c>
       <c r="L30" t="n">
-        <v>100.07875145</v>
+        <v>100.12464347</v>
       </c>
       <c r="M30" t="n">
-        <v>100.17233153</v>
+        <v>99.64777227</v>
       </c>
       <c r="N30" t="n">
-        <v>98.45954628</v>
+        <v>100.90849652</v>
       </c>
       <c r="O30" t="n">
-        <v>99.95876779</v>
+        <v>99.85759003</v>
       </c>
       <c r="P30" t="n">
-        <v>97.69795304</v>
+        <v>99.95664909</v>
       </c>
       <c r="Q30" t="n">
-        <v>98.30752004</v>
+        <v>101.80768847</v>
       </c>
       <c r="R30" t="n">
-        <v>99.92400074</v>
+        <v>100.01259872</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.23513192</v>
+        <v>100.19291954</v>
       </c>
       <c r="C31" t="n">
-        <v>100.0270524</v>
+        <v>99.99874226</v>
       </c>
       <c r="D31" t="n">
-        <v>99.85955503</v>
+        <v>99.92308299</v>
       </c>
       <c r="E31" t="n">
-        <v>99.79407338999999</v>
+        <v>100.13557051</v>
       </c>
       <c r="F31" t="n">
-        <v>99.97981532999999</v>
+        <v>100.75091376</v>
       </c>
       <c r="G31" t="n">
-        <v>100.03082779</v>
+        <v>100.04520978</v>
       </c>
       <c r="H31" t="n">
-        <v>100.06096654</v>
+        <v>100.11700869</v>
       </c>
       <c r="I31" t="n">
-        <v>100.01764681</v>
+        <v>99.81956661</v>
       </c>
       <c r="J31" t="n">
-        <v>99.99741066999999</v>
+        <v>100.09560394</v>
       </c>
       <c r="K31" t="n">
-        <v>99.98166811999999</v>
+        <v>99.9652811</v>
       </c>
       <c r="L31" t="n">
-        <v>100.02678804</v>
+        <v>100.0686509</v>
       </c>
       <c r="M31" t="n">
-        <v>100.0958583</v>
+        <v>100.71846661</v>
       </c>
       <c r="N31" t="n">
-        <v>99.48099978</v>
+        <v>101.47138514</v>
       </c>
       <c r="O31" t="n">
-        <v>100.08032202</v>
+        <v>100.0150035</v>
       </c>
       <c r="P31" t="n">
-        <v>97.73437358</v>
+        <v>100.22360961</v>
       </c>
       <c r="Q31" t="n">
-        <v>100.09894325</v>
+        <v>101.70274571</v>
       </c>
       <c r="R31" t="n">
-        <v>99.92047586</v>
+        <v>99.95222439</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.18238153</v>
+        <v>100.23540869</v>
       </c>
       <c r="C32" t="n">
-        <v>99.99861853</v>
+        <v>100.06719186</v>
       </c>
       <c r="D32" t="n">
-        <v>99.85720494</v>
+        <v>99.90883402</v>
       </c>
       <c r="E32" t="n">
-        <v>100.09604103</v>
+        <v>100.12745602</v>
       </c>
       <c r="F32" t="n">
-        <v>99.97424321</v>
+        <v>99.78926155000001</v>
       </c>
       <c r="G32" t="n">
-        <v>100.11891225</v>
+        <v>99.98675484</v>
       </c>
       <c r="H32" t="n">
-        <v>100.04719744</v>
+        <v>100.24978603</v>
       </c>
       <c r="I32" t="n">
-        <v>100.0055032</v>
+        <v>99.86005056</v>
       </c>
       <c r="J32" t="n">
-        <v>100.05667545</v>
+        <v>100.08688454</v>
       </c>
       <c r="K32" t="n">
-        <v>99.90011466</v>
+        <v>100.15338031</v>
       </c>
       <c r="L32" t="n">
-        <v>100.10362984</v>
+        <v>100.11660826</v>
       </c>
       <c r="M32" t="n">
-        <v>99.61608923999999</v>
+        <v>100.61618231</v>
       </c>
       <c r="N32" t="n">
-        <v>100.32296877</v>
+        <v>99.42833301</v>
       </c>
       <c r="O32" t="n">
-        <v>100.14194926</v>
+        <v>100.27721641</v>
       </c>
       <c r="P32" t="n">
-        <v>95.89696557000001</v>
+        <v>98.65670518</v>
       </c>
       <c r="Q32" t="n">
-        <v>100.03134682</v>
+        <v>99.30028391</v>
       </c>
       <c r="R32" t="n">
-        <v>100.05199749</v>
+        <v>99.98482471</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.07804798</v>
+        <v>100.17181435</v>
       </c>
       <c r="C33" t="n">
-        <v>100.08118343</v>
+        <v>100.01610179</v>
       </c>
       <c r="D33" t="n">
-        <v>99.85434789</v>
+        <v>99.92645596</v>
       </c>
       <c r="E33" t="n">
-        <v>100.06053204</v>
+        <v>99.92207593000001</v>
       </c>
       <c r="F33" t="n">
-        <v>100.64234986</v>
+        <v>99.92416709</v>
       </c>
       <c r="G33" t="n">
-        <v>100.10546168</v>
+        <v>100.06769618</v>
       </c>
       <c r="H33" t="n">
-        <v>100.05629067</v>
+        <v>100.1094576</v>
       </c>
       <c r="I33" t="n">
-        <v>99.91468576</v>
+        <v>99.98647275</v>
       </c>
       <c r="J33" t="n">
-        <v>100.18566484</v>
+        <v>100.32308892</v>
       </c>
       <c r="K33" t="n">
-        <v>99.93160902</v>
+        <v>100.01842881</v>
       </c>
       <c r="L33" t="n">
-        <v>100.12464347</v>
+        <v>100.00607738</v>
       </c>
       <c r="M33" t="n">
-        <v>99.64777227</v>
+        <v>100.84176203</v>
       </c>
       <c r="N33" t="n">
-        <v>100.90849652</v>
+        <v>99.75226137999999</v>
       </c>
       <c r="O33" t="n">
-        <v>99.85759003</v>
+        <v>100.14387129</v>
       </c>
       <c r="P33" t="n">
-        <v>99.95664909</v>
+        <v>98.64013164000001</v>
       </c>
       <c r="Q33" t="n">
-        <v>101.80768847</v>
+        <v>99.53398706999999</v>
       </c>
       <c r="R33" t="n">
-        <v>100.01259872</v>
+        <v>100.09041112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.19291954</v>
+        <v>100.17325574</v>
       </c>
       <c r="C34" t="n">
-        <v>99.99874226</v>
+        <v>100.02979211</v>
       </c>
       <c r="D34" t="n">
-        <v>99.92308299</v>
+        <v>99.92654448</v>
       </c>
       <c r="E34" t="n">
-        <v>100.13557051</v>
+        <v>100.01830176</v>
       </c>
       <c r="F34" t="n">
-        <v>100.75091376</v>
+        <v>100.3650745</v>
       </c>
       <c r="G34" t="n">
-        <v>100.04520978</v>
+        <v>100.03692588</v>
       </c>
       <c r="H34" t="n">
-        <v>100.11700869</v>
+        <v>100.16138916</v>
       </c>
       <c r="I34" t="n">
-        <v>99.81956661</v>
+        <v>99.93309689</v>
       </c>
       <c r="J34" t="n">
-        <v>100.09560394</v>
+        <v>100.17243801</v>
       </c>
       <c r="K34" t="n">
-        <v>99.9652811</v>
+        <v>99.99266367</v>
       </c>
       <c r="L34" t="n">
-        <v>100.0686509</v>
+        <v>100.07423301</v>
       </c>
       <c r="M34" t="n">
-        <v>100.71846661</v>
+        <v>100.46752385</v>
       </c>
       <c r="N34" t="n">
-        <v>101.47138514</v>
+        <v>101.71033352</v>
       </c>
       <c r="O34" t="n">
-        <v>100.0150035</v>
+        <v>100.59732479</v>
       </c>
       <c r="P34" t="n">
-        <v>100.22360961</v>
+        <v>97.52662946</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.70274571</v>
+        <v>100.54535948</v>
       </c>
       <c r="R34" t="n">
-        <v>99.95222439</v>
+        <v>100.04514928</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.08108453</v>
+        <v>100.09585291</v>
       </c>
       <c r="C35" t="n">
-        <v>100.08767453</v>
+        <v>100.3790273</v>
       </c>
       <c r="D35" t="n">
-        <v>99.93832637</v>
+        <v>99.90261292</v>
       </c>
       <c r="E35" t="n">
-        <v>100.40239017</v>
+        <v>100.20970132</v>
       </c>
       <c r="F35" t="n">
-        <v>99.81414329</v>
+        <v>100.78461815</v>
       </c>
       <c r="G35" t="n">
-        <v>100.09867643</v>
+        <v>100.11560634</v>
       </c>
       <c r="H35" t="n">
-        <v>100.0875923</v>
+        <v>100.0312078</v>
       </c>
       <c r="I35" t="n">
-        <v>99.93957059</v>
+        <v>99.95344118</v>
       </c>
       <c r="J35" t="n">
-        <v>100.0367691</v>
+        <v>100.04682448</v>
       </c>
       <c r="K35" t="n">
-        <v>100.13048927</v>
+        <v>99.99454326</v>
       </c>
       <c r="L35" t="n">
-        <v>100.02837422</v>
+        <v>100.1790017</v>
       </c>
       <c r="M35" t="n">
-        <v>100.7806728</v>
+        <v>99.87426301000001</v>
       </c>
       <c r="N35" t="n">
-        <v>98.33367071000001</v>
+        <v>100.232962</v>
       </c>
       <c r="O35" t="n">
-        <v>100.19016165</v>
+        <v>99.96032652</v>
       </c>
       <c r="P35" t="n">
-        <v>98.70181306000001</v>
+        <v>98.96320136</v>
       </c>
       <c r="Q35" t="n">
-        <v>99.57683975</v>
+        <v>102.31350873</v>
       </c>
       <c r="R35" t="n">
-        <v>100.05448219</v>
+        <v>99.87642040999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.19088479</v>
+        <v>99.94570487</v>
       </c>
       <c r="C36" t="n">
-        <v>100.00732339</v>
+        <v>100.08639437</v>
       </c>
       <c r="D36" t="n">
-        <v>100.01682163</v>
+        <v>99.96760021999999</v>
       </c>
       <c r="E36" t="n">
-        <v>99.95580848</v>
+        <v>99.2361263</v>
       </c>
       <c r="F36" t="n">
-        <v>99.75564124</v>
+        <v>100.33661804</v>
       </c>
       <c r="G36" t="n">
-        <v>100.03873077</v>
+        <v>100.07421758</v>
       </c>
       <c r="H36" t="n">
-        <v>100.33639273</v>
+        <v>99.99312886</v>
       </c>
       <c r="I36" t="n">
-        <v>100.22216212</v>
+        <v>99.90830135</v>
       </c>
       <c r="J36" t="n">
-        <v>100.17402858</v>
+        <v>99.9166522</v>
       </c>
       <c r="K36" t="n">
-        <v>100.07943605</v>
+        <v>99.91955869</v>
       </c>
       <c r="L36" t="n">
-        <v>100.05635117</v>
+        <v>100.06944367</v>
       </c>
       <c r="M36" t="n">
-        <v>100.81580521</v>
+        <v>99.3966472</v>
       </c>
       <c r="N36" t="n">
-        <v>97.16166199</v>
+        <v>99.59265388999999</v>
       </c>
       <c r="O36" t="n">
-        <v>100.29069675</v>
+        <v>100.18640711</v>
       </c>
       <c r="P36" t="n">
-        <v>98.35410013000001</v>
+        <v>101.06619562</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.55656341</v>
+        <v>101.25729547</v>
       </c>
       <c r="R36" t="n">
-        <v>99.94684288000001</v>
+        <v>99.96802941999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.13106803</v>
+        <v>100.08848057</v>
       </c>
       <c r="C37" t="n">
-        <v>100.05491661</v>
+        <v>100.06677439</v>
       </c>
       <c r="D37" t="n">
-        <v>99.97711203</v>
+        <v>99.88644547</v>
       </c>
       <c r="E37" t="n">
-        <v>100.12866254</v>
+        <v>100.07652794</v>
       </c>
       <c r="F37" t="n">
-        <v>100.2571727</v>
+        <v>99.42962912</v>
       </c>
       <c r="G37" t="n">
-        <v>100.10273013</v>
+        <v>100.07708352</v>
       </c>
       <c r="H37" t="n">
-        <v>100.34415183</v>
+        <v>100.09268529</v>
       </c>
       <c r="I37" t="n">
-        <v>100.10209863</v>
+        <v>99.93100222</v>
       </c>
       <c r="J37" t="n">
-        <v>99.93540311</v>
+        <v>99.92871348</v>
       </c>
       <c r="K37" t="n">
-        <v>100.0929448</v>
+        <v>100.05914016</v>
       </c>
       <c r="L37" t="n">
-        <v>100.07813493</v>
+        <v>100.00544848</v>
       </c>
       <c r="M37" t="n">
-        <v>100.33448584</v>
+        <v>100.38824533</v>
       </c>
       <c r="N37" t="n">
-        <v>97.50086818</v>
+        <v>100.45748327</v>
       </c>
       <c r="O37" t="n">
-        <v>100.27217118</v>
+        <v>99.94131523</v>
       </c>
       <c r="P37" t="n">
-        <v>99.76339047</v>
+        <v>102.15250496</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.10916708</v>
+        <v>98.08250476000001</v>
       </c>
       <c r="R37" t="n">
-        <v>99.91622488</v>
+        <v>100.08151969</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.09585291</v>
+        <v>100.01608227</v>
       </c>
       <c r="C38" t="n">
-        <v>100.3790273</v>
+        <v>100.00033227</v>
       </c>
       <c r="D38" t="n">
-        <v>99.90261292</v>
+        <v>100.05607132</v>
       </c>
       <c r="E38" t="n">
-        <v>100.20970132</v>
+        <v>100.0338196</v>
       </c>
       <c r="F38" t="n">
-        <v>100.78461815</v>
+        <v>99.57526807000001</v>
       </c>
       <c r="G38" t="n">
-        <v>100.11560634</v>
+        <v>100.11038427</v>
       </c>
       <c r="H38" t="n">
-        <v>100.0312078</v>
+        <v>100.10073863</v>
       </c>
       <c r="I38" t="n">
-        <v>99.95344118</v>
+        <v>100.02523806</v>
       </c>
       <c r="J38" t="n">
-        <v>100.04682448</v>
+        <v>100.01985942</v>
       </c>
       <c r="K38" t="n">
-        <v>99.99454326</v>
+        <v>100.03793228</v>
       </c>
       <c r="L38" t="n">
-        <v>100.1790017</v>
+        <v>100.04078608</v>
       </c>
       <c r="M38" t="n">
-        <v>99.87426301000001</v>
+        <v>100.56625454</v>
       </c>
       <c r="N38" t="n">
-        <v>100.232962</v>
+        <v>99.34229388</v>
       </c>
       <c r="O38" t="n">
-        <v>99.96032652</v>
+        <v>100.32912202</v>
       </c>
       <c r="P38" t="n">
-        <v>98.96320136</v>
+        <v>99.65273286</v>
       </c>
       <c r="Q38" t="n">
-        <v>102.31350873</v>
+        <v>98.6698744</v>
       </c>
       <c r="R38" t="n">
-        <v>99.87642040999999</v>
+        <v>100.08889643</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.94570487</v>
+        <v>100.11188053</v>
       </c>
       <c r="C39" t="n">
-        <v>100.08639437</v>
+        <v>100.00625937</v>
       </c>
       <c r="D39" t="n">
-        <v>99.96760021999999</v>
+        <v>99.94143694</v>
       </c>
       <c r="E39" t="n">
-        <v>99.2361263</v>
+        <v>100.04473751</v>
       </c>
       <c r="F39" t="n">
-        <v>100.33661804</v>
+        <v>100.14146753</v>
       </c>
       <c r="G39" t="n">
-        <v>100.07421758</v>
+        <v>99.98826941999999</v>
       </c>
       <c r="H39" t="n">
-        <v>99.99312886</v>
+        <v>100.14103173</v>
       </c>
       <c r="I39" t="n">
-        <v>99.90830135</v>
+        <v>99.93562717</v>
       </c>
       <c r="J39" t="n">
-        <v>99.9166522</v>
+        <v>99.89836221</v>
       </c>
       <c r="K39" t="n">
-        <v>99.91955869</v>
+        <v>100.06445513</v>
       </c>
       <c r="L39" t="n">
-        <v>100.06944367</v>
+        <v>100.04808053</v>
       </c>
       <c r="M39" t="n">
-        <v>99.3966472</v>
+        <v>100.22214698</v>
       </c>
       <c r="N39" t="n">
-        <v>99.59265388999999</v>
+        <v>100.17054006</v>
       </c>
       <c r="O39" t="n">
-        <v>100.18640711</v>
+        <v>100.16377566</v>
       </c>
       <c r="P39" t="n">
-        <v>101.06619562</v>
+        <v>99.27963883</v>
       </c>
       <c r="Q39" t="n">
-        <v>101.25729547</v>
+        <v>100.33084366</v>
       </c>
       <c r="R39" t="n">
-        <v>99.96802941999999</v>
+        <v>100.02119431</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.08848057</v>
+        <v>100.06261317</v>
       </c>
       <c r="C40" t="n">
-        <v>100.06677439</v>
+        <v>99.99596052</v>
       </c>
       <c r="D40" t="n">
-        <v>99.88644547</v>
+        <v>99.90925420000001</v>
       </c>
       <c r="E40" t="n">
-        <v>100.07652794</v>
+        <v>100.02365942</v>
       </c>
       <c r="F40" t="n">
-        <v>99.42962912</v>
+        <v>99.89290373999999</v>
       </c>
       <c r="G40" t="n">
-        <v>100.07708352</v>
+        <v>99.99664545</v>
       </c>
       <c r="H40" t="n">
-        <v>100.09268529</v>
+        <v>100.02671287</v>
       </c>
       <c r="I40" t="n">
-        <v>99.93100222</v>
+        <v>99.94658051</v>
       </c>
       <c r="J40" t="n">
-        <v>99.92871348</v>
+        <v>99.77893555999999</v>
       </c>
       <c r="K40" t="n">
-        <v>100.05914016</v>
+        <v>99.87359918</v>
       </c>
       <c r="L40" t="n">
-        <v>100.00544848</v>
+        <v>100.00261644</v>
       </c>
       <c r="M40" t="n">
-        <v>100.38824533</v>
+        <v>99.98500527</v>
       </c>
       <c r="N40" t="n">
-        <v>100.45748327</v>
+        <v>99.9368114</v>
       </c>
       <c r="O40" t="n">
-        <v>99.94131523</v>
+        <v>100.04152976</v>
       </c>
       <c r="P40" t="n">
-        <v>102.15250496</v>
+        <v>99.54091303</v>
       </c>
       <c r="Q40" t="n">
-        <v>98.08250476000001</v>
+        <v>99.77959294999999</v>
       </c>
       <c r="R40" t="n">
-        <v>100.08151969</v>
+        <v>99.98467909</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.01608227</v>
+        <v>100.10529123</v>
       </c>
       <c r="C41" t="n">
-        <v>100.00033227</v>
+        <v>100.01874582</v>
       </c>
       <c r="D41" t="n">
-        <v>100.05607132</v>
+        <v>99.90511356</v>
       </c>
       <c r="E41" t="n">
-        <v>100.0338196</v>
+        <v>100.10659707</v>
       </c>
       <c r="F41" t="n">
-        <v>99.57526807000001</v>
+        <v>99.97420887</v>
       </c>
       <c r="G41" t="n">
-        <v>100.11038427</v>
+        <v>100.09988443</v>
       </c>
       <c r="H41" t="n">
-        <v>100.10073863</v>
+        <v>100.06788846</v>
       </c>
       <c r="I41" t="n">
-        <v>100.02523806</v>
+        <v>99.92027477000001</v>
       </c>
       <c r="J41" t="n">
-        <v>100.01985942</v>
+        <v>99.95676511000001</v>
       </c>
       <c r="K41" t="n">
-        <v>100.03793228</v>
+        <v>99.97271222000001</v>
       </c>
       <c r="L41" t="n">
-        <v>100.04078608</v>
+        <v>100.0769247</v>
       </c>
       <c r="M41" t="n">
-        <v>100.56625454</v>
+        <v>99.66264605000001</v>
       </c>
       <c r="N41" t="n">
-        <v>99.34229388</v>
+        <v>99.90695341</v>
       </c>
       <c r="O41" t="n">
-        <v>100.32912202</v>
+        <v>100.02697014</v>
       </c>
       <c r="P41" t="n">
-        <v>99.65273286</v>
+        <v>100.39403329</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.6698744</v>
+        <v>100.02493669</v>
       </c>
       <c r="R41" t="n">
-        <v>100.08889643</v>
+        <v>99.98129611</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.11188053</v>
+        <v>100.29096149</v>
       </c>
       <c r="C42" t="n">
-        <v>100.00625937</v>
+        <v>100.07403948</v>
       </c>
       <c r="D42" t="n">
-        <v>99.94143694</v>
+        <v>100.03961208</v>
       </c>
       <c r="E42" t="n">
-        <v>100.04473751</v>
+        <v>100.36718184</v>
       </c>
       <c r="F42" t="n">
-        <v>100.14146753</v>
+        <v>100.22601987</v>
       </c>
       <c r="G42" t="n">
-        <v>99.98826941999999</v>
+        <v>100.10717837</v>
       </c>
       <c r="H42" t="n">
-        <v>100.14103173</v>
+        <v>100.15294605</v>
       </c>
       <c r="I42" t="n">
-        <v>99.93562717</v>
+        <v>99.85060772</v>
       </c>
       <c r="J42" t="n">
-        <v>99.89836221</v>
+        <v>99.89825011000001</v>
       </c>
       <c r="K42" t="n">
-        <v>100.06445513</v>
+        <v>100.10380083</v>
       </c>
       <c r="L42" t="n">
-        <v>100.04808053</v>
+        <v>100.04114695</v>
       </c>
       <c r="M42" t="n">
-        <v>100.22214698</v>
+        <v>99.51787519</v>
       </c>
       <c r="N42" t="n">
-        <v>100.17054006</v>
+        <v>98.45779098</v>
       </c>
       <c r="O42" t="n">
-        <v>100.16377566</v>
+        <v>99.95154357</v>
       </c>
       <c r="P42" t="n">
-        <v>99.27963883</v>
+        <v>99.49552550999999</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.33084366</v>
+        <v>101.08930479</v>
       </c>
       <c r="R42" t="n">
-        <v>100.02119431</v>
+        <v>100.07357397</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.06261317</v>
+        <v>100.10291067</v>
       </c>
       <c r="C43" t="n">
-        <v>99.99596052</v>
+        <v>100.42531996</v>
       </c>
       <c r="D43" t="n">
-        <v>99.90925420000001</v>
+        <v>99.74604908000001</v>
       </c>
       <c r="E43" t="n">
-        <v>100.02365942</v>
+        <v>99.99814685</v>
       </c>
       <c r="F43" t="n">
-        <v>99.89290373999999</v>
+        <v>100.21333081</v>
       </c>
       <c r="G43" t="n">
-        <v>99.99664545</v>
+        <v>100.00696627</v>
       </c>
       <c r="H43" t="n">
-        <v>100.02671287</v>
+        <v>100.06402683</v>
       </c>
       <c r="I43" t="n">
-        <v>99.94658051</v>
+        <v>99.93722645</v>
       </c>
       <c r="J43" t="n">
-        <v>99.77893555999999</v>
+        <v>99.89137724</v>
       </c>
       <c r="K43" t="n">
-        <v>99.87359918</v>
+        <v>100.00514498</v>
       </c>
       <c r="L43" t="n">
-        <v>100.00261644</v>
+        <v>100.07709344</v>
       </c>
       <c r="M43" t="n">
-        <v>99.98500527</v>
+        <v>100.60944417</v>
       </c>
       <c r="N43" t="n">
-        <v>99.9368114</v>
+        <v>98.40978981000001</v>
       </c>
       <c r="O43" t="n">
-        <v>100.04152976</v>
+        <v>100.11887009</v>
       </c>
       <c r="P43" t="n">
-        <v>99.54091303</v>
+        <v>98.79944578</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.77959294999999</v>
+        <v>100.87534577</v>
       </c>
       <c r="R43" t="n">
-        <v>99.98467909</v>
+        <v>99.93461157</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.10529123</v>
+        <v>100.08108453</v>
       </c>
       <c r="C44" t="n">
-        <v>100.01874582</v>
+        <v>100.08767453</v>
       </c>
       <c r="D44" t="n">
-        <v>99.90511356</v>
+        <v>99.93832637</v>
       </c>
       <c r="E44" t="n">
-        <v>100.10659707</v>
+        <v>100.40239017</v>
       </c>
       <c r="F44" t="n">
-        <v>99.97420887</v>
+        <v>99.81414329</v>
       </c>
       <c r="G44" t="n">
-        <v>100.09988443</v>
+        <v>100.09867643</v>
       </c>
       <c r="H44" t="n">
-        <v>100.06788846</v>
+        <v>100.0875923</v>
       </c>
       <c r="I44" t="n">
-        <v>99.92027477000001</v>
+        <v>99.93957059</v>
       </c>
       <c r="J44" t="n">
-        <v>99.95676511000001</v>
+        <v>100.0367691</v>
       </c>
       <c r="K44" t="n">
-        <v>99.97271222000001</v>
+        <v>100.13048927</v>
       </c>
       <c r="L44" t="n">
-        <v>100.0769247</v>
+        <v>100.02837422</v>
       </c>
       <c r="M44" t="n">
-        <v>99.66264605000001</v>
+        <v>100.7806728</v>
       </c>
       <c r="N44" t="n">
-        <v>99.90695341</v>
+        <v>98.33367071000001</v>
       </c>
       <c r="O44" t="n">
-        <v>100.02697014</v>
+        <v>100.19016165</v>
       </c>
       <c r="P44" t="n">
-        <v>100.39403329</v>
+        <v>98.70181306000001</v>
       </c>
       <c r="Q44" t="n">
-        <v>100.02493669</v>
+        <v>99.57683975</v>
       </c>
       <c r="R44" t="n">
-        <v>99.98129611</v>
+        <v>100.05448219</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.29096149</v>
+        <v>100.19088479</v>
       </c>
       <c r="C45" t="n">
-        <v>100.07403948</v>
+        <v>100.00732339</v>
       </c>
       <c r="D45" t="n">
-        <v>100.03961208</v>
+        <v>100.01682163</v>
       </c>
       <c r="E45" t="n">
-        <v>100.36718184</v>
+        <v>99.95580848</v>
       </c>
       <c r="F45" t="n">
-        <v>100.22601987</v>
+        <v>99.75564124</v>
       </c>
       <c r="G45" t="n">
-        <v>100.10717837</v>
+        <v>100.03873077</v>
       </c>
       <c r="H45" t="n">
-        <v>100.15294605</v>
+        <v>100.33639273</v>
       </c>
       <c r="I45" t="n">
-        <v>99.85060772</v>
+        <v>100.22216212</v>
       </c>
       <c r="J45" t="n">
-        <v>99.89825011000001</v>
+        <v>100.17402858</v>
       </c>
       <c r="K45" t="n">
-        <v>100.10380083</v>
+        <v>100.07943605</v>
       </c>
       <c r="L45" t="n">
-        <v>100.04114695</v>
+        <v>100.05635117</v>
       </c>
       <c r="M45" t="n">
-        <v>99.51787519</v>
+        <v>100.81580521</v>
       </c>
       <c r="N45" t="n">
-        <v>98.45779098</v>
+        <v>97.16166199</v>
       </c>
       <c r="O45" t="n">
-        <v>99.95154357</v>
+        <v>100.29069675</v>
       </c>
       <c r="P45" t="n">
-        <v>99.49552550999999</v>
+        <v>98.35410013000001</v>
       </c>
       <c r="Q45" t="n">
-        <v>101.08930479</v>
+        <v>99.55656341</v>
       </c>
       <c r="R45" t="n">
-        <v>100.07357397</v>
+        <v>99.94684288000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.10291067</v>
+        <v>100.13106803</v>
       </c>
       <c r="C46" t="n">
-        <v>100.42531996</v>
+        <v>100.05491661</v>
       </c>
       <c r="D46" t="n">
-        <v>99.74604908000001</v>
+        <v>99.97711203</v>
       </c>
       <c r="E46" t="n">
-        <v>99.99814685</v>
+        <v>100.12866254</v>
       </c>
       <c r="F46" t="n">
-        <v>100.21333081</v>
+        <v>100.2571727</v>
       </c>
       <c r="G46" t="n">
-        <v>100.00696627</v>
+        <v>100.10273013</v>
       </c>
       <c r="H46" t="n">
-        <v>100.06402683</v>
+        <v>100.34415183</v>
       </c>
       <c r="I46" t="n">
-        <v>99.93722645</v>
+        <v>100.10209863</v>
       </c>
       <c r="J46" t="n">
-        <v>99.89137724</v>
+        <v>99.93540311</v>
       </c>
       <c r="K46" t="n">
-        <v>100.00514498</v>
+        <v>100.0929448</v>
       </c>
       <c r="L46" t="n">
-        <v>100.07709344</v>
+        <v>100.07813493</v>
       </c>
       <c r="M46" t="n">
-        <v>100.60944417</v>
+        <v>100.33448584</v>
       </c>
       <c r="N46" t="n">
-        <v>98.40978981000001</v>
+        <v>97.50086818</v>
       </c>
       <c r="O46" t="n">
-        <v>100.11887009</v>
+        <v>100.27217118</v>
       </c>
       <c r="P46" t="n">
-        <v>98.79944578</v>
+        <v>99.76339047</v>
       </c>
       <c r="Q46" t="n">
-        <v>100.87534577</v>
+        <v>101.10916708</v>
       </c>
       <c r="R46" t="n">
-        <v>99.93461157</v>
+        <v>99.91622488</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.15398213</v>
+        <v>100.35133909</v>
       </c>
       <c r="C47" t="n">
-        <v>100.07473623</v>
+        <v>101.47982664</v>
       </c>
       <c r="D47" t="n">
-        <v>99.94635805</v>
+        <v>100.14059385</v>
       </c>
       <c r="E47" t="n">
-        <v>100.00690092</v>
+        <v>100.05709788</v>
       </c>
       <c r="F47" t="n">
-        <v>99.68447303000001</v>
+        <v>99.95646564</v>
       </c>
       <c r="G47" t="n">
-        <v>99.93979616999999</v>
+        <v>100.11251469</v>
       </c>
       <c r="H47" t="n">
-        <v>100.20628376</v>
+        <v>100.27702975</v>
       </c>
       <c r="I47" t="n">
-        <v>99.83339852</v>
+        <v>99.92593642</v>
       </c>
       <c r="J47" t="n">
-        <v>99.94477308</v>
+        <v>99.95139589</v>
       </c>
       <c r="K47" t="n">
-        <v>99.99594578</v>
+        <v>100.09598184</v>
       </c>
       <c r="L47" t="n">
-        <v>100.04368081</v>
+        <v>100.07489506</v>
       </c>
       <c r="M47" t="n">
-        <v>100.53296291</v>
+        <v>100.06722227</v>
       </c>
       <c r="N47" t="n">
-        <v>100.21064175</v>
+        <v>95.76711438</v>
       </c>
       <c r="O47" t="n">
-        <v>100.18753896</v>
+        <v>100.11228757</v>
       </c>
       <c r="P47" t="n">
-        <v>100.11079623</v>
+        <v>100.78665277</v>
       </c>
       <c r="Q47" t="n">
-        <v>98.90110817999999</v>
+        <v>100.46008172</v>
       </c>
       <c r="R47" t="n">
-        <v>100.02679519</v>
+        <v>99.97089467000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>100.28468429</v>
+        <v>100.11633258</v>
       </c>
       <c r="C48" t="n">
-        <v>99.98803177000001</v>
+        <v>100.00499228</v>
       </c>
       <c r="D48" t="n">
-        <v>99.92190358000001</v>
+        <v>99.89809402</v>
       </c>
       <c r="E48" t="n">
-        <v>99.99334801000001</v>
+        <v>100.04273912</v>
       </c>
       <c r="F48" t="n">
-        <v>99.89145608</v>
+        <v>100.80535024</v>
       </c>
       <c r="G48" t="n">
-        <v>100.03645323</v>
+        <v>100.00544457</v>
       </c>
       <c r="H48" t="n">
-        <v>100.112809</v>
+        <v>100.05313566</v>
       </c>
       <c r="I48" t="n">
-        <v>99.88979139999999</v>
+        <v>99.90798843</v>
       </c>
       <c r="J48" t="n">
-        <v>99.95569192000001</v>
+        <v>99.79120214</v>
       </c>
       <c r="K48" t="n">
-        <v>99.95237003</v>
+        <v>99.99072408000001</v>
       </c>
       <c r="L48" t="n">
-        <v>100.0716831</v>
+        <v>100.05127124</v>
       </c>
       <c r="M48" t="n">
-        <v>100.52609025</v>
+        <v>99.41470461</v>
       </c>
       <c r="N48" t="n">
-        <v>99.32134725</v>
+        <v>99.01032712</v>
       </c>
       <c r="O48" t="n">
-        <v>100.23011517</v>
+        <v>99.95589223</v>
       </c>
       <c r="P48" t="n">
-        <v>98.82756421000001</v>
+        <v>100.41052871</v>
       </c>
       <c r="Q48" t="n">
-        <v>99.65481221</v>
+        <v>102.73471972</v>
       </c>
       <c r="R48" t="n">
-        <v>100.01909659</v>
+        <v>99.89480545000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.23122633</v>
+        <v>100.13577913</v>
       </c>
       <c r="C49" t="n">
-        <v>100.0261547</v>
+        <v>100.08835229</v>
       </c>
       <c r="D49" t="n">
-        <v>99.87739200999999</v>
+        <v>99.9682068</v>
       </c>
       <c r="E49" t="n">
-        <v>100.04800215</v>
+        <v>100.05256394</v>
       </c>
       <c r="F49" t="n">
-        <v>100.45988719</v>
+        <v>99.59611497</v>
       </c>
       <c r="G49" t="n">
-        <v>100.04828947</v>
+        <v>100.0285118</v>
       </c>
       <c r="H49" t="n">
-        <v>100.04309639</v>
+        <v>100.00966165</v>
       </c>
       <c r="I49" t="n">
-        <v>99.89591063</v>
+        <v>99.91364407</v>
       </c>
       <c r="J49" t="n">
-        <v>99.77258093</v>
+        <v>99.88485018</v>
       </c>
       <c r="K49" t="n">
-        <v>100.00942689</v>
+        <v>99.94439679</v>
       </c>
       <c r="L49" t="n">
-        <v>100.04190861</v>
+        <v>100.03370126</v>
       </c>
       <c r="M49" t="n">
-        <v>100.31863799</v>
+        <v>100.29461944</v>
       </c>
       <c r="N49" t="n">
-        <v>99.04199797</v>
+        <v>102.17505775</v>
       </c>
       <c r="O49" t="n">
-        <v>100.04024792</v>
+        <v>99.81937800999999</v>
       </c>
       <c r="P49" t="n">
-        <v>98.96654022</v>
+        <v>99.13690926</v>
       </c>
       <c r="Q49" t="n">
-        <v>101.47263085</v>
+        <v>98.42024345</v>
       </c>
       <c r="R49" t="n">
-        <v>99.95319092</v>
+        <v>100.00788131</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.35133909</v>
+        <v>100.29225857</v>
       </c>
       <c r="C50" t="n">
-        <v>101.47982664</v>
+        <v>100.05956298</v>
       </c>
       <c r="D50" t="n">
-        <v>100.14059385</v>
+        <v>99.91023151</v>
       </c>
       <c r="E50" t="n">
-        <v>100.05709788</v>
+        <v>99.98311513</v>
       </c>
       <c r="F50" t="n">
-        <v>99.95646564</v>
+        <v>99.6748635</v>
       </c>
       <c r="G50" t="n">
-        <v>100.11251469</v>
+        <v>100.06808935</v>
       </c>
       <c r="H50" t="n">
-        <v>100.27702975</v>
+        <v>100.10084749</v>
       </c>
       <c r="I50" t="n">
-        <v>99.92593642</v>
+        <v>99.99272308</v>
       </c>
       <c r="J50" t="n">
-        <v>99.95139589</v>
+        <v>99.85626947999999</v>
       </c>
       <c r="K50" t="n">
-        <v>100.09598184</v>
+        <v>99.92510212000001</v>
       </c>
       <c r="L50" t="n">
-        <v>100.07489506</v>
+        <v>100.04818833</v>
       </c>
       <c r="M50" t="n">
-        <v>100.06722227</v>
+        <v>100.42251258</v>
       </c>
       <c r="N50" t="n">
-        <v>95.76711438</v>
+        <v>99.20605140000001</v>
       </c>
       <c r="O50" t="n">
-        <v>100.11228757</v>
+        <v>99.98761614999999</v>
       </c>
       <c r="P50" t="n">
-        <v>100.78665277</v>
+        <v>99.71064825000001</v>
       </c>
       <c r="Q50" t="n">
-        <v>100.46008172</v>
+        <v>99.09349133000001</v>
       </c>
       <c r="R50" t="n">
-        <v>99.97089467000001</v>
+        <v>99.98531826999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>100.11633258</v>
+        <v>100.21266183</v>
       </c>
       <c r="C51" t="n">
-        <v>100.00499228</v>
+        <v>99.99393197000001</v>
       </c>
       <c r="D51" t="n">
-        <v>99.89809402</v>
+        <v>99.87363009000001</v>
       </c>
       <c r="E51" t="n">
-        <v>100.04273912</v>
+        <v>99.97472438</v>
       </c>
       <c r="F51" t="n">
-        <v>100.80535024</v>
+        <v>99.94860188</v>
       </c>
       <c r="G51" t="n">
-        <v>100.00544457</v>
+        <v>100.05167087</v>
       </c>
       <c r="H51" t="n">
-        <v>100.05313566</v>
+        <v>99.85827059</v>
       </c>
       <c r="I51" t="n">
-        <v>99.90798843</v>
+        <v>99.95170518</v>
       </c>
       <c r="J51" t="n">
-        <v>99.79120214</v>
+        <v>99.82232927</v>
       </c>
       <c r="K51" t="n">
-        <v>99.99072408000001</v>
+        <v>99.95494261</v>
       </c>
       <c r="L51" t="n">
-        <v>100.05127124</v>
+        <v>99.97954136</v>
       </c>
       <c r="M51" t="n">
-        <v>99.41470461</v>
+        <v>100.37478177</v>
       </c>
       <c r="N51" t="n">
-        <v>99.01032712</v>
+        <v>102.17304669</v>
       </c>
       <c r="O51" t="n">
-        <v>99.95589223</v>
+        <v>99.99810893999999</v>
       </c>
       <c r="P51" t="n">
-        <v>100.41052871</v>
+        <v>99.54729713</v>
       </c>
       <c r="Q51" t="n">
-        <v>102.73471972</v>
+        <v>99.09612275000001</v>
       </c>
       <c r="R51" t="n">
-        <v>99.89480545000001</v>
+        <v>101.53768714</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.13577913</v>
+        <v>100.5205705</v>
       </c>
       <c r="C52" t="n">
-        <v>100.08835229</v>
+        <v>100.00602867</v>
       </c>
       <c r="D52" t="n">
-        <v>99.9682068</v>
+        <v>99.52733782</v>
       </c>
       <c r="E52" t="n">
-        <v>100.05256394</v>
+        <v>100.13119054</v>
       </c>
       <c r="F52" t="n">
-        <v>99.59611497</v>
+        <v>100.09183086</v>
       </c>
       <c r="G52" t="n">
-        <v>100.0285118</v>
+        <v>100.06751191</v>
       </c>
       <c r="H52" t="n">
-        <v>100.00966165</v>
+        <v>99.87751119000001</v>
       </c>
       <c r="I52" t="n">
-        <v>99.91364407</v>
+        <v>100.06946105</v>
       </c>
       <c r="J52" t="n">
-        <v>99.88485018</v>
+        <v>99.76025869999999</v>
       </c>
       <c r="K52" t="n">
-        <v>99.94439679</v>
+        <v>100.00375801</v>
       </c>
       <c r="L52" t="n">
-        <v>100.03370126</v>
+        <v>100.10253588</v>
       </c>
       <c r="M52" t="n">
-        <v>100.29461944</v>
+        <v>100.19633445</v>
       </c>
       <c r="N52" t="n">
-        <v>102.17505775</v>
+        <v>99.55667825</v>
       </c>
       <c r="O52" t="n">
-        <v>99.81937800999999</v>
+        <v>99.95071537</v>
       </c>
       <c r="P52" t="n">
-        <v>99.13690926</v>
+        <v>99.57304972999999</v>
       </c>
       <c r="Q52" t="n">
-        <v>98.42024345</v>
+        <v>99.9938492</v>
       </c>
       <c r="R52" t="n">
-        <v>100.00788131</v>
+        <v>101.72017355</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.29225857</v>
+        <v>100.29270259</v>
       </c>
       <c r="C53" t="n">
-        <v>100.05956298</v>
+        <v>100.02674599</v>
       </c>
       <c r="D53" t="n">
-        <v>99.91023151</v>
+        <v>99.84273084</v>
       </c>
       <c r="E53" t="n">
-        <v>99.98311513</v>
+        <v>100.11102173</v>
       </c>
       <c r="F53" t="n">
-        <v>99.6748635</v>
+        <v>100.13348777</v>
       </c>
       <c r="G53" t="n">
-        <v>100.06808935</v>
+        <v>100.03779689</v>
       </c>
       <c r="H53" t="n">
-        <v>100.10084749</v>
+        <v>99.96712494000001</v>
       </c>
       <c r="I53" t="n">
-        <v>99.99272308</v>
+        <v>99.90943586</v>
       </c>
       <c r="J53" t="n">
-        <v>99.85626947999999</v>
+        <v>99.56927158000001</v>
       </c>
       <c r="K53" t="n">
-        <v>99.92510212000001</v>
+        <v>99.90211502</v>
       </c>
       <c r="L53" t="n">
-        <v>100.04818833</v>
+        <v>100.00146826</v>
       </c>
       <c r="M53" t="n">
-        <v>100.42251258</v>
+        <v>99.67562436999999</v>
       </c>
       <c r="N53" t="n">
-        <v>99.20605140000001</v>
+        <v>98.29172076</v>
       </c>
       <c r="O53" t="n">
-        <v>99.98761614999999</v>
+        <v>99.99547560000001</v>
       </c>
       <c r="P53" t="n">
-        <v>99.71064825000001</v>
+        <v>98.63841432</v>
       </c>
       <c r="Q53" t="n">
-        <v>99.09349133000001</v>
+        <v>100.90598382</v>
       </c>
       <c r="R53" t="n">
-        <v>99.98531826999999</v>
+        <v>100.0771757</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>100.21266183</v>
+        <v>100.20423017</v>
       </c>
       <c r="C54" t="n">
-        <v>99.99393197000001</v>
+        <v>100.01602132</v>
       </c>
       <c r="D54" t="n">
-        <v>99.87363009000001</v>
+        <v>99.76771997</v>
       </c>
       <c r="E54" t="n">
-        <v>99.97472438</v>
+        <v>100.1465022</v>
       </c>
       <c r="F54" t="n">
-        <v>99.94860188</v>
+        <v>100.45136434</v>
       </c>
       <c r="G54" t="n">
-        <v>100.05167087</v>
+        <v>100.07882333</v>
       </c>
       <c r="H54" t="n">
-        <v>99.85827059</v>
+        <v>99.92569152999999</v>
       </c>
       <c r="I54" t="n">
-        <v>99.95170518</v>
+        <v>99.91241488999999</v>
       </c>
       <c r="J54" t="n">
-        <v>99.82232927</v>
+        <v>99.78754673</v>
       </c>
       <c r="K54" t="n">
-        <v>99.95494261</v>
+        <v>99.89062268000001</v>
       </c>
       <c r="L54" t="n">
-        <v>99.97954136</v>
+        <v>99.98036543000001</v>
       </c>
       <c r="M54" t="n">
-        <v>100.37478177</v>
+        <v>99.59375903999999</v>
       </c>
       <c r="N54" t="n">
-        <v>102.17304669</v>
+        <v>96.88800652</v>
       </c>
       <c r="O54" t="n">
-        <v>99.99810893999999</v>
+        <v>99.98803278</v>
       </c>
       <c r="P54" t="n">
-        <v>99.54729713</v>
+        <v>98.91932419</v>
       </c>
       <c r="Q54" t="n">
-        <v>99.09612275000001</v>
+        <v>102.08319547</v>
       </c>
       <c r="R54" t="n">
-        <v>101.53768714</v>
+        <v>100.10375197</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>100.5205705</v>
+        <v>100.31623533</v>
       </c>
       <c r="C55" t="n">
-        <v>100.00602867</v>
+        <v>100.06086563</v>
       </c>
       <c r="D55" t="n">
-        <v>99.52733782</v>
+        <v>99.51012322</v>
       </c>
       <c r="E55" t="n">
-        <v>100.13119054</v>
+        <v>100.06087847</v>
       </c>
       <c r="F55" t="n">
-        <v>100.09183086</v>
+        <v>99.8747394</v>
       </c>
       <c r="G55" t="n">
-        <v>100.06751191</v>
+        <v>100.02666126</v>
       </c>
       <c r="H55" t="n">
-        <v>99.87751119000001</v>
+        <v>100.07028778</v>
       </c>
       <c r="I55" t="n">
-        <v>100.06946105</v>
+        <v>99.80323726</v>
       </c>
       <c r="J55" t="n">
-        <v>99.76025869999999</v>
+        <v>99.97402554999999</v>
       </c>
       <c r="K55" t="n">
-        <v>100.00375801</v>
+        <v>100.1101874</v>
       </c>
       <c r="L55" t="n">
-        <v>100.10253588</v>
+        <v>100.10020259</v>
       </c>
       <c r="M55" t="n">
-        <v>100.19633445</v>
+        <v>100.53403352</v>
       </c>
       <c r="N55" t="n">
-        <v>99.55667825</v>
+        <v>98.32166816</v>
       </c>
       <c r="O55" t="n">
-        <v>99.95071537</v>
+        <v>99.95368422</v>
       </c>
       <c r="P55" t="n">
-        <v>99.57304972999999</v>
+        <v>100.39895998</v>
       </c>
       <c r="Q55" t="n">
-        <v>99.9938492</v>
+        <v>99.84579712</v>
       </c>
       <c r="R55" t="n">
-        <v>101.72017355</v>
+        <v>99.97786877999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>100.29270259</v>
+        <v>100.15398213</v>
       </c>
       <c r="C56" t="n">
-        <v>100.02674599</v>
+        <v>100.07473623</v>
       </c>
       <c r="D56" t="n">
-        <v>99.84273084</v>
+        <v>99.94635805</v>
       </c>
       <c r="E56" t="n">
-        <v>100.11102173</v>
+        <v>100.00690092</v>
       </c>
       <c r="F56" t="n">
-        <v>100.13348777</v>
+        <v>99.68447303000001</v>
       </c>
       <c r="G56" t="n">
-        <v>100.03779689</v>
+        <v>99.93979616999999</v>
       </c>
       <c r="H56" t="n">
-        <v>99.96712494000001</v>
+        <v>100.20628376</v>
       </c>
       <c r="I56" t="n">
-        <v>99.90943586</v>
+        <v>99.83339852</v>
       </c>
       <c r="J56" t="n">
-        <v>99.56927158000001</v>
+        <v>99.94477308</v>
       </c>
       <c r="K56" t="n">
-        <v>99.90211502</v>
+        <v>99.99594578</v>
       </c>
       <c r="L56" t="n">
-        <v>100.00146826</v>
+        <v>100.04368081</v>
       </c>
       <c r="M56" t="n">
-        <v>99.67562436999999</v>
+        <v>100.53296291</v>
       </c>
       <c r="N56" t="n">
-        <v>98.29172076</v>
+        <v>100.21064175</v>
       </c>
       <c r="O56" t="n">
-        <v>99.99547560000001</v>
+        <v>100.18753896</v>
       </c>
       <c r="P56" t="n">
-        <v>98.63841432</v>
+        <v>100.11079623</v>
       </c>
       <c r="Q56" t="n">
-        <v>100.90598382</v>
+        <v>98.90110817999999</v>
       </c>
       <c r="R56" t="n">
-        <v>100.0771757</v>
+        <v>100.02679519</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>100.20423017</v>
+        <v>100.28468429</v>
       </c>
       <c r="C57" t="n">
-        <v>100.01602132</v>
+        <v>99.98803177000001</v>
       </c>
       <c r="D57" t="n">
-        <v>99.76771997</v>
+        <v>99.92190358000001</v>
       </c>
       <c r="E57" t="n">
-        <v>100.1465022</v>
+        <v>99.99334801000001</v>
       </c>
       <c r="F57" t="n">
-        <v>100.45136434</v>
+        <v>99.89145608</v>
       </c>
       <c r="G57" t="n">
-        <v>100.07882333</v>
+        <v>100.03645323</v>
       </c>
       <c r="H57" t="n">
-        <v>99.92569152999999</v>
+        <v>100.112809</v>
       </c>
       <c r="I57" t="n">
-        <v>99.91241488999999</v>
+        <v>99.88979139999999</v>
       </c>
       <c r="J57" t="n">
-        <v>99.78754673</v>
+        <v>99.95569192000001</v>
       </c>
       <c r="K57" t="n">
-        <v>99.89062268000001</v>
+        <v>99.95237003</v>
       </c>
       <c r="L57" t="n">
-        <v>99.98036543000001</v>
+        <v>100.0716831</v>
       </c>
       <c r="M57" t="n">
-        <v>99.59375903999999</v>
+        <v>100.52609025</v>
       </c>
       <c r="N57" t="n">
-        <v>96.88800652</v>
+        <v>99.32134725</v>
       </c>
       <c r="O57" t="n">
-        <v>99.98803278</v>
+        <v>100.23011517</v>
       </c>
       <c r="P57" t="n">
-        <v>98.91932419</v>
+        <v>98.82756421000001</v>
       </c>
       <c r="Q57" t="n">
-        <v>102.08319547</v>
+        <v>99.65481221</v>
       </c>
       <c r="R57" t="n">
-        <v>100.10375197</v>
+        <v>100.01909659</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>100.31623533</v>
+        <v>100.23122633</v>
       </c>
       <c r="C58" t="n">
-        <v>100.06086563</v>
+        <v>100.0261547</v>
       </c>
       <c r="D58" t="n">
-        <v>99.51012322</v>
+        <v>99.87739200999999</v>
       </c>
       <c r="E58" t="n">
-        <v>100.06087847</v>
+        <v>100.04800215</v>
       </c>
       <c r="F58" t="n">
-        <v>99.8747394</v>
+        <v>100.45988719</v>
       </c>
       <c r="G58" t="n">
-        <v>100.02666126</v>
+        <v>100.04828947</v>
       </c>
       <c r="H58" t="n">
-        <v>100.07028778</v>
+        <v>100.04309639</v>
       </c>
       <c r="I58" t="n">
-        <v>99.80323726</v>
+        <v>99.89591063</v>
       </c>
       <c r="J58" t="n">
-        <v>99.97402554999999</v>
+        <v>99.77258093</v>
       </c>
       <c r="K58" t="n">
-        <v>100.1101874</v>
+        <v>100.00942689</v>
       </c>
       <c r="L58" t="n">
-        <v>100.10020259</v>
+        <v>100.04190861</v>
       </c>
       <c r="M58" t="n">
-        <v>100.53403352</v>
+        <v>100.31863799</v>
       </c>
       <c r="N58" t="n">
-        <v>98.32166816</v>
+        <v>99.04199797</v>
       </c>
       <c r="O58" t="n">
-        <v>99.95368422</v>
+        <v>100.04024792</v>
       </c>
       <c r="P58" t="n">
-        <v>100.39895998</v>
+        <v>98.96654022</v>
       </c>
       <c r="Q58" t="n">
-        <v>99.84579712</v>
+        <v>101.47263085</v>
       </c>
       <c r="R58" t="n">
-        <v>99.97786877999999</v>
+        <v>99.95319092</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>100.5218962</v>
+        <v>100.27953494</v>
       </c>
       <c r="C59" t="n">
-        <v>100.0748331</v>
+        <v>100.67620562</v>
       </c>
       <c r="D59" t="n">
-        <v>99.81662892999989</v>
+        <v>99.81041361</v>
       </c>
       <c r="E59" t="n">
-        <v>100.0472632</v>
+        <v>100.13710541</v>
       </c>
       <c r="F59" t="n">
-        <v>99.91361757</v>
+        <v>100.38763825</v>
       </c>
       <c r="G59" t="n">
-        <v>100.005440199999</v>
+        <v>100.05105178</v>
       </c>
       <c r="H59" t="n">
-        <v>100.2904008</v>
+        <v>100.03793941</v>
       </c>
       <c r="I59" t="n">
-        <v>99.7939763199999</v>
+        <v>99.76498171999999</v>
       </c>
       <c r="J59" t="n">
-        <v>100.268529999999</v>
+        <v>100.06720748</v>
       </c>
       <c r="K59" t="n">
-        <v>99.89045631</v>
+        <v>99.92726359</v>
       </c>
       <c r="L59" t="n">
-        <v>99.9549153199999</v>
+        <v>100.11276291</v>
       </c>
       <c r="M59" t="n">
-        <v>100.797739899999</v>
+        <v>99.82927438999999</v>
       </c>
       <c r="N59" t="n">
-        <v>101.3741117</v>
+        <v>99.50956514000001</v>
       </c>
       <c r="O59" t="n">
-        <v>100.184321699999</v>
+        <v>99.74618046000001</v>
       </c>
       <c r="P59" t="n">
-        <v>98.72523334</v>
+        <v>100.18515703</v>
       </c>
       <c r="Q59" t="n">
-        <v>98.8565851299999</v>
+        <v>101.90289371</v>
       </c>
       <c r="R59" t="n">
-        <v>100.0080566</v>
+        <v>100.02315703</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100.6651148</v>
+        <v>100.12250323</v>
       </c>
       <c r="C60" t="n">
-        <v>99.99095276</v>
+        <v>100.11666955</v>
       </c>
       <c r="D60" t="n">
-        <v>100.0359933</v>
+        <v>99.88474666</v>
       </c>
       <c r="E60" t="n">
-        <v>100.1939837</v>
+        <v>100.07310989</v>
       </c>
       <c r="F60" t="n">
-        <v>100.3573309</v>
+        <v>101.29377114</v>
       </c>
       <c r="G60" t="n">
-        <v>100.1302426</v>
+        <v>99.94340127</v>
       </c>
       <c r="H60" t="n">
-        <v>100.587581</v>
+        <v>100.00892669</v>
       </c>
       <c r="I60" t="n">
-        <v>100.0927253</v>
+        <v>99.83583391000001</v>
       </c>
       <c r="J60" t="n">
-        <v>100.4476137</v>
+        <v>99.92147178</v>
       </c>
       <c r="K60" t="n">
-        <v>100.2438783</v>
+        <v>99.99950912</v>
       </c>
       <c r="L60" t="n">
-        <v>100.169456</v>
+        <v>99.95618435999999</v>
       </c>
       <c r="M60" t="n">
-        <v>100.7257585</v>
+        <v>99.41155947999999</v>
       </c>
       <c r="N60" t="n">
-        <v>102.0871616</v>
+        <v>99.62812801</v>
       </c>
       <c r="O60" t="n">
-        <v>100.0996721</v>
+        <v>100.02934598</v>
       </c>
       <c r="P60" t="n">
-        <v>99.7976991</v>
+        <v>102.67289327</v>
       </c>
       <c r="Q60" t="n">
-        <v>99.99515799</v>
+        <v>105.82601222</v>
       </c>
       <c r="R60" t="n">
-        <v>100.108172</v>
+        <v>99.94600241000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>100.6698516</v>
+        <v>100.4624119</v>
       </c>
       <c r="C61" t="n">
-        <v>100.0234264</v>
+        <v>100.07066263</v>
       </c>
       <c r="D61" t="n">
-        <v>100.0299452</v>
+        <v>99.79933446</v>
       </c>
       <c r="E61" t="n">
-        <v>100.1745846</v>
+        <v>99.93947882000001</v>
       </c>
       <c r="F61" t="n">
-        <v>100.3875877</v>
+        <v>99.59144983</v>
       </c>
       <c r="G61" t="n">
-        <v>100.0052677</v>
+        <v>99.94708790999999</v>
       </c>
       <c r="H61" t="n">
-        <v>100.4581785</v>
+        <v>99.99222226000001</v>
       </c>
       <c r="I61" t="n">
-        <v>100.1836211</v>
+        <v>99.94918675</v>
       </c>
       <c r="J61" t="n">
-        <v>100.5838223</v>
+        <v>99.90745726999999</v>
       </c>
       <c r="K61" t="n">
-        <v>99.9758301</v>
+        <v>99.97196323999999</v>
       </c>
       <c r="L61" t="n">
-        <v>100.1729856</v>
+        <v>100.06064297</v>
       </c>
       <c r="M61" t="n">
-        <v>100.3847993</v>
+        <v>100.26722074</v>
       </c>
       <c r="N61" t="n">
-        <v>101.9365937</v>
+        <v>99.53011458</v>
       </c>
       <c r="O61" t="n">
-        <v>99.97173900999999</v>
+        <v>99.92493116999999</v>
       </c>
       <c r="P61" t="n">
-        <v>98.21669205000001</v>
+        <v>103.41615029</v>
       </c>
       <c r="Q61" t="n">
-        <v>100.4112626</v>
+        <v>98.21105591</v>
       </c>
       <c r="R61" t="n">
-        <v>100.0354344</v>
+        <v>100.02264067</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.27953494</v>
+        <v>100.45998865</v>
       </c>
       <c r="C62" t="n">
-        <v>100.67620562</v>
+        <v>100.00361165</v>
       </c>
       <c r="D62" t="n">
-        <v>99.81041361</v>
+        <v>99.81751032</v>
       </c>
       <c r="E62" t="n">
-        <v>100.13710541</v>
+        <v>99.99049297000001</v>
       </c>
       <c r="F62" t="n">
-        <v>100.38763825</v>
+        <v>99.71198626</v>
       </c>
       <c r="G62" t="n">
-        <v>100.05105178</v>
+        <v>100.14565824</v>
       </c>
       <c r="H62" t="n">
-        <v>100.03793941</v>
+        <v>100.0630515</v>
       </c>
       <c r="I62" t="n">
-        <v>99.76498171999999</v>
+        <v>99.82257518</v>
       </c>
       <c r="J62" t="n">
-        <v>100.06720748</v>
+        <v>100.10630644</v>
       </c>
       <c r="K62" t="n">
-        <v>99.92726359</v>
+        <v>99.91529129</v>
       </c>
       <c r="L62" t="n">
-        <v>100.11276291</v>
+        <v>99.95130381</v>
       </c>
       <c r="M62" t="n">
-        <v>99.82927438999999</v>
+        <v>100.26159703</v>
       </c>
       <c r="N62" t="n">
-        <v>99.50956514000001</v>
+        <v>99.73561789999999</v>
       </c>
       <c r="O62" t="n">
-        <v>99.74618046000001</v>
+        <v>100.0687165</v>
       </c>
       <c r="P62" t="n">
-        <v>100.18515703</v>
+        <v>99.80167594</v>
       </c>
       <c r="Q62" t="n">
-        <v>101.90289371</v>
+        <v>98.82044888</v>
       </c>
       <c r="R62" t="n">
-        <v>100.02315703</v>
+        <v>99.91243192</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.12250323</v>
+        <v>100.27048735</v>
       </c>
       <c r="C63" t="n">
-        <v>100.11666955</v>
+        <v>99.95192025999999</v>
       </c>
       <c r="D63" t="n">
-        <v>99.88474666</v>
+        <v>99.75010558</v>
       </c>
       <c r="E63" t="n">
-        <v>100.07310989</v>
+        <v>99.98201482</v>
       </c>
       <c r="F63" t="n">
-        <v>101.29377114</v>
+        <v>99.5987416</v>
       </c>
       <c r="G63" t="n">
-        <v>99.94340127</v>
+        <v>99.9530512</v>
       </c>
       <c r="H63" t="n">
-        <v>100.00892669</v>
+        <v>99.97197902000001</v>
       </c>
       <c r="I63" t="n">
-        <v>99.83583391000001</v>
+        <v>99.93389547</v>
       </c>
       <c r="J63" t="n">
-        <v>99.92147178</v>
+        <v>100.11812894</v>
       </c>
       <c r="K63" t="n">
-        <v>99.99950912</v>
+        <v>99.82300375</v>
       </c>
       <c r="L63" t="n">
-        <v>99.95618435999999</v>
+        <v>100.02730131</v>
       </c>
       <c r="M63" t="n">
-        <v>99.41155947999999</v>
+        <v>100.29610338</v>
       </c>
       <c r="N63" t="n">
-        <v>99.62812801</v>
+        <v>101.44073199</v>
       </c>
       <c r="O63" t="n">
-        <v>100.02934598</v>
+        <v>99.90706229</v>
       </c>
       <c r="P63" t="n">
-        <v>102.67289327</v>
+        <v>100.71857838</v>
       </c>
       <c r="Q63" t="n">
-        <v>105.82601222</v>
+        <v>97.82489977</v>
       </c>
       <c r="R63" t="n">
-        <v>99.94600241000001</v>
+        <v>99.93896653</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>100.4624119</v>
+        <v>100.38641964</v>
       </c>
       <c r="C64" t="n">
-        <v>100.07066263</v>
+        <v>100.01036599</v>
       </c>
       <c r="D64" t="n">
-        <v>99.79933446</v>
+        <v>99.92518324</v>
       </c>
       <c r="E64" t="n">
-        <v>99.93947882000001</v>
+        <v>100.00110582</v>
       </c>
       <c r="F64" t="n">
-        <v>99.59144983</v>
+        <v>99.93579848</v>
       </c>
       <c r="G64" t="n">
-        <v>99.94708790999999</v>
+        <v>100.08137505</v>
       </c>
       <c r="H64" t="n">
-        <v>99.99222226000001</v>
+        <v>99.95660278</v>
       </c>
       <c r="I64" t="n">
-        <v>99.94918675</v>
+        <v>99.83388449</v>
       </c>
       <c r="J64" t="n">
-        <v>99.90745726999999</v>
+        <v>100.14393355</v>
       </c>
       <c r="K64" t="n">
-        <v>99.97196323999999</v>
+        <v>99.89638858000001</v>
       </c>
       <c r="L64" t="n">
-        <v>100.06064297</v>
+        <v>100.04029102</v>
       </c>
       <c r="M64" t="n">
-        <v>100.26722074</v>
+        <v>99.90344886</v>
       </c>
       <c r="N64" t="n">
-        <v>99.53011458</v>
+        <v>101.79367451</v>
       </c>
       <c r="O64" t="n">
-        <v>99.92493116999999</v>
+        <v>100.15840837</v>
       </c>
       <c r="P64" t="n">
-        <v>103.41615029</v>
+        <v>100.44055278</v>
       </c>
       <c r="Q64" t="n">
-        <v>98.21105591</v>
+        <v>99.07953979</v>
       </c>
       <c r="R64" t="n">
-        <v>100.02264067</v>
+        <v>100.00624659</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.45998865</v>
+        <v>100.52348962</v>
       </c>
       <c r="C65" t="n">
-        <v>100.00361165</v>
+        <v>100.08039543</v>
       </c>
       <c r="D65" t="n">
-        <v>99.81751032</v>
+        <v>99.71801691</v>
       </c>
       <c r="E65" t="n">
-        <v>99.99049297000001</v>
+        <v>100.4055471</v>
       </c>
       <c r="F65" t="n">
-        <v>99.71198626</v>
+        <v>99.92855049000001</v>
       </c>
       <c r="G65" t="n">
-        <v>100.14565824</v>
+        <v>100.11716181</v>
       </c>
       <c r="H65" t="n">
-        <v>100.0630515</v>
+        <v>99.91411865000001</v>
       </c>
       <c r="I65" t="n">
-        <v>99.82257518</v>
+        <v>99.83184046</v>
       </c>
       <c r="J65" t="n">
-        <v>100.10630644</v>
+        <v>100.01087491</v>
       </c>
       <c r="K65" t="n">
-        <v>99.91529129</v>
+        <v>99.86499566000001</v>
       </c>
       <c r="L65" t="n">
-        <v>99.95130381</v>
+        <v>99.97958592000001</v>
       </c>
       <c r="M65" t="n">
-        <v>100.26159703</v>
+        <v>99.61541294</v>
       </c>
       <c r="N65" t="n">
-        <v>99.73561789999999</v>
+        <v>99.69964229999999</v>
       </c>
       <c r="O65" t="n">
-        <v>100.0687165</v>
+        <v>99.91241687999999</v>
       </c>
       <c r="P65" t="n">
-        <v>99.80167594</v>
+        <v>103.92938294</v>
       </c>
       <c r="Q65" t="n">
-        <v>98.82044888</v>
+        <v>99.767425</v>
       </c>
       <c r="R65" t="n">
-        <v>99.91243192</v>
+        <v>99.97041165</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>100.27048735</v>
+        <v>100.94987512</v>
       </c>
       <c r="C66" t="n">
-        <v>99.95192025999999</v>
+        <v>100.25705835</v>
       </c>
       <c r="D66" t="n">
-        <v>99.75010558</v>
+        <v>99.76404782</v>
       </c>
       <c r="E66" t="n">
-        <v>99.98201482</v>
+        <v>99.96137399</v>
       </c>
       <c r="F66" t="n">
-        <v>99.5987416</v>
+        <v>99.98543632000001</v>
       </c>
       <c r="G66" t="n">
-        <v>99.9530512</v>
+        <v>100.10405421</v>
       </c>
       <c r="H66" t="n">
-        <v>99.97197902000001</v>
+        <v>100.13150096</v>
       </c>
       <c r="I66" t="n">
-        <v>99.93389547</v>
+        <v>99.6009464</v>
       </c>
       <c r="J66" t="n">
-        <v>100.11812894</v>
+        <v>100.01315717</v>
       </c>
       <c r="K66" t="n">
-        <v>99.82300375</v>
+        <v>99.65150506000001</v>
       </c>
       <c r="L66" t="n">
-        <v>100.02730131</v>
+        <v>99.94550738</v>
       </c>
       <c r="M66" t="n">
-        <v>100.29610338</v>
+        <v>99.50935996</v>
       </c>
       <c r="N66" t="n">
-        <v>101.44073199</v>
+        <v>98.52527815000001</v>
       </c>
       <c r="O66" t="n">
-        <v>99.90706229</v>
+        <v>99.89316406</v>
       </c>
       <c r="P66" t="n">
-        <v>100.71857838</v>
+        <v>100.26971031</v>
       </c>
       <c r="Q66" t="n">
-        <v>97.82489977</v>
+        <v>100.58253441</v>
       </c>
       <c r="R66" t="n">
-        <v>99.93896653</v>
+        <v>100.02439855</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100.38641964</v>
+        <v>100.4245053</v>
       </c>
       <c r="C67" t="n">
-        <v>100.01036599</v>
+        <v>100.668163699999</v>
       </c>
       <c r="D67" t="n">
-        <v>99.92518324</v>
+        <v>99.5799357199999</v>
       </c>
       <c r="E67" t="n">
-        <v>100.00110582</v>
+        <v>100.066067399999</v>
       </c>
       <c r="F67" t="n">
-        <v>99.93579848</v>
+        <v>100.4946778</v>
       </c>
       <c r="G67" t="n">
-        <v>100.08137505</v>
+        <v>100.012946099999</v>
       </c>
       <c r="H67" t="n">
-        <v>99.95660278</v>
+        <v>100.163376499999</v>
       </c>
       <c r="I67" t="n">
-        <v>99.83388449</v>
+        <v>99.7861633899999</v>
       </c>
       <c r="J67" t="n">
-        <v>100.14393355</v>
+        <v>100.107235799999</v>
       </c>
       <c r="K67" t="n">
-        <v>99.89638858000001</v>
+        <v>99.79256324000001</v>
       </c>
       <c r="L67" t="n">
-        <v>100.04029102</v>
+        <v>99.97832442000001</v>
       </c>
       <c r="M67" t="n">
-        <v>99.90344886</v>
+        <v>100.5113319</v>
       </c>
       <c r="N67" t="n">
-        <v>101.79367451</v>
+        <v>101.975721399999</v>
       </c>
       <c r="O67" t="n">
-        <v>100.15840837</v>
+        <v>100.016319999999</v>
       </c>
       <c r="P67" t="n">
-        <v>100.44055278</v>
+        <v>99.95180713000001</v>
       </c>
       <c r="Q67" t="n">
-        <v>99.07953979</v>
+        <v>101.359277</v>
       </c>
       <c r="R67" t="n">
-        <v>100.00624659</v>
+        <v>100.079690099999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.52348962</v>
+        <v>100.5218962</v>
       </c>
       <c r="C68" t="n">
-        <v>100.08039543</v>
+        <v>100.0748331</v>
       </c>
       <c r="D68" t="n">
-        <v>99.71801691</v>
+        <v>99.81662892999989</v>
       </c>
       <c r="E68" t="n">
-        <v>100.4055471</v>
+        <v>100.0472632</v>
       </c>
       <c r="F68" t="n">
-        <v>99.92855049000001</v>
+        <v>99.91361757</v>
       </c>
       <c r="G68" t="n">
-        <v>100.11716181</v>
+        <v>100.005440199999</v>
       </c>
       <c r="H68" t="n">
-        <v>99.91411865000001</v>
+        <v>100.2904008</v>
       </c>
       <c r="I68" t="n">
-        <v>99.83184046</v>
+        <v>99.7939763199999</v>
       </c>
       <c r="J68" t="n">
-        <v>100.01087491</v>
+        <v>100.268529999999</v>
       </c>
       <c r="K68" t="n">
-        <v>99.86499566000001</v>
+        <v>99.89045631</v>
       </c>
       <c r="L68" t="n">
-        <v>99.97958592000001</v>
+        <v>99.9549153199999</v>
       </c>
       <c r="M68" t="n">
-        <v>99.61541294</v>
+        <v>100.797739899999</v>
       </c>
       <c r="N68" t="n">
-        <v>99.69964229999999</v>
+        <v>101.3741117</v>
       </c>
       <c r="O68" t="n">
-        <v>99.91241687999999</v>
+        <v>100.184321699999</v>
       </c>
       <c r="P68" t="n">
-        <v>103.92938294</v>
+        <v>98.72523334</v>
       </c>
       <c r="Q68" t="n">
-        <v>99.767425</v>
+        <v>98.8565851299999</v>
       </c>
       <c r="R68" t="n">
-        <v>99.97041165</v>
+        <v>100.0080566</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>100.94987512</v>
+        <v>100.6651148</v>
       </c>
       <c r="C69" t="n">
-        <v>100.25705835</v>
+        <v>99.99095276</v>
       </c>
       <c r="D69" t="n">
-        <v>99.76404782</v>
+        <v>100.0359933</v>
       </c>
       <c r="E69" t="n">
-        <v>99.96137399</v>
+        <v>100.1939837</v>
       </c>
       <c r="F69" t="n">
-        <v>99.98543632000001</v>
+        <v>100.3573309</v>
       </c>
       <c r="G69" t="n">
-        <v>100.10405421</v>
+        <v>100.1302426</v>
       </c>
       <c r="H69" t="n">
-        <v>100.13150096</v>
+        <v>100.587581</v>
       </c>
       <c r="I69" t="n">
-        <v>99.6009464</v>
+        <v>100.0927253</v>
       </c>
       <c r="J69" t="n">
-        <v>100.01315717</v>
+        <v>100.4476137</v>
       </c>
       <c r="K69" t="n">
-        <v>99.65150506000001</v>
+        <v>100.2438783</v>
       </c>
       <c r="L69" t="n">
-        <v>99.94550738</v>
+        <v>100.169456</v>
       </c>
       <c r="M69" t="n">
-        <v>99.50935996</v>
+        <v>100.7257585</v>
       </c>
       <c r="N69" t="n">
-        <v>98.52527815000001</v>
+        <v>102.0871616</v>
       </c>
       <c r="O69" t="n">
-        <v>99.89316406</v>
+        <v>100.0996721</v>
       </c>
       <c r="P69" t="n">
-        <v>100.26971031</v>
+        <v>99.7976991</v>
       </c>
       <c r="Q69" t="n">
-        <v>100.58253441</v>
+        <v>99.99515799</v>
       </c>
       <c r="R69" t="n">
-        <v>100.02439855</v>
+        <v>100.108172</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>100.4245053</v>
+        <v>100.6698516</v>
       </c>
       <c r="C70" t="n">
-        <v>100.668163699999</v>
+        <v>100.0234264</v>
       </c>
       <c r="D70" t="n">
-        <v>99.5799357199999</v>
+        <v>100.0299452</v>
       </c>
       <c r="E70" t="n">
-        <v>100.066067399999</v>
+        <v>100.1745846</v>
       </c>
       <c r="F70" t="n">
-        <v>100.4946778</v>
+        <v>100.3875877</v>
       </c>
       <c r="G70" t="n">
-        <v>100.012946099999</v>
+        <v>100.0052677</v>
       </c>
       <c r="H70" t="n">
-        <v>100.163376499999</v>
+        <v>100.4581785</v>
       </c>
       <c r="I70" t="n">
-        <v>99.7861633899999</v>
+        <v>100.1836211</v>
       </c>
       <c r="J70" t="n">
-        <v>100.107235799999</v>
+        <v>100.5838223</v>
       </c>
       <c r="K70" t="n">
-        <v>99.79256324000001</v>
+        <v>99.9758301</v>
       </c>
       <c r="L70" t="n">
-        <v>99.97832442000001</v>
+        <v>100.1729856</v>
       </c>
       <c r="M70" t="n">
-        <v>100.5113319</v>
+        <v>100.3847993</v>
       </c>
       <c r="N70" t="n">
-        <v>101.975721399999</v>
+        <v>101.9365937</v>
       </c>
       <c r="O70" t="n">
-        <v>100.016319999999</v>
+        <v>99.97173900999999</v>
       </c>
       <c r="P70" t="n">
-        <v>99.95180713000001</v>
+        <v>98.21669205000001</v>
       </c>
       <c r="Q70" t="n">
-        <v>101.359277</v>
+        <v>100.4112626</v>
       </c>
       <c r="R70" t="n">
-        <v>100.079690099999</v>
+        <v>100.0354344</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>100.2669069</v>
+        <v>100.4408073</v>
       </c>
       <c r="C71" t="n">
-        <v>100.0089883</v>
+        <v>100.369487</v>
       </c>
       <c r="D71" t="n">
-        <v>99.89750755999999</v>
+        <v>100.1128997</v>
       </c>
       <c r="E71" t="n">
-        <v>100.0909244</v>
+        <v>100.1204037</v>
       </c>
       <c r="F71" t="n">
-        <v>100.3179815</v>
+        <v>100.8200756</v>
       </c>
       <c r="G71" t="n">
-        <v>100.1160507</v>
+        <v>100.0079131</v>
       </c>
       <c r="H71" t="n">
-        <v>100.5566508</v>
+        <v>100.0390194</v>
       </c>
       <c r="I71" t="n">
-        <v>99.89635185</v>
+        <v>100.0556219</v>
       </c>
       <c r="J71" t="n">
-        <v>100.7619359</v>
+        <v>100.1271238</v>
       </c>
       <c r="K71" t="n">
-        <v>100.1431374</v>
+        <v>100.0909358</v>
       </c>
       <c r="L71" t="n">
-        <v>100.2005097</v>
+        <v>100.0323214</v>
       </c>
       <c r="M71" t="n">
-        <v>100.739931</v>
+        <v>99.58789513000001</v>
       </c>
       <c r="N71" t="n">
-        <v>102.7721986</v>
+        <v>103.0367852</v>
       </c>
       <c r="O71" t="n">
-        <v>100.2603622</v>
+        <v>99.84992272</v>
       </c>
       <c r="P71" t="n">
-        <v>99.50945994</v>
+        <v>100.1090036</v>
       </c>
       <c r="Q71" t="n">
-        <v>99.72958473</v>
+        <v>102.3413724</v>
       </c>
       <c r="R71" t="n">
-        <v>100.0841469</v>
+        <v>99.92759354</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>100.4114438</v>
+        <v>100.63297448</v>
       </c>
       <c r="C72" t="n">
-        <v>100.0247186</v>
+        <v>100.25988703</v>
       </c>
       <c r="D72" t="n">
-        <v>99.8835886</v>
+        <v>99.89733895000001</v>
       </c>
       <c r="E72" t="n">
-        <v>100.2480737</v>
+        <v>99.98141690999999</v>
       </c>
       <c r="F72" t="n">
-        <v>100.1708179</v>
+        <v>99.90310343</v>
       </c>
       <c r="G72" t="n">
-        <v>100.0935952</v>
+        <v>100.042892</v>
       </c>
       <c r="H72" t="n">
-        <v>100.3051198</v>
+        <v>100.05455971</v>
       </c>
       <c r="I72" t="n">
-        <v>99.90617677</v>
+        <v>100.23021562</v>
       </c>
       <c r="J72" t="n">
-        <v>100.5633441</v>
+        <v>100.13409696</v>
       </c>
       <c r="K72" t="n">
-        <v>99.99630481</v>
+        <v>100.12753592</v>
       </c>
       <c r="L72" t="n">
-        <v>100.121792</v>
+        <v>100.16552563</v>
       </c>
       <c r="M72" t="n">
-        <v>100.6149365</v>
+        <v>99.12138484</v>
       </c>
       <c r="N72" t="n">
-        <v>102.0141504</v>
+        <v>100.27313155</v>
       </c>
       <c r="O72" t="n">
-        <v>100.0464058</v>
+        <v>99.97786771</v>
       </c>
       <c r="P72" t="n">
-        <v>99.96120634</v>
+        <v>100.64793716</v>
       </c>
       <c r="Q72" t="n">
-        <v>99.44068224</v>
+        <v>99.4681598</v>
       </c>
       <c r="R72" t="n">
-        <v>100.0860773</v>
+        <v>100.09723429</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>100.2959594</v>
+        <v>100.6109188</v>
       </c>
       <c r="C73" t="n">
-        <v>100.047869</v>
+        <v>100.0401743</v>
       </c>
       <c r="D73" t="n">
-        <v>99.84506973000001</v>
+        <v>99.88635671999999</v>
       </c>
       <c r="E73" t="n">
-        <v>100.0723144</v>
+        <v>99.94900253</v>
       </c>
       <c r="F73" t="n">
-        <v>100.4617215</v>
+        <v>99.63039458</v>
       </c>
       <c r="G73" t="n">
-        <v>100.1828551</v>
+        <v>100.1306808</v>
       </c>
       <c r="H73" t="n">
-        <v>100.1412529</v>
+        <v>100.1243432</v>
       </c>
       <c r="I73" t="n">
-        <v>100.0967954</v>
+        <v>100.1117653</v>
       </c>
       <c r="J73" t="n">
-        <v>100.7340878</v>
+        <v>100.2967014</v>
       </c>
       <c r="K73" t="n">
-        <v>100.3154347</v>
+        <v>100.2167174</v>
       </c>
       <c r="L73" t="n">
-        <v>100.0298308</v>
+        <v>100.1174066</v>
       </c>
       <c r="M73" t="n">
-        <v>100.3489567</v>
+        <v>100.320658</v>
       </c>
       <c r="N73" t="n">
-        <v>101.3545163</v>
+        <v>99.47594099</v>
       </c>
       <c r="O73" t="n">
-        <v>100.281905</v>
+        <v>100.1442713</v>
       </c>
       <c r="P73" t="n">
-        <v>99.13294182999999</v>
+        <v>100.664278</v>
       </c>
       <c r="Q73" t="n">
-        <v>101.0548663</v>
+        <v>98.09425539999999</v>
       </c>
       <c r="R73" t="n">
-        <v>100.0916793</v>
+        <v>100.1578469</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>100.4408073</v>
+        <v>100.6530288</v>
       </c>
       <c r="C74" t="n">
-        <v>100.369487</v>
+        <v>99.99561086</v>
       </c>
       <c r="D74" t="n">
-        <v>100.1128997</v>
+        <v>99.8178782</v>
       </c>
       <c r="E74" t="n">
-        <v>100.1204037</v>
+        <v>99.9849578</v>
       </c>
       <c r="F74" t="n">
-        <v>100.8200756</v>
+        <v>99.90372614</v>
       </c>
       <c r="G74" t="n">
-        <v>100.0079131</v>
+        <v>100.3346932</v>
       </c>
       <c r="H74" t="n">
-        <v>100.0390194</v>
+        <v>100.2660782</v>
       </c>
       <c r="I74" t="n">
-        <v>100.0556219</v>
+        <v>100.155113</v>
       </c>
       <c r="J74" t="n">
-        <v>100.1271238</v>
+        <v>100.2543573</v>
       </c>
       <c r="K74" t="n">
-        <v>100.0909358</v>
+        <v>100.0323391</v>
       </c>
       <c r="L74" t="n">
-        <v>100.0323214</v>
+        <v>100.0907247</v>
       </c>
       <c r="M74" t="n">
-        <v>99.58789513000001</v>
+        <v>100.2704576</v>
       </c>
       <c r="N74" t="n">
-        <v>103.0367852</v>
+        <v>99.16815612000001</v>
       </c>
       <c r="O74" t="n">
-        <v>99.84992272</v>
+        <v>100.1527947</v>
       </c>
       <c r="P74" t="n">
-        <v>100.1090036</v>
+        <v>100.7194935</v>
       </c>
       <c r="Q74" t="n">
-        <v>102.3413724</v>
+        <v>99.40449732</v>
       </c>
       <c r="R74" t="n">
-        <v>99.92759354</v>
+        <v>100.1116776</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>100.63297448</v>
+        <v>100.4276464</v>
       </c>
       <c r="C75" t="n">
-        <v>100.25988703</v>
+        <v>100.1003405</v>
       </c>
       <c r="D75" t="n">
-        <v>99.89733895000001</v>
+        <v>99.85054464</v>
       </c>
       <c r="E75" t="n">
-        <v>99.98141690999999</v>
+        <v>100.0028915</v>
       </c>
       <c r="F75" t="n">
-        <v>99.90310343</v>
+        <v>99.84309198</v>
       </c>
       <c r="G75" t="n">
-        <v>100.042892</v>
+        <v>100.2333131</v>
       </c>
       <c r="H75" t="n">
-        <v>100.05455971</v>
+        <v>100.0164438</v>
       </c>
       <c r="I75" t="n">
-        <v>100.23021562</v>
+        <v>100.2923689</v>
       </c>
       <c r="J75" t="n">
-        <v>100.13409696</v>
+        <v>100.3021075</v>
       </c>
       <c r="K75" t="n">
-        <v>100.12753592</v>
+        <v>100.1144726</v>
       </c>
       <c r="L75" t="n">
-        <v>100.16552563</v>
+        <v>100.125073</v>
       </c>
       <c r="M75" t="n">
-        <v>99.12138484</v>
+        <v>100.3628355</v>
       </c>
       <c r="N75" t="n">
-        <v>100.27313155</v>
+        <v>99.28871676999999</v>
       </c>
       <c r="O75" t="n">
-        <v>99.97786771</v>
+        <v>100.1289539</v>
       </c>
       <c r="P75" t="n">
-        <v>100.64793716</v>
+        <v>99.97601723</v>
       </c>
       <c r="Q75" t="n">
-        <v>99.4681598</v>
+        <v>99.10019552</v>
       </c>
       <c r="R75" t="n">
-        <v>100.09723429</v>
+        <v>100.1295042</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>100.6109188</v>
+        <v>100.5989175</v>
       </c>
       <c r="C76" t="n">
-        <v>100.0401743</v>
+        <v>100.0030786</v>
       </c>
       <c r="D76" t="n">
-        <v>99.88635671999999</v>
+        <v>99.9013418</v>
       </c>
       <c r="E76" t="n">
-        <v>99.94900253</v>
+        <v>100.0292517</v>
       </c>
       <c r="F76" t="n">
-        <v>99.63039458</v>
+        <v>99.75848463</v>
       </c>
       <c r="G76" t="n">
-        <v>100.1306808</v>
+        <v>100.1253417</v>
       </c>
       <c r="H76" t="n">
-        <v>100.1243432</v>
+        <v>100.143751</v>
       </c>
       <c r="I76" t="n">
-        <v>100.1117653</v>
+        <v>100.1416795</v>
       </c>
       <c r="J76" t="n">
-        <v>100.2967014</v>
+        <v>100.1908792</v>
       </c>
       <c r="K76" t="n">
-        <v>100.2167174</v>
+        <v>100.035856</v>
       </c>
       <c r="L76" t="n">
-        <v>100.1174066</v>
+        <v>100.1200674</v>
       </c>
       <c r="M76" t="n">
-        <v>100.320658</v>
+        <v>99.83550678</v>
       </c>
       <c r="N76" t="n">
-        <v>99.47594099</v>
+        <v>98.93987614</v>
       </c>
       <c r="O76" t="n">
-        <v>100.1442713</v>
+        <v>100.2005442</v>
       </c>
       <c r="P76" t="n">
-        <v>100.664278</v>
+        <v>99.98308434</v>
       </c>
       <c r="Q76" t="n">
-        <v>98.09425539999999</v>
+        <v>99.05945654999999</v>
       </c>
       <c r="R76" t="n">
-        <v>100.1578469</v>
+        <v>100.1015055</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>100.6530288</v>
+        <v>100.4898944</v>
       </c>
       <c r="C77" t="n">
-        <v>99.99561086</v>
+        <v>100.2073047</v>
       </c>
       <c r="D77" t="n">
-        <v>99.8178782</v>
+        <v>99.76313223</v>
       </c>
       <c r="E77" t="n">
-        <v>99.9849578</v>
+        <v>100.017107</v>
       </c>
       <c r="F77" t="n">
-        <v>99.90372614</v>
+        <v>99.88296715</v>
       </c>
       <c r="G77" t="n">
-        <v>100.3346932</v>
+        <v>100.09374</v>
       </c>
       <c r="H77" t="n">
-        <v>100.2660782</v>
+        <v>100.1733726</v>
       </c>
       <c r="I77" t="n">
-        <v>100.155113</v>
+        <v>100.1636593</v>
       </c>
       <c r="J77" t="n">
-        <v>100.2543573</v>
+        <v>100.159702</v>
       </c>
       <c r="K77" t="n">
-        <v>100.0323391</v>
+        <v>99.94783015</v>
       </c>
       <c r="L77" t="n">
-        <v>100.0907247</v>
+        <v>100.0345734</v>
       </c>
       <c r="M77" t="n">
-        <v>100.2704576</v>
+        <v>99.61626923</v>
       </c>
       <c r="N77" t="n">
-        <v>99.16815612000001</v>
+        <v>98.56719851</v>
       </c>
       <c r="O77" t="n">
-        <v>100.1527947</v>
+        <v>99.87273628</v>
       </c>
       <c r="P77" t="n">
-        <v>100.7194935</v>
+        <v>99.48239337</v>
       </c>
       <c r="Q77" t="n">
-        <v>99.40449732</v>
+        <v>100.0130629</v>
       </c>
       <c r="R77" t="n">
-        <v>100.1116776</v>
+        <v>100.1145842</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.4276464</v>
+        <v>100.6690672</v>
       </c>
       <c r="C78" t="n">
-        <v>100.1003405</v>
+        <v>100.2521677</v>
       </c>
       <c r="D78" t="n">
-        <v>99.85054464</v>
+        <v>100.0984805</v>
       </c>
       <c r="E78" t="n">
-        <v>100.0028915</v>
+        <v>100.0641153</v>
       </c>
       <c r="F78" t="n">
-        <v>99.84309198</v>
+        <v>100.5762271</v>
       </c>
       <c r="G78" t="n">
-        <v>100.2333131</v>
+        <v>100.0811118</v>
       </c>
       <c r="H78" t="n">
-        <v>100.0164438</v>
+        <v>100.0575024</v>
       </c>
       <c r="I78" t="n">
-        <v>100.2923689</v>
+        <v>100.0301694</v>
       </c>
       <c r="J78" t="n">
-        <v>100.3021075</v>
+        <v>100.4908325</v>
       </c>
       <c r="K78" t="n">
-        <v>100.1144726</v>
+        <v>100.0836449</v>
       </c>
       <c r="L78" t="n">
-        <v>100.125073</v>
+        <v>100.1312017</v>
       </c>
       <c r="M78" t="n">
-        <v>100.3628355</v>
+        <v>99.60392287000001</v>
       </c>
       <c r="N78" t="n">
-        <v>99.28871676999999</v>
+        <v>101.9043228</v>
       </c>
       <c r="O78" t="n">
-        <v>100.1289539</v>
+        <v>99.95778263</v>
       </c>
       <c r="P78" t="n">
-        <v>99.97601723</v>
+        <v>99.97518951000001</v>
       </c>
       <c r="Q78" t="n">
-        <v>99.10019552</v>
+        <v>101.474371</v>
       </c>
       <c r="R78" t="n">
-        <v>100.1295042</v>
+        <v>100.1305831</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>100.5989175</v>
+        <v>100.4906898</v>
       </c>
       <c r="C79" t="n">
-        <v>100.0030786</v>
+        <v>101.0175213</v>
       </c>
       <c r="D79" t="n">
-        <v>99.9013418</v>
+        <v>100.1042386</v>
       </c>
       <c r="E79" t="n">
-        <v>100.0292517</v>
+        <v>100.0160007</v>
       </c>
       <c r="F79" t="n">
-        <v>99.75848463</v>
+        <v>100.4235382</v>
       </c>
       <c r="G79" t="n">
-        <v>100.1253417</v>
+        <v>100.0193394</v>
       </c>
       <c r="H79" t="n">
-        <v>100.143751</v>
+        <v>100.5286987</v>
       </c>
       <c r="I79" t="n">
-        <v>100.1416795</v>
+        <v>99.86953265</v>
       </c>
       <c r="J79" t="n">
-        <v>100.1908792</v>
+        <v>100.5811717</v>
       </c>
       <c r="K79" t="n">
-        <v>100.035856</v>
+        <v>100.2289508</v>
       </c>
       <c r="L79" t="n">
-        <v>100.1200674</v>
+        <v>100.0989956</v>
       </c>
       <c r="M79" t="n">
-        <v>99.83550678</v>
+        <v>100.7413473</v>
       </c>
       <c r="N79" t="n">
-        <v>98.93987614</v>
+        <v>101.2969576</v>
       </c>
       <c r="O79" t="n">
-        <v>100.2005442</v>
+        <v>100.1395921</v>
       </c>
       <c r="P79" t="n">
-        <v>99.98308434</v>
+        <v>100.4858473</v>
       </c>
       <c r="Q79" t="n">
-        <v>99.05945654999999</v>
+        <v>100.4840077</v>
       </c>
       <c r="R79" t="n">
-        <v>100.1015055</v>
+        <v>100.091997</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>100.4898944</v>
+        <v>100.2669069</v>
       </c>
       <c r="C80" t="n">
-        <v>100.2073047</v>
+        <v>100.0089883</v>
       </c>
       <c r="D80" t="n">
-        <v>99.76313223</v>
+        <v>99.89750755999999</v>
       </c>
       <c r="E80" t="n">
-        <v>100.017107</v>
+        <v>100.0909244</v>
       </c>
       <c r="F80" t="n">
-        <v>99.88296715</v>
+        <v>100.3179815</v>
       </c>
       <c r="G80" t="n">
-        <v>100.09374</v>
+        <v>100.1160507</v>
       </c>
       <c r="H80" t="n">
-        <v>100.1733726</v>
+        <v>100.5566508</v>
       </c>
       <c r="I80" t="n">
-        <v>100.1636593</v>
+        <v>99.89635185</v>
       </c>
       <c r="J80" t="n">
-        <v>100.159702</v>
+        <v>100.7619359</v>
       </c>
       <c r="K80" t="n">
-        <v>99.94783015</v>
+        <v>100.1431374</v>
       </c>
       <c r="L80" t="n">
-        <v>100.0345734</v>
+        <v>100.2005097</v>
       </c>
       <c r="M80" t="n">
-        <v>99.61626923</v>
+        <v>100.739931</v>
       </c>
       <c r="N80" t="n">
-        <v>98.56719851</v>
+        <v>102.7721986</v>
       </c>
       <c r="O80" t="n">
-        <v>99.87273628</v>
+        <v>100.2603622</v>
       </c>
       <c r="P80" t="n">
-        <v>99.48239337</v>
+        <v>99.50945994</v>
       </c>
       <c r="Q80" t="n">
-        <v>100.0130629</v>
+        <v>99.72958473</v>
       </c>
       <c r="R80" t="n">
-        <v>100.1145842</v>
+        <v>100.0841469</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100.6690672</v>
+        <v>100.4114438</v>
       </c>
       <c r="C81" t="n">
-        <v>100.2521677</v>
+        <v>100.0247186</v>
       </c>
       <c r="D81" t="n">
-        <v>100.0984805</v>
+        <v>99.8835886</v>
       </c>
       <c r="E81" t="n">
-        <v>100.0641153</v>
+        <v>100.2480737</v>
       </c>
       <c r="F81" t="n">
-        <v>100.5762271</v>
+        <v>100.1708179</v>
       </c>
       <c r="G81" t="n">
-        <v>100.0811118</v>
+        <v>100.0935952</v>
       </c>
       <c r="H81" t="n">
-        <v>100.0575024</v>
+        <v>100.3051198</v>
       </c>
       <c r="I81" t="n">
-        <v>100.0301694</v>
+        <v>99.90617677</v>
       </c>
       <c r="J81" t="n">
-        <v>100.4908325</v>
+        <v>100.5633441</v>
       </c>
       <c r="K81" t="n">
-        <v>100.0836449</v>
+        <v>99.99630481</v>
       </c>
       <c r="L81" t="n">
-        <v>100.1312017</v>
+        <v>100.121792</v>
       </c>
       <c r="M81" t="n">
-        <v>99.60392287000001</v>
+        <v>100.6149365</v>
       </c>
       <c r="N81" t="n">
-        <v>101.9043228</v>
+        <v>102.0141504</v>
       </c>
       <c r="O81" t="n">
-        <v>99.95778263</v>
+        <v>100.0464058</v>
       </c>
       <c r="P81" t="n">
-        <v>99.97518951000001</v>
+        <v>99.96120634</v>
       </c>
       <c r="Q81" t="n">
-        <v>101.474371</v>
+        <v>99.44068224</v>
       </c>
       <c r="R81" t="n">
-        <v>100.1305831</v>
+        <v>100.0860773</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>100.4906898</v>
+        <v>100.2959594</v>
       </c>
       <c r="C82" t="n">
-        <v>101.0175213</v>
+        <v>100.047869</v>
       </c>
       <c r="D82" t="n">
-        <v>100.1042386</v>
+        <v>99.84506973000001</v>
       </c>
       <c r="E82" t="n">
-        <v>100.0160007</v>
+        <v>100.0723144</v>
       </c>
       <c r="F82" t="n">
-        <v>100.4235382</v>
+        <v>100.4617215</v>
       </c>
       <c r="G82" t="n">
-        <v>100.0193394</v>
+        <v>100.1828551</v>
       </c>
       <c r="H82" t="n">
-        <v>100.5286987</v>
+        <v>100.1412529</v>
       </c>
       <c r="I82" t="n">
-        <v>99.86953265</v>
+        <v>100.0967954</v>
       </c>
       <c r="J82" t="n">
-        <v>100.5811717</v>
+        <v>100.7340878</v>
       </c>
       <c r="K82" t="n">
-        <v>100.2289508</v>
+        <v>100.3154347</v>
       </c>
       <c r="L82" t="n">
-        <v>100.0989956</v>
+        <v>100.0298308</v>
       </c>
       <c r="M82" t="n">
-        <v>100.7413473</v>
+        <v>100.3489567</v>
       </c>
       <c r="N82" t="n">
-        <v>101.2969576</v>
+        <v>101.3545163</v>
       </c>
       <c r="O82" t="n">
-        <v>100.1395921</v>
+        <v>100.281905</v>
       </c>
       <c r="P82" t="n">
-        <v>100.4858473</v>
+        <v>99.13294182999999</v>
       </c>
       <c r="Q82" t="n">
-        <v>100.4840077</v>
+        <v>101.0548663</v>
       </c>
       <c r="R82" t="n">
-        <v>100.091997</v>
+        <v>100.0916793</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>100.35738012</v>
+        <v>100.3469326</v>
       </c>
       <c r="C83" t="n">
-        <v>100.17337833</v>
+        <v>100.5231257</v>
       </c>
       <c r="D83" t="n">
-        <v>100.03858771</v>
+        <v>100.1419013</v>
       </c>
       <c r="E83" t="n">
-        <v>100.06031559</v>
+        <v>100.1872977</v>
       </c>
       <c r="F83" t="n">
-        <v>100.30960202</v>
+        <v>100.7406855</v>
       </c>
       <c r="G83" t="n">
-        <v>100.13977226</v>
+        <v>100.1347821</v>
       </c>
       <c r="H83" t="n">
-        <v>100.0994597</v>
+        <v>100.1939969</v>
       </c>
       <c r="I83" t="n">
-        <v>100.08146405</v>
+        <v>100.1316775</v>
       </c>
       <c r="J83" t="n">
-        <v>100.21084053</v>
+        <v>100.3437587</v>
       </c>
       <c r="K83" t="n">
-        <v>100.36586586</v>
+        <v>99.992746</v>
       </c>
       <c r="L83" t="n">
-        <v>100.2548424</v>
+        <v>100.2530551</v>
       </c>
       <c r="M83" t="n">
-        <v>100.83282516</v>
+        <v>99.93904025000001</v>
       </c>
       <c r="N83" t="n">
-        <v>102.71516822</v>
+        <v>102.0267254</v>
       </c>
       <c r="O83" t="n">
-        <v>100.40389162</v>
+        <v>100.218546</v>
       </c>
       <c r="P83" t="n">
-        <v>100.30811746</v>
+        <v>100.578038</v>
       </c>
       <c r="Q83" t="n">
-        <v>99.4956292</v>
+        <v>101.9093476</v>
       </c>
       <c r="R83" t="n">
-        <v>100.11241885</v>
+        <v>100.2088183</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>100.25434876</v>
+        <v>100.2634011</v>
       </c>
       <c r="C84" t="n">
-        <v>100.12226648</v>
+        <v>100.0478603</v>
       </c>
       <c r="D84" t="n">
-        <v>100.03247764</v>
+        <v>99.75417491</v>
       </c>
       <c r="E84" t="n">
-        <v>100.19017198</v>
+        <v>100.1557879</v>
       </c>
       <c r="F84" t="n">
-        <v>99.57917789</v>
+        <v>100.8534769</v>
       </c>
       <c r="G84" t="n">
-        <v>100.06842026</v>
+        <v>99.80320136</v>
       </c>
       <c r="H84" t="n">
-        <v>100.08643825</v>
+        <v>100.1522924</v>
       </c>
       <c r="I84" t="n">
-        <v>99.73306221999999</v>
+        <v>99.91714004000001</v>
       </c>
       <c r="J84" t="n">
-        <v>100.23964372</v>
+        <v>100.0697213</v>
       </c>
       <c r="K84" t="n">
-        <v>100.09589431</v>
+        <v>99.99439988</v>
       </c>
       <c r="L84" t="n">
-        <v>100.09147906</v>
+        <v>100.0812188</v>
       </c>
       <c r="M84" t="n">
-        <v>100.6075471</v>
+        <v>99.26398952</v>
       </c>
       <c r="N84" t="n">
-        <v>97.37545421</v>
+        <v>100.1347678</v>
       </c>
       <c r="O84" t="n">
-        <v>100.15572635</v>
+        <v>99.65822197999999</v>
       </c>
       <c r="P84" t="n">
-        <v>100.55041495</v>
+        <v>99.20633327</v>
       </c>
       <c r="Q84" t="n">
-        <v>98.75513582000001</v>
+        <v>104.0266707</v>
       </c>
       <c r="R84" t="n">
-        <v>100.06023941</v>
+        <v>100.0382407</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>100.25727714</v>
+        <v>100.4144471</v>
       </c>
       <c r="C85" t="n">
-        <v>100.00238933</v>
+        <v>100.1921961</v>
       </c>
       <c r="D85" t="n">
-        <v>100.15159515</v>
+        <v>99.75455982</v>
       </c>
       <c r="E85" t="n">
-        <v>100.00732888</v>
+        <v>99.92829879</v>
       </c>
       <c r="F85" t="n">
-        <v>99.84110097999999</v>
+        <v>98.92922532</v>
       </c>
       <c r="G85" t="n">
-        <v>100.03243018</v>
+        <v>100.0878224</v>
       </c>
       <c r="H85" t="n">
-        <v>100.08096417</v>
+        <v>100.2948441</v>
       </c>
       <c r="I85" t="n">
-        <v>100.04287685</v>
+        <v>99.98755490000001</v>
       </c>
       <c r="J85" t="n">
-        <v>100.15214361</v>
+        <v>100.1752955</v>
       </c>
       <c r="K85" t="n">
-        <v>100.00993639</v>
+        <v>99.78335389999999</v>
       </c>
       <c r="L85" t="n">
-        <v>100.11489433</v>
+        <v>100.0937541</v>
       </c>
       <c r="M85" t="n">
-        <v>100.49499801</v>
+        <v>100.3236413</v>
       </c>
       <c r="N85" t="n">
-        <v>94.91236064</v>
+        <v>97.84956778999999</v>
       </c>
       <c r="O85" t="n">
-        <v>100.00622462</v>
+        <v>100.1152329</v>
       </c>
       <c r="P85" t="n">
-        <v>100.07794606</v>
+        <v>100.1020894</v>
       </c>
       <c r="Q85" t="n">
-        <v>100.82425852</v>
+        <v>96.03855407</v>
       </c>
       <c r="R85" t="n">
-        <v>100.13439841</v>
+        <v>100.1233611</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>100.3469326</v>
+        <v>100.4030278</v>
       </c>
       <c r="C86" t="n">
-        <v>100.5231257</v>
+        <v>100.0106616</v>
       </c>
       <c r="D86" t="n">
-        <v>100.1419013</v>
+        <v>99.95184646</v>
       </c>
       <c r="E86" t="n">
-        <v>100.1872977</v>
+        <v>100.0351652</v>
       </c>
       <c r="F86" t="n">
-        <v>100.7406855</v>
+        <v>99.75179891000001</v>
       </c>
       <c r="G86" t="n">
-        <v>100.1347821</v>
+        <v>100.2436945</v>
       </c>
       <c r="H86" t="n">
-        <v>100.1939969</v>
+        <v>100.167951</v>
       </c>
       <c r="I86" t="n">
-        <v>100.1316775</v>
+        <v>99.99918685999999</v>
       </c>
       <c r="J86" t="n">
-        <v>100.3437587</v>
+        <v>100.265866</v>
       </c>
       <c r="K86" t="n">
-        <v>99.992746</v>
+        <v>100.1789322</v>
       </c>
       <c r="L86" t="n">
-        <v>100.2530551</v>
+        <v>100.1511778</v>
       </c>
       <c r="M86" t="n">
-        <v>99.93904025000001</v>
+        <v>100.1246159</v>
       </c>
       <c r="N86" t="n">
-        <v>102.0267254</v>
+        <v>101.149983</v>
       </c>
       <c r="O86" t="n">
-        <v>100.218546</v>
+        <v>99.91826718999999</v>
       </c>
       <c r="P86" t="n">
-        <v>100.578038</v>
+        <v>99.78318667000001</v>
       </c>
       <c r="Q86" t="n">
-        <v>101.9093476</v>
+        <v>98.16926685</v>
       </c>
       <c r="R86" t="n">
-        <v>100.2088183</v>
+        <v>100.1027106</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>100.2634011</v>
+        <v>100.6234007</v>
       </c>
       <c r="C87" t="n">
-        <v>100.0478603</v>
+        <v>100.017677</v>
       </c>
       <c r="D87" t="n">
-        <v>99.75417491</v>
+        <v>99.79414343000001</v>
       </c>
       <c r="E87" t="n">
-        <v>100.1557879</v>
+        <v>100.0581953</v>
       </c>
       <c r="F87" t="n">
-        <v>100.8534769</v>
+        <v>99.93524728</v>
       </c>
       <c r="G87" t="n">
-        <v>99.80320136</v>
+        <v>100.1110163</v>
       </c>
       <c r="H87" t="n">
-        <v>100.1522924</v>
+        <v>100.0729986</v>
       </c>
       <c r="I87" t="n">
-        <v>99.91714004000001</v>
+        <v>100.06141</v>
       </c>
       <c r="J87" t="n">
-        <v>100.0697213</v>
+        <v>100.1203204</v>
       </c>
       <c r="K87" t="n">
-        <v>99.99439988</v>
+        <v>99.86807782</v>
       </c>
       <c r="L87" t="n">
-        <v>100.0812188</v>
+        <v>100.0278989</v>
       </c>
       <c r="M87" t="n">
-        <v>99.26398952</v>
+        <v>100.245904</v>
       </c>
       <c r="N87" t="n">
-        <v>100.1347678</v>
+        <v>101.5764433</v>
       </c>
       <c r="O87" t="n">
-        <v>99.65822197999999</v>
+        <v>99.96656826</v>
       </c>
       <c r="P87" t="n">
-        <v>99.20633327</v>
+        <v>99.73547913</v>
       </c>
       <c r="Q87" t="n">
-        <v>104.0266707</v>
+        <v>98.83375855</v>
       </c>
       <c r="R87" t="n">
-        <v>100.0382407</v>
+        <v>100.1745001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>100.4144471</v>
+        <v>100.37304464</v>
       </c>
       <c r="C88" t="n">
-        <v>100.1921961</v>
+        <v>100.00861643</v>
       </c>
       <c r="D88" t="n">
-        <v>99.75455982</v>
+        <v>99.59145187999999</v>
       </c>
       <c r="E88" t="n">
-        <v>99.92829879</v>
+        <v>99.98883993</v>
       </c>
       <c r="F88" t="n">
-        <v>98.92922532</v>
+        <v>99.98703629000001</v>
       </c>
       <c r="G88" t="n">
-        <v>100.0878224</v>
+        <v>100.09856206</v>
       </c>
       <c r="H88" t="n">
-        <v>100.2948441</v>
+        <v>100.06081629</v>
       </c>
       <c r="I88" t="n">
-        <v>99.98755490000001</v>
+        <v>99.97190644</v>
       </c>
       <c r="J88" t="n">
-        <v>100.1752955</v>
+        <v>100.01422864</v>
       </c>
       <c r="K88" t="n">
-        <v>99.78335389999999</v>
+        <v>100.04457412</v>
       </c>
       <c r="L88" t="n">
-        <v>100.0937541</v>
+        <v>100.14565395</v>
       </c>
       <c r="M88" t="n">
-        <v>100.3236413</v>
+        <v>100.04684412</v>
       </c>
       <c r="N88" t="n">
-        <v>97.84956778999999</v>
+        <v>101.29609149</v>
       </c>
       <c r="O88" t="n">
-        <v>100.1152329</v>
+        <v>100.11622966</v>
       </c>
       <c r="P88" t="n">
-        <v>100.1020894</v>
+        <v>99.88435396</v>
       </c>
       <c r="Q88" t="n">
-        <v>96.03855407</v>
+        <v>99.4591606</v>
       </c>
       <c r="R88" t="n">
-        <v>100.1233611</v>
+        <v>100.07416284</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>100.4030278</v>
+        <v>100.35002771</v>
       </c>
       <c r="C89" t="n">
-        <v>100.0106616</v>
+        <v>101.11825431</v>
       </c>
       <c r="D89" t="n">
-        <v>99.95184646</v>
+        <v>99.66365677</v>
       </c>
       <c r="E89" t="n">
-        <v>100.0351652</v>
+        <v>100.05160419</v>
       </c>
       <c r="F89" t="n">
-        <v>99.75179891000001</v>
+        <v>100.13285376</v>
       </c>
       <c r="G89" t="n">
-        <v>100.2436945</v>
+        <v>100.09590416</v>
       </c>
       <c r="H89" t="n">
-        <v>100.167951</v>
+        <v>100.01019741</v>
       </c>
       <c r="I89" t="n">
-        <v>99.99918685999999</v>
+        <v>99.98956765</v>
       </c>
       <c r="J89" t="n">
-        <v>100.265866</v>
+        <v>100.13151884</v>
       </c>
       <c r="K89" t="n">
-        <v>100.1789322</v>
+        <v>100.00718079</v>
       </c>
       <c r="L89" t="n">
-        <v>100.1511778</v>
+        <v>100.06741381</v>
       </c>
       <c r="M89" t="n">
-        <v>100.1246159</v>
+        <v>99.63473987</v>
       </c>
       <c r="N89" t="n">
-        <v>101.149983</v>
+        <v>100.83908813</v>
       </c>
       <c r="O89" t="n">
-        <v>99.91826718999999</v>
+        <v>99.90954782</v>
       </c>
       <c r="P89" t="n">
-        <v>99.78318667000001</v>
+        <v>99.76461811999999</v>
       </c>
       <c r="Q89" t="n">
-        <v>98.16926685</v>
+        <v>100.33959645</v>
       </c>
       <c r="R89" t="n">
-        <v>100.1027106</v>
+        <v>100.06949167</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>100.6234007</v>
+        <v>100.7549622</v>
       </c>
       <c r="C90" t="n">
-        <v>100.017677</v>
+        <v>100.85747785</v>
       </c>
       <c r="D90" t="n">
-        <v>99.79414343000001</v>
+        <v>99.86621907999999</v>
       </c>
       <c r="E90" t="n">
-        <v>100.0581953</v>
+        <v>100.06724244</v>
       </c>
       <c r="F90" t="n">
-        <v>99.93524728</v>
+        <v>100.67049535</v>
       </c>
       <c r="G90" t="n">
-        <v>100.1110163</v>
+        <v>100.03690278</v>
       </c>
       <c r="H90" t="n">
-        <v>100.0729986</v>
+        <v>100.04979892</v>
       </c>
       <c r="I90" t="n">
-        <v>100.06141</v>
+        <v>99.96670254</v>
       </c>
       <c r="J90" t="n">
-        <v>100.1203204</v>
+        <v>100.14154247</v>
       </c>
       <c r="K90" t="n">
-        <v>99.86807782</v>
+        <v>100.08815653</v>
       </c>
       <c r="L90" t="n">
-        <v>100.0278989</v>
+        <v>100.17154454</v>
       </c>
       <c r="M90" t="n">
-        <v>100.245904</v>
+        <v>99.60389132</v>
       </c>
       <c r="N90" t="n">
-        <v>101.5764433</v>
+        <v>100.7569097</v>
       </c>
       <c r="O90" t="n">
-        <v>99.96656826</v>
+        <v>100.05709635</v>
       </c>
       <c r="P90" t="n">
-        <v>99.73547913</v>
+        <v>99.62651889</v>
       </c>
       <c r="Q90" t="n">
-        <v>98.83375855</v>
+        <v>102.48124554</v>
       </c>
       <c r="R90" t="n">
-        <v>100.1745001</v>
+        <v>100.12186162</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>100.37304464</v>
+        <v>100.32621585</v>
       </c>
       <c r="C91" t="n">
-        <v>100.00861643</v>
+        <v>100.82078805</v>
       </c>
       <c r="D91" t="n">
-        <v>99.59145187999999</v>
+        <v>100.32757318</v>
       </c>
       <c r="E91" t="n">
-        <v>99.98883993</v>
+        <v>99.98775005</v>
       </c>
       <c r="F91" t="n">
-        <v>99.98703629000001</v>
+        <v>100.84033968</v>
       </c>
       <c r="G91" t="n">
-        <v>100.09856206</v>
+        <v>100.08122233</v>
       </c>
       <c r="H91" t="n">
-        <v>100.06081629</v>
+        <v>100.11467196</v>
       </c>
       <c r="I91" t="n">
-        <v>99.97190644</v>
+        <v>99.9386714</v>
       </c>
       <c r="J91" t="n">
-        <v>100.01422864</v>
+        <v>100.24678865</v>
       </c>
       <c r="K91" t="n">
-        <v>100.04457412</v>
+        <v>100.4777715</v>
       </c>
       <c r="L91" t="n">
-        <v>100.14565395</v>
+        <v>100.10299643</v>
       </c>
       <c r="M91" t="n">
-        <v>100.04684412</v>
+        <v>100.63054393</v>
       </c>
       <c r="N91" t="n">
-        <v>101.29609149</v>
+        <v>102.18669781</v>
       </c>
       <c r="O91" t="n">
-        <v>100.11622966</v>
+        <v>100.01539981</v>
       </c>
       <c r="P91" t="n">
-        <v>99.88435396</v>
+        <v>99.46088638000001</v>
       </c>
       <c r="Q91" t="n">
-        <v>99.4591606</v>
+        <v>102.0714882</v>
       </c>
       <c r="R91" t="n">
-        <v>100.07416284</v>
+        <v>100.02754242</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>100.35002771</v>
+        <v>100.35738012</v>
       </c>
       <c r="C92" t="n">
-        <v>101.11825431</v>
+        <v>100.17337833</v>
       </c>
       <c r="D92" t="n">
-        <v>99.66365677</v>
+        <v>100.03858771</v>
       </c>
       <c r="E92" t="n">
-        <v>100.05160419</v>
+        <v>100.06031559</v>
       </c>
       <c r="F92" t="n">
-        <v>100.13285376</v>
+        <v>100.30960202</v>
       </c>
       <c r="G92" t="n">
-        <v>100.09590416</v>
+        <v>100.13977226</v>
       </c>
       <c r="H92" t="n">
-        <v>100.01019741</v>
+        <v>100.0994597</v>
       </c>
       <c r="I92" t="n">
-        <v>99.98956765</v>
+        <v>100.08146405</v>
       </c>
       <c r="J92" t="n">
-        <v>100.13151884</v>
+        <v>100.21084053</v>
       </c>
       <c r="K92" t="n">
-        <v>100.00718079</v>
+        <v>100.36586586</v>
       </c>
       <c r="L92" t="n">
-        <v>100.06741381</v>
+        <v>100.2548424</v>
       </c>
       <c r="M92" t="n">
-        <v>99.63473987</v>
+        <v>100.83282516</v>
       </c>
       <c r="N92" t="n">
-        <v>100.83908813</v>
+        <v>102.71516822</v>
       </c>
       <c r="O92" t="n">
-        <v>99.90954782</v>
+        <v>100.40389162</v>
       </c>
       <c r="P92" t="n">
-        <v>99.76461811999999</v>
+        <v>100.30811746</v>
       </c>
       <c r="Q92" t="n">
-        <v>100.33959645</v>
+        <v>99.4956292</v>
       </c>
       <c r="R92" t="n">
-        <v>100.06949167</v>
+        <v>100.11241885</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>100.7549622</v>
+        <v>100.25434876</v>
       </c>
       <c r="C93" t="n">
-        <v>100.85747785</v>
+        <v>100.12226648</v>
       </c>
       <c r="D93" t="n">
-        <v>99.86621907999999</v>
+        <v>100.03247764</v>
       </c>
       <c r="E93" t="n">
-        <v>100.06724244</v>
+        <v>100.19017198</v>
       </c>
       <c r="F93" t="n">
-        <v>100.67049535</v>
+        <v>99.57917789</v>
       </c>
       <c r="G93" t="n">
-        <v>100.03690278</v>
+        <v>100.06842026</v>
       </c>
       <c r="H93" t="n">
-        <v>100.04979892</v>
+        <v>100.08643825</v>
       </c>
       <c r="I93" t="n">
-        <v>99.96670254</v>
+        <v>99.73306221999999</v>
       </c>
       <c r="J93" t="n">
-        <v>100.14154247</v>
+        <v>100.23964372</v>
       </c>
       <c r="K93" t="n">
-        <v>100.08815653</v>
+        <v>100.09589431</v>
       </c>
       <c r="L93" t="n">
-        <v>100.17154454</v>
+        <v>100.09147906</v>
       </c>
       <c r="M93" t="n">
-        <v>99.60389132</v>
+        <v>100.6075471</v>
       </c>
       <c r="N93" t="n">
-        <v>100.7569097</v>
+        <v>97.37545421</v>
       </c>
       <c r="O93" t="n">
-        <v>100.05709635</v>
+        <v>100.15572635</v>
       </c>
       <c r="P93" t="n">
-        <v>99.62651889</v>
+        <v>100.55041495</v>
       </c>
       <c r="Q93" t="n">
-        <v>102.48124554</v>
+        <v>98.75513582000001</v>
       </c>
       <c r="R93" t="n">
-        <v>100.12186162</v>
+        <v>100.06023941</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>100.32621585</v>
+        <v>100.25727714</v>
       </c>
       <c r="C94" t="n">
-        <v>100.82078805</v>
+        <v>100.00238933</v>
       </c>
       <c r="D94" t="n">
-        <v>100.32757318</v>
+        <v>100.15159515</v>
       </c>
       <c r="E94" t="n">
-        <v>99.98775005</v>
+        <v>100.00732888</v>
       </c>
       <c r="F94" t="n">
-        <v>100.84033968</v>
+        <v>99.84110097999999</v>
       </c>
       <c r="G94" t="n">
-        <v>100.08122233</v>
+        <v>100.03243018</v>
       </c>
       <c r="H94" t="n">
-        <v>100.11467196</v>
+        <v>100.08096417</v>
       </c>
       <c r="I94" t="n">
-        <v>99.9386714</v>
+        <v>100.04287685</v>
       </c>
       <c r="J94" t="n">
-        <v>100.24678865</v>
+        <v>100.15214361</v>
       </c>
       <c r="K94" t="n">
-        <v>100.4777715</v>
+        <v>100.00993639</v>
       </c>
       <c r="L94" t="n">
-        <v>100.10299643</v>
+        <v>100.11489433</v>
       </c>
       <c r="M94" t="n">
-        <v>100.63054393</v>
+        <v>100.49499801</v>
       </c>
       <c r="N94" t="n">
-        <v>102.18669781</v>
+        <v>94.91236064</v>
       </c>
       <c r="O94" t="n">
-        <v>100.01539981</v>
+        <v>100.00622462</v>
       </c>
       <c r="P94" t="n">
-        <v>99.46088638000001</v>
+        <v>100.07794606</v>
       </c>
       <c r="Q94" t="n">
-        <v>102.0714882</v>
+        <v>100.82425852</v>
       </c>
       <c r="R94" t="n">
-        <v>100.02754242</v>
+        <v>100.13439841</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>100.26558013</v>
+        <v>100.58985513</v>
       </c>
       <c r="C95" t="n">
-        <v>100.18331277</v>
+        <v>101.56489402</v>
       </c>
       <c r="D95" t="n">
-        <v>99.87953206</v>
+        <v>99.77919029</v>
       </c>
       <c r="E95" t="n">
-        <v>99.98178521</v>
+        <v>100.20073604</v>
       </c>
       <c r="F95" t="n">
-        <v>101.07839056</v>
+        <v>100.24051734</v>
       </c>
       <c r="G95" t="n">
-        <v>100.19434455</v>
+        <v>100.15509959</v>
       </c>
       <c r="H95" t="n">
-        <v>100.09355184</v>
+        <v>100.10849415</v>
       </c>
       <c r="I95" t="n">
-        <v>99.87576872</v>
+        <v>100.00622367</v>
       </c>
       <c r="J95" t="n">
-        <v>100.16399038</v>
+        <v>100.02540454</v>
       </c>
       <c r="K95" t="n">
-        <v>100.13482372</v>
+        <v>100.00504571</v>
       </c>
       <c r="L95" t="n">
-        <v>100.0389727</v>
+        <v>100.15115719</v>
       </c>
       <c r="M95" t="n">
-        <v>100.32243248</v>
+        <v>99.73920793000001</v>
       </c>
       <c r="N95" t="n">
-        <v>100.89256045</v>
+        <v>98.14961228999999</v>
       </c>
       <c r="O95" t="n">
-        <v>100.04560001</v>
+        <v>100.04595398</v>
       </c>
       <c r="P95" t="n">
-        <v>99.85045418999999</v>
+        <v>101.23262444</v>
       </c>
       <c r="Q95" t="n">
-        <v>103.75594569</v>
+        <v>101.49982089</v>
       </c>
       <c r="R95" t="n">
-        <v>100.19961412</v>
+        <v>100.0004728</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>100.15632489</v>
+        <v>100.46512817</v>
       </c>
       <c r="C96" t="n">
-        <v>99.95605621999999</v>
+        <v>100.34726429</v>
       </c>
       <c r="D96" t="n">
-        <v>99.93011887999999</v>
+        <v>99.93015745</v>
       </c>
       <c r="E96" t="n">
-        <v>100.06057555</v>
+        <v>100.04113151</v>
       </c>
       <c r="F96" t="n">
-        <v>100.49624243</v>
+        <v>100.73535514</v>
       </c>
       <c r="G96" t="n">
-        <v>100.04132834</v>
+        <v>100.03502462</v>
       </c>
       <c r="H96" t="n">
-        <v>100.0943413</v>
+        <v>100.12279718</v>
       </c>
       <c r="I96" t="n">
-        <v>99.66138362</v>
+        <v>100.15401949</v>
       </c>
       <c r="J96" t="n">
-        <v>100.32216784</v>
+        <v>100.04667454</v>
       </c>
       <c r="K96" t="n">
-        <v>100.1635857</v>
+        <v>99.91978197</v>
       </c>
       <c r="L96" t="n">
-        <v>100.01218154</v>
+        <v>100.08959493</v>
       </c>
       <c r="M96" t="n">
-        <v>100.33175489</v>
+        <v>99.48503693000001</v>
       </c>
       <c r="N96" t="n">
-        <v>100.43003344</v>
+        <v>101.37590358</v>
       </c>
       <c r="O96" t="n">
-        <v>99.99592656999999</v>
+        <v>100.01016583</v>
       </c>
       <c r="P96" t="n">
-        <v>98.8494869</v>
+        <v>99.76660342</v>
       </c>
       <c r="Q96" t="n">
-        <v>101.66300098</v>
+        <v>102.64579363</v>
       </c>
       <c r="R96" t="n">
-        <v>100.11958299</v>
+        <v>100.01126303</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>100.04497883</v>
+        <v>100.31424983</v>
       </c>
       <c r="C97" t="n">
-        <v>100.02144626</v>
+        <v>100.1549643</v>
       </c>
       <c r="D97" t="n">
-        <v>99.87801859</v>
+        <v>99.66656024</v>
       </c>
       <c r="E97" t="n">
-        <v>100.05071492</v>
+        <v>99.99186759</v>
       </c>
       <c r="F97" t="n">
-        <v>99.99940333000001</v>
+        <v>99.92271761000001</v>
       </c>
       <c r="G97" t="n">
-        <v>100.10272792</v>
+        <v>100.22010913</v>
       </c>
       <c r="H97" t="n">
-        <v>100.08265818</v>
+        <v>100.04639706</v>
       </c>
       <c r="I97" t="n">
-        <v>100.00181522</v>
+        <v>99.85164104</v>
       </c>
       <c r="J97" t="n">
-        <v>100.32096986</v>
+        <v>99.87331754</v>
       </c>
       <c r="K97" t="n">
-        <v>100.10577233</v>
+        <v>100.31361122</v>
       </c>
       <c r="L97" t="n">
-        <v>99.86151731</v>
+        <v>100.01069975</v>
       </c>
       <c r="M97" t="n">
-        <v>100.1021775</v>
+        <v>100.23809603</v>
       </c>
       <c r="N97" t="n">
-        <v>101.3847808</v>
+        <v>101.30158446</v>
       </c>
       <c r="O97" t="n">
-        <v>100.08584013</v>
+        <v>100.06001588</v>
       </c>
       <c r="P97" t="n">
-        <v>99.87195326</v>
+        <v>100.4283283</v>
       </c>
       <c r="Q97" t="n">
-        <v>99.48696830999999</v>
+        <v>99.14473382</v>
       </c>
       <c r="R97" t="n">
-        <v>100.02906867</v>
+        <v>100.11973204</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>100.58985513</v>
+        <v>100.26332027</v>
       </c>
       <c r="C98" t="n">
-        <v>101.56489402</v>
+        <v>100.09829846</v>
       </c>
       <c r="D98" t="n">
-        <v>99.77919029</v>
+        <v>99.87233849</v>
       </c>
       <c r="E98" t="n">
-        <v>100.20073604</v>
+        <v>100.00041865</v>
       </c>
       <c r="F98" t="n">
-        <v>100.24051734</v>
+        <v>100.05098952</v>
       </c>
       <c r="G98" t="n">
-        <v>100.15509959</v>
+        <v>100.26425365</v>
       </c>
       <c r="H98" t="n">
-        <v>100.10849415</v>
+        <v>99.9183675</v>
       </c>
       <c r="I98" t="n">
-        <v>100.00622367</v>
+        <v>100.0485384</v>
       </c>
       <c r="J98" t="n">
-        <v>100.02540454</v>
+        <v>99.9970507</v>
       </c>
       <c r="K98" t="n">
-        <v>100.00504571</v>
+        <v>99.85881782</v>
       </c>
       <c r="L98" t="n">
-        <v>100.15115719</v>
+        <v>99.93477307000001</v>
       </c>
       <c r="M98" t="n">
-        <v>99.73920793000001</v>
+        <v>100.07253544</v>
       </c>
       <c r="N98" t="n">
-        <v>98.14961228999999</v>
+        <v>99.57726364</v>
       </c>
       <c r="O98" t="n">
-        <v>100.04595398</v>
+        <v>100.05553711</v>
       </c>
       <c r="P98" t="n">
-        <v>101.23262444</v>
+        <v>100.18339343</v>
       </c>
       <c r="Q98" t="n">
-        <v>101.49982089</v>
+        <v>100.29594052</v>
       </c>
       <c r="R98" t="n">
-        <v>100.0004728</v>
+        <v>100.06747204</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>100.46512817</v>
+        <v>100.18480422</v>
       </c>
       <c r="C99" t="n">
-        <v>100.34726429</v>
+        <v>99.99359446</v>
       </c>
       <c r="D99" t="n">
-        <v>99.93015745</v>
+        <v>99.45628069999999</v>
       </c>
       <c r="E99" t="n">
-        <v>100.04113151</v>
+        <v>100.00327505</v>
       </c>
       <c r="F99" t="n">
-        <v>100.73535514</v>
+        <v>100.05031505</v>
       </c>
       <c r="G99" t="n">
-        <v>100.03502462</v>
+        <v>100.08360944</v>
       </c>
       <c r="H99" t="n">
-        <v>100.12279718</v>
+        <v>99.97542673</v>
       </c>
       <c r="I99" t="n">
-        <v>100.15401949</v>
+        <v>99.98429853</v>
       </c>
       <c r="J99" t="n">
-        <v>100.04667454</v>
+        <v>100.05914838</v>
       </c>
       <c r="K99" t="n">
-        <v>99.91978197</v>
+        <v>100.11112059</v>
       </c>
       <c r="L99" t="n">
-        <v>100.08959493</v>
+        <v>100.0703199</v>
       </c>
       <c r="M99" t="n">
-        <v>99.48503693000001</v>
+        <v>100.23217243</v>
       </c>
       <c r="N99" t="n">
-        <v>101.37590358</v>
+        <v>100.8188376</v>
       </c>
       <c r="O99" t="n">
-        <v>100.01016583</v>
+        <v>99.99005977</v>
       </c>
       <c r="P99" t="n">
-        <v>99.76660342</v>
+        <v>99.50694966</v>
       </c>
       <c r="Q99" t="n">
-        <v>102.64579363</v>
+        <v>100.01240646</v>
       </c>
       <c r="R99" t="n">
-        <v>100.01126303</v>
+        <v>100.13443343</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>100.31424983</v>
+        <v>100.1877828</v>
       </c>
       <c r="C100" t="n">
-        <v>100.1549643</v>
+        <v>99.92645975000001</v>
       </c>
       <c r="D100" t="n">
-        <v>99.66656024</v>
+        <v>99.51673900999999</v>
       </c>
       <c r="E100" t="n">
-        <v>99.99186759</v>
+        <v>100.0007321</v>
       </c>
       <c r="F100" t="n">
-        <v>99.92271761000001</v>
+        <v>99.74644418</v>
       </c>
       <c r="G100" t="n">
-        <v>100.22010913</v>
+        <v>100.13239806</v>
       </c>
       <c r="H100" t="n">
-        <v>100.04639706</v>
+        <v>99.99132208</v>
       </c>
       <c r="I100" t="n">
-        <v>99.85164104</v>
+        <v>99.71251089</v>
       </c>
       <c r="J100" t="n">
-        <v>99.87331754</v>
+        <v>100.06758199</v>
       </c>
       <c r="K100" t="n">
-        <v>100.31361122</v>
+        <v>99.82384267</v>
       </c>
       <c r="L100" t="n">
-        <v>100.01069975</v>
+        <v>100.1372428</v>
       </c>
       <c r="M100" t="n">
-        <v>100.23809603</v>
+        <v>100.0478988</v>
       </c>
       <c r="N100" t="n">
-        <v>101.30158446</v>
+        <v>97.76206775999999</v>
       </c>
       <c r="O100" t="n">
-        <v>100.06001588</v>
+        <v>99.98302234000001</v>
       </c>
       <c r="P100" t="n">
-        <v>100.4283283</v>
+        <v>102.00425781</v>
       </c>
       <c r="Q100" t="n">
-        <v>99.14473382</v>
+        <v>99.83023325000001</v>
       </c>
       <c r="R100" t="n">
-        <v>100.11973204</v>
+        <v>100.0979629</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>100.26332027</v>
+        <v>100.14838958</v>
       </c>
       <c r="C101" t="n">
-        <v>100.09829846</v>
+        <v>100.08569179</v>
       </c>
       <c r="D101" t="n">
-        <v>99.87233849</v>
+        <v>99.97928503999999</v>
       </c>
       <c r="E101" t="n">
-        <v>100.00041865</v>
+        <v>99.88367169999999</v>
       </c>
       <c r="F101" t="n">
-        <v>100.05098952</v>
+        <v>100.14566887</v>
       </c>
       <c r="G101" t="n">
-        <v>100.26425365</v>
+        <v>99.98034896</v>
       </c>
       <c r="H101" t="n">
-        <v>99.9183675</v>
+        <v>100.02438668</v>
       </c>
       <c r="I101" t="n">
-        <v>100.0485384</v>
+        <v>100.00473512</v>
       </c>
       <c r="J101" t="n">
-        <v>99.9970507</v>
+        <v>100.01490182</v>
       </c>
       <c r="K101" t="n">
-        <v>99.85881782</v>
+        <v>99.94808154</v>
       </c>
       <c r="L101" t="n">
-        <v>99.93477307000001</v>
+        <v>99.97013893</v>
       </c>
       <c r="M101" t="n">
-        <v>100.07253544</v>
+        <v>99.60438422999999</v>
       </c>
       <c r="N101" t="n">
-        <v>99.57726364</v>
+        <v>98.75840776</v>
       </c>
       <c r="O101" t="n">
-        <v>100.05553711</v>
+        <v>99.87279721</v>
       </c>
       <c r="P101" t="n">
-        <v>100.18339343</v>
+        <v>102.84589104</v>
       </c>
       <c r="Q101" t="n">
-        <v>100.29594052</v>
+        <v>101.00325323</v>
       </c>
       <c r="R101" t="n">
-        <v>100.06747204</v>
+        <v>100.11529185</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>100.18480422</v>
+        <v>100.31946046</v>
       </c>
       <c r="C102" t="n">
-        <v>99.99359446</v>
+        <v>99.96159350000001</v>
       </c>
       <c r="D102" t="n">
-        <v>99.45628069999999</v>
+        <v>99.93871729999999</v>
       </c>
       <c r="E102" t="n">
-        <v>100.00327505</v>
+        <v>100.07057073</v>
       </c>
       <c r="F102" t="n">
-        <v>100.05031505</v>
+        <v>100.75113902</v>
       </c>
       <c r="G102" t="n">
-        <v>100.08360944</v>
+        <v>100.06047981</v>
       </c>
       <c r="H102" t="n">
-        <v>99.97542673</v>
+        <v>99.97692382</v>
       </c>
       <c r="I102" t="n">
-        <v>99.98429853</v>
+        <v>99.96607213999999</v>
       </c>
       <c r="J102" t="n">
-        <v>100.05914838</v>
+        <v>100.08339699</v>
       </c>
       <c r="K102" t="n">
-        <v>100.11112059</v>
+        <v>99.96379132</v>
       </c>
       <c r="L102" t="n">
-        <v>100.0703199</v>
+        <v>99.99075574</v>
       </c>
       <c r="M102" t="n">
-        <v>100.23217243</v>
+        <v>99.32245656000001</v>
       </c>
       <c r="N102" t="n">
-        <v>100.8188376</v>
+        <v>99.3532776</v>
       </c>
       <c r="O102" t="n">
-        <v>99.99005977</v>
+        <v>100.01655632</v>
       </c>
       <c r="P102" t="n">
-        <v>99.50694966</v>
+        <v>104.06614876</v>
       </c>
       <c r="Q102" t="n">
-        <v>100.01240646</v>
+        <v>103.23389417</v>
       </c>
       <c r="R102" t="n">
-        <v>100.13443343</v>
+        <v>100.31183854</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>100.1877828</v>
+        <v>100.39181529</v>
       </c>
       <c r="C103" t="n">
-        <v>99.92645975000001</v>
+        <v>100.76082047</v>
       </c>
       <c r="D103" t="n">
-        <v>99.51673900999999</v>
+        <v>99.93718370000001</v>
       </c>
       <c r="E103" t="n">
-        <v>100.0007321</v>
+        <v>100.11380979</v>
       </c>
       <c r="F103" t="n">
-        <v>99.74644418</v>
+        <v>101.2022808</v>
       </c>
       <c r="G103" t="n">
-        <v>100.13239806</v>
+        <v>100.11269912</v>
       </c>
       <c r="H103" t="n">
-        <v>99.99132208</v>
+        <v>99.94403353</v>
       </c>
       <c r="I103" t="n">
-        <v>99.71251089</v>
+        <v>99.70573005999999</v>
       </c>
       <c r="J103" t="n">
-        <v>100.06758199</v>
+        <v>100.06036127</v>
       </c>
       <c r="K103" t="n">
-        <v>99.82384267</v>
+        <v>100.10181599</v>
       </c>
       <c r="L103" t="n">
-        <v>100.1372428</v>
+        <v>100.14830726</v>
       </c>
       <c r="M103" t="n">
-        <v>100.0478988</v>
+        <v>100.63418743</v>
       </c>
       <c r="N103" t="n">
-        <v>97.76206775999999</v>
+        <v>100.43623831</v>
       </c>
       <c r="O103" t="n">
-        <v>99.98302234000001</v>
+        <v>100.1793682</v>
       </c>
       <c r="P103" t="n">
-        <v>102.00425781</v>
+        <v>103.48150931</v>
       </c>
       <c r="Q103" t="n">
-        <v>99.83023325000001</v>
+        <v>104.14693903</v>
       </c>
       <c r="R103" t="n">
-        <v>100.0979629</v>
+        <v>100.10582612</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>100.14838958</v>
+        <v>100.26558013</v>
       </c>
       <c r="C104" t="n">
-        <v>100.08569179</v>
+        <v>100.18331277</v>
       </c>
       <c r="D104" t="n">
-        <v>99.97928503999999</v>
+        <v>99.87953206</v>
       </c>
       <c r="E104" t="n">
-        <v>99.88367169999999</v>
+        <v>99.98178521</v>
       </c>
       <c r="F104" t="n">
-        <v>100.14566887</v>
+        <v>101.07839056</v>
       </c>
       <c r="G104" t="n">
-        <v>99.98034896</v>
+        <v>100.19434455</v>
       </c>
       <c r="H104" t="n">
-        <v>100.02438668</v>
+        <v>100.09355184</v>
       </c>
       <c r="I104" t="n">
-        <v>100.00473512</v>
+        <v>99.87576872</v>
       </c>
       <c r="J104" t="n">
-        <v>100.01490182</v>
+        <v>100.16399038</v>
       </c>
       <c r="K104" t="n">
-        <v>99.94808154</v>
+        <v>100.13482372</v>
       </c>
       <c r="L104" t="n">
-        <v>99.97013893</v>
+        <v>100.0389727</v>
       </c>
       <c r="M104" t="n">
-        <v>99.60438422999999</v>
+        <v>100.32243248</v>
       </c>
       <c r="N104" t="n">
-        <v>98.75840776</v>
+        <v>100.89256045</v>
       </c>
       <c r="O104" t="n">
-        <v>99.87279721</v>
+        <v>100.04560001</v>
       </c>
       <c r="P104" t="n">
-        <v>102.84589104</v>
+        <v>99.85045418999999</v>
       </c>
       <c r="Q104" t="n">
-        <v>101.00325323</v>
+        <v>103.75594569</v>
       </c>
       <c r="R104" t="n">
-        <v>100.11529185</v>
+        <v>100.19961412</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>100.31946046</v>
+        <v>100.15632489</v>
       </c>
       <c r="C105" t="n">
-        <v>99.96159350000001</v>
+        <v>99.95605621999999</v>
       </c>
       <c r="D105" t="n">
-        <v>99.93871729999999</v>
+        <v>99.93011887999999</v>
       </c>
       <c r="E105" t="n">
-        <v>100.07057073</v>
+        <v>100.06057555</v>
       </c>
       <c r="F105" t="n">
-        <v>100.75113902</v>
+        <v>100.49624243</v>
       </c>
       <c r="G105" t="n">
-        <v>100.06047981</v>
+        <v>100.04132834</v>
       </c>
       <c r="H105" t="n">
-        <v>99.97692382</v>
+        <v>100.0943413</v>
       </c>
       <c r="I105" t="n">
-        <v>99.96607213999999</v>
+        <v>99.66138362</v>
       </c>
       <c r="J105" t="n">
-        <v>100.08339699</v>
+        <v>100.32216784</v>
       </c>
       <c r="K105" t="n">
-        <v>99.96379132</v>
+        <v>100.1635857</v>
       </c>
       <c r="L105" t="n">
-        <v>99.99075574</v>
+        <v>100.01218154</v>
       </c>
       <c r="M105" t="n">
-        <v>99.32245656000001</v>
+        <v>100.33175489</v>
       </c>
       <c r="N105" t="n">
-        <v>99.3532776</v>
+        <v>100.43003344</v>
       </c>
       <c r="O105" t="n">
-        <v>100.01655632</v>
+        <v>99.99592656999999</v>
       </c>
       <c r="P105" t="n">
-        <v>104.06614876</v>
+        <v>98.8494869</v>
       </c>
       <c r="Q105" t="n">
-        <v>103.23389417</v>
+        <v>101.66300098</v>
       </c>
       <c r="R105" t="n">
-        <v>100.31183854</v>
+        <v>100.11958299</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>100.39181529</v>
+        <v>100.04497883</v>
       </c>
       <c r="C106" t="n">
-        <v>100.76082047</v>
+        <v>100.02144626</v>
       </c>
       <c r="D106" t="n">
-        <v>99.93718370000001</v>
+        <v>99.87801859</v>
       </c>
       <c r="E106" t="n">
-        <v>100.11380979</v>
+        <v>100.05071492</v>
       </c>
       <c r="F106" t="n">
-        <v>101.2022808</v>
+        <v>99.99940333000001</v>
       </c>
       <c r="G106" t="n">
-        <v>100.11269912</v>
+        <v>100.10272792</v>
       </c>
       <c r="H106" t="n">
-        <v>99.94403353</v>
+        <v>100.08265818</v>
       </c>
       <c r="I106" t="n">
-        <v>99.70573005999999</v>
+        <v>100.00181522</v>
       </c>
       <c r="J106" t="n">
-        <v>100.06036127</v>
+        <v>100.32096986</v>
       </c>
       <c r="K106" t="n">
-        <v>100.10181599</v>
+        <v>100.10577233</v>
       </c>
       <c r="L106" t="n">
-        <v>100.14830726</v>
+        <v>99.86151731</v>
       </c>
       <c r="M106" t="n">
-        <v>100.63418743</v>
+        <v>100.1021775</v>
       </c>
       <c r="N106" t="n">
-        <v>100.43623831</v>
+        <v>101.3847808</v>
       </c>
       <c r="O106" t="n">
-        <v>100.1793682</v>
+        <v>100.08584013</v>
       </c>
       <c r="P106" t="n">
-        <v>103.48150931</v>
+        <v>99.87195326</v>
       </c>
       <c r="Q106" t="n">
-        <v>104.14693903</v>
+        <v>99.48696830999999</v>
       </c>
       <c r="R106" t="n">
-        <v>100.10582612</v>
+        <v>100.02906867</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>100</v>
+        <v>99.90415226</v>
       </c>
       <c r="C107" t="n">
-        <v>100.1</v>
+        <v>100.35733612</v>
       </c>
       <c r="D107" t="n">
-        <v>100.1</v>
+        <v>99.93943338</v>
       </c>
       <c r="E107" t="n">
-        <v>100.1</v>
+        <v>100.13768172</v>
       </c>
       <c r="F107" t="n">
-        <v>99.5</v>
+        <v>101.14083825</v>
       </c>
       <c r="G107" t="n">
-        <v>100</v>
+        <v>100.06177637</v>
       </c>
       <c r="H107" t="n">
-        <v>100.4</v>
+        <v>99.84236847</v>
       </c>
       <c r="I107" t="n">
-        <v>100.1</v>
+        <v>99.79902886000001</v>
       </c>
       <c r="J107" t="n">
-        <v>100.1</v>
+        <v>99.99414149</v>
       </c>
       <c r="K107" t="n">
-        <v>100.2</v>
+        <v>99.99360865</v>
       </c>
       <c r="L107" t="n">
-        <v>99.90000000000001</v>
+        <v>100.12088735</v>
       </c>
       <c r="M107" t="n">
-        <v>100.4</v>
+        <v>99.65595239</v>
       </c>
       <c r="N107" t="n">
-        <v>99.5</v>
+        <v>101.78094418</v>
       </c>
       <c r="O107" t="n">
-        <v>100.2</v>
+        <v>99.98551841</v>
       </c>
       <c r="P107" t="n">
-        <v>98.3</v>
+        <v>102.05501621</v>
       </c>
       <c r="Q107" t="n">
-        <v>98.09999999999999</v>
+        <v>103.89168388</v>
       </c>
       <c r="R107" t="n">
-        <v>100.1</v>
+        <v>99.97747017</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>100.1</v>
+        <v>100.25378209</v>
       </c>
       <c r="C108" t="n">
-        <v>100</v>
+        <v>100.0055361</v>
       </c>
       <c r="D108" t="n">
-        <v>100.4</v>
+        <v>99.95162461</v>
       </c>
       <c r="E108" t="n">
-        <v>100</v>
+        <v>99.90689153</v>
       </c>
       <c r="F108" t="n">
-        <v>99.5</v>
+        <v>100.68070798</v>
       </c>
       <c r="G108" t="n">
-        <v>99.8</v>
+        <v>100.00236742</v>
       </c>
       <c r="H108" t="n">
-        <v>100.2</v>
+        <v>100.0818313</v>
       </c>
       <c r="I108" t="n">
-        <v>99.59999999999999</v>
+        <v>99.93414324</v>
       </c>
       <c r="J108" t="n">
-        <v>100.2</v>
+        <v>99.96194577</v>
       </c>
       <c r="K108" t="n">
-        <v>100</v>
+        <v>100.10734741</v>
       </c>
       <c r="L108" t="n">
-        <v>100</v>
+        <v>99.98869787</v>
       </c>
       <c r="M108" t="n">
-        <v>100.4</v>
+        <v>99.55538276</v>
       </c>
       <c r="N108" t="n">
-        <v>100.4</v>
+        <v>97.10754074</v>
       </c>
       <c r="O108" t="n">
-        <v>100.1</v>
+        <v>99.82260779000001</v>
       </c>
       <c r="P108" t="n">
-        <v>98.90000000000001</v>
+        <v>100.19094355</v>
       </c>
       <c r="Q108" t="n">
-        <v>97.90000000000001</v>
+        <v>103.56974028</v>
       </c>
       <c r="R108" t="n">
-        <v>100.1</v>
+        <v>100.0440663</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>100.1</v>
+        <v>100.23858322</v>
       </c>
       <c r="C109" t="n">
-        <v>100.1</v>
+        <v>100.05801539</v>
       </c>
       <c r="D109" t="n">
-        <v>100.2</v>
+        <v>99.74122194</v>
       </c>
       <c r="E109" t="n">
-        <v>100</v>
+        <v>99.95036438</v>
       </c>
       <c r="F109" t="n">
-        <v>101.1</v>
+        <v>98.55099571</v>
       </c>
       <c r="G109" t="n">
-        <v>100</v>
+        <v>99.85698243</v>
       </c>
       <c r="H109" t="n">
-        <v>100</v>
+        <v>99.81362367</v>
       </c>
       <c r="I109" t="n">
-        <v>100.2</v>
+        <v>99.91310022</v>
       </c>
       <c r="J109" t="n">
-        <v>100.4</v>
+        <v>99.86260240999999</v>
       </c>
       <c r="K109" t="n">
-        <v>100.2</v>
+        <v>100.45342554</v>
       </c>
       <c r="L109" t="n">
-        <v>100</v>
+        <v>100.03410582</v>
       </c>
       <c r="M109" t="n">
-        <v>100.3</v>
+        <v>99.76433787000001</v>
       </c>
       <c r="N109" t="n">
-        <v>103.3</v>
+        <v>93.98072504</v>
       </c>
       <c r="O109" t="n">
-        <v>99.90000000000001</v>
+        <v>99.97030859</v>
       </c>
       <c r="P109" t="n">
-        <v>98.5</v>
+        <v>101.63216773</v>
       </c>
       <c r="Q109" t="n">
-        <v>102.8</v>
+        <v>96.54042327000001</v>
       </c>
       <c r="R109" t="n">
-        <v>100.2</v>
+        <v>100.04596987</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>99.90415226</v>
+        <v>100.16516647</v>
       </c>
       <c r="C110" t="n">
-        <v>100.35733612</v>
+        <v>100.12216247</v>
       </c>
       <c r="D110" t="n">
-        <v>99.93943338</v>
+        <v>99.75970374000001</v>
       </c>
       <c r="E110" t="n">
-        <v>100.13768172</v>
+        <v>100.08589989</v>
       </c>
       <c r="F110" t="n">
-        <v>101.14083825</v>
+        <v>98.81851338</v>
       </c>
       <c r="G110" t="n">
-        <v>100.06177637</v>
+        <v>100.34657641</v>
       </c>
       <c r="H110" t="n">
-        <v>99.84236847</v>
+        <v>99.81601935</v>
       </c>
       <c r="I110" t="n">
-        <v>99.79902886000001</v>
+        <v>99.82606939</v>
       </c>
       <c r="J110" t="n">
-        <v>99.99414149</v>
+        <v>99.87753625000001</v>
       </c>
       <c r="K110" t="n">
-        <v>99.99360865</v>
+        <v>99.96484218000001</v>
       </c>
       <c r="L110" t="n">
-        <v>100.12088735</v>
+        <v>99.97882332</v>
       </c>
       <c r="M110" t="n">
-        <v>99.65595239</v>
+        <v>99.84231008</v>
       </c>
       <c r="N110" t="n">
-        <v>101.78094418</v>
+        <v>95.31013286</v>
       </c>
       <c r="O110" t="n">
-        <v>99.98551841</v>
+        <v>99.72133693000001</v>
       </c>
       <c r="P110" t="n">
-        <v>102.05501621</v>
+        <v>100.31181862</v>
       </c>
       <c r="Q110" t="n">
-        <v>103.89168388</v>
+        <v>97.09744777</v>
       </c>
       <c r="R110" t="n">
-        <v>99.97747017</v>
+        <v>100.07500033</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>100.25378209</v>
+        <v>100.18289201</v>
       </c>
       <c r="C111" t="n">
-        <v>100.0055361</v>
+        <v>100.09091282</v>
       </c>
       <c r="D111" t="n">
-        <v>99.95162461</v>
+        <v>99.64831684000001</v>
       </c>
       <c r="E111" t="n">
-        <v>99.90689153</v>
+        <v>100.02991635</v>
       </c>
       <c r="F111" t="n">
-        <v>100.68070798</v>
+        <v>99.10793146</v>
       </c>
       <c r="G111" t="n">
-        <v>100.00236742</v>
+        <v>99.94422403</v>
       </c>
       <c r="H111" t="n">
-        <v>100.0818313</v>
+        <v>100.04461991</v>
       </c>
       <c r="I111" t="n">
-        <v>99.93414324</v>
+        <v>99.82432477</v>
       </c>
       <c r="J111" t="n">
-        <v>99.96194577</v>
+        <v>99.96496648</v>
       </c>
       <c r="K111" t="n">
-        <v>100.10734741</v>
+        <v>100.0649738</v>
       </c>
       <c r="L111" t="n">
-        <v>99.98869787</v>
+        <v>99.89238287000001</v>
       </c>
       <c r="M111" t="n">
-        <v>99.55538276</v>
+        <v>100.22391363</v>
       </c>
       <c r="N111" t="n">
-        <v>97.10754074</v>
+        <v>99.55462756999999</v>
       </c>
       <c r="O111" t="n">
-        <v>99.82260779000001</v>
+        <v>99.80091016</v>
       </c>
       <c r="P111" t="n">
-        <v>100.19094355</v>
+        <v>101.40335949</v>
       </c>
       <c r="Q111" t="n">
-        <v>103.56974028</v>
+        <v>96.77055224999999</v>
       </c>
       <c r="R111" t="n">
-        <v>100.0440663</v>
+        <v>99.99172584999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>100.23858322</v>
+        <v>100.04927943</v>
       </c>
       <c r="C112" t="n">
-        <v>100.05801539</v>
+        <v>100.01973545</v>
       </c>
       <c r="D112" t="n">
-        <v>99.74122194</v>
+        <v>99.5825516</v>
       </c>
       <c r="E112" t="n">
-        <v>99.95036438</v>
+        <v>99.90956781</v>
       </c>
       <c r="F112" t="n">
-        <v>98.55099571</v>
+        <v>100.0252635</v>
       </c>
       <c r="G112" t="n">
-        <v>99.85698243</v>
+        <v>99.90055891</v>
       </c>
       <c r="H112" t="n">
-        <v>99.81362367</v>
+        <v>99.83997691</v>
       </c>
       <c r="I112" t="n">
-        <v>99.91310022</v>
+        <v>99.84517537000001</v>
       </c>
       <c r="J112" t="n">
-        <v>99.86260240999999</v>
+        <v>99.92915490999999</v>
       </c>
       <c r="K112" t="n">
-        <v>100.45342554</v>
+        <v>99.79878825999999</v>
       </c>
       <c r="L112" t="n">
-        <v>100.03410582</v>
+        <v>99.93722329000001</v>
       </c>
       <c r="M112" t="n">
-        <v>99.76433787000001</v>
+        <v>100.00341259</v>
       </c>
       <c r="N112" t="n">
-        <v>93.98072504</v>
+        <v>99.74672359</v>
       </c>
       <c r="O112" t="n">
-        <v>99.97030859</v>
+        <v>99.89414056</v>
       </c>
       <c r="P112" t="n">
-        <v>101.63216773</v>
+        <v>101.52444485</v>
       </c>
       <c r="Q112" t="n">
-        <v>96.54042327000001</v>
+        <v>100.37368776</v>
       </c>
       <c r="R112" t="n">
-        <v>100.04596987</v>
+        <v>100.03765483</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>100.16516647</v>
+        <v>100.00277595</v>
       </c>
       <c r="C113" t="n">
-        <v>100.12216247</v>
+        <v>100.03485789</v>
       </c>
       <c r="D113" t="n">
-        <v>99.75970374000001</v>
+        <v>99.65424118999999</v>
       </c>
       <c r="E113" t="n">
-        <v>100.08589989</v>
+        <v>99.89731547</v>
       </c>
       <c r="F113" t="n">
-        <v>98.81851338</v>
+        <v>100.74058052</v>
       </c>
       <c r="G113" t="n">
-        <v>100.34657641</v>
+        <v>100.05392923</v>
       </c>
       <c r="H113" t="n">
-        <v>99.81601935</v>
+        <v>99.76069010000001</v>
       </c>
       <c r="I113" t="n">
-        <v>99.82606939</v>
+        <v>99.85897596</v>
       </c>
       <c r="J113" t="n">
-        <v>99.87753625000001</v>
+        <v>99.94791574</v>
       </c>
       <c r="K113" t="n">
-        <v>99.96484218000001</v>
+        <v>99.87615732</v>
       </c>
       <c r="L113" t="n">
-        <v>99.97882332</v>
+        <v>99.88627651</v>
       </c>
       <c r="M113" t="n">
-        <v>99.84231008</v>
+        <v>99.68182252</v>
       </c>
       <c r="N113" t="n">
-        <v>95.31013286</v>
+        <v>100.87393881</v>
       </c>
       <c r="O113" t="n">
-        <v>99.72133693000001</v>
+        <v>99.767644</v>
       </c>
       <c r="P113" t="n">
-        <v>100.31181862</v>
+        <v>101.85502733</v>
       </c>
       <c r="Q113" t="n">
-        <v>97.09744777</v>
+        <v>102.89286012</v>
       </c>
       <c r="R113" t="n">
-        <v>100.07500033</v>
+        <v>100.01176261</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>100.18289201</v>
+        <v>100.14798025</v>
       </c>
       <c r="C114" t="n">
-        <v>100.09091282</v>
+        <v>100.15695554</v>
       </c>
       <c r="D114" t="n">
-        <v>99.64831684000001</v>
+        <v>100.10773817</v>
       </c>
       <c r="E114" t="n">
-        <v>100.02991635</v>
+        <v>99.96568572</v>
       </c>
       <c r="F114" t="n">
-        <v>99.10793146</v>
+        <v>100.4687233</v>
       </c>
       <c r="G114" t="n">
-        <v>99.94422403</v>
+        <v>100.1073389</v>
       </c>
       <c r="H114" t="n">
-        <v>100.04461991</v>
+        <v>99.99732124000001</v>
       </c>
       <c r="I114" t="n">
-        <v>99.82432477</v>
+        <v>99.86830154</v>
       </c>
       <c r="J114" t="n">
-        <v>99.96496648</v>
+        <v>100.00483306</v>
       </c>
       <c r="K114" t="n">
-        <v>100.0649738</v>
+        <v>99.78916307999999</v>
       </c>
       <c r="L114" t="n">
-        <v>99.89238287000001</v>
+        <v>99.96347686999999</v>
       </c>
       <c r="M114" t="n">
-        <v>100.22391363</v>
+        <v>99.48328592999999</v>
       </c>
       <c r="N114" t="n">
-        <v>99.55462756999999</v>
+        <v>100.21158884</v>
       </c>
       <c r="O114" t="n">
-        <v>99.80091016</v>
+        <v>99.99269515</v>
       </c>
       <c r="P114" t="n">
-        <v>101.40335949</v>
+        <v>106.553735</v>
       </c>
       <c r="Q114" t="n">
-        <v>96.77055224999999</v>
+        <v>101.41715752</v>
       </c>
       <c r="R114" t="n">
-        <v>99.99172584999999</v>
+        <v>100.08570694</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>100.04927943</v>
+        <v>100.1870411</v>
       </c>
       <c r="C115" t="n">
-        <v>100.01973545</v>
+        <v>100.198198</v>
       </c>
       <c r="D115" t="n">
-        <v>99.5825516</v>
+        <v>100.06279588</v>
       </c>
       <c r="E115" t="n">
-        <v>99.90956781</v>
+        <v>100.00539409</v>
       </c>
       <c r="F115" t="n">
-        <v>100.0252635</v>
+        <v>100.12632947</v>
       </c>
       <c r="G115" t="n">
-        <v>99.90055891</v>
+        <v>100.03865493</v>
       </c>
       <c r="H115" t="n">
-        <v>99.83997691</v>
+        <v>100.1398031</v>
       </c>
       <c r="I115" t="n">
-        <v>99.84517537000001</v>
+        <v>100.12269924</v>
       </c>
       <c r="J115" t="n">
-        <v>99.92915490999999</v>
+        <v>100.06954732</v>
       </c>
       <c r="K115" t="n">
-        <v>99.79878825999999</v>
+        <v>100.08086025</v>
       </c>
       <c r="L115" t="n">
-        <v>99.93722329000001</v>
+        <v>99.99100601000001</v>
       </c>
       <c r="M115" t="n">
-        <v>100.00341259</v>
+        <v>100.61515897</v>
       </c>
       <c r="N115" t="n">
-        <v>99.74672359</v>
+        <v>99.74117611</v>
       </c>
       <c r="O115" t="n">
-        <v>99.89414056</v>
+        <v>99.94948359999999</v>
       </c>
       <c r="P115" t="n">
-        <v>101.52444485</v>
+        <v>99.22641212000001</v>
       </c>
       <c r="Q115" t="n">
-        <v>100.37368776</v>
+        <v>100.20473827</v>
       </c>
       <c r="R115" t="n">
-        <v>100.03765483</v>
+        <v>100.14038048</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>100.00277595</v>
+        <v>100</v>
       </c>
       <c r="C116" t="n">
-        <v>100.03485789</v>
+        <v>100.1</v>
       </c>
       <c r="D116" t="n">
-        <v>99.65424118999999</v>
+        <v>100.1</v>
       </c>
       <c r="E116" t="n">
-        <v>99.89731547</v>
+        <v>100.1</v>
       </c>
       <c r="F116" t="n">
-        <v>100.74058052</v>
+        <v>99.5</v>
       </c>
       <c r="G116" t="n">
-        <v>100.05392923</v>
+        <v>100</v>
       </c>
       <c r="H116" t="n">
-        <v>99.76069010000001</v>
+        <v>100.4</v>
       </c>
       <c r="I116" t="n">
-        <v>99.85897596</v>
+        <v>100.1</v>
       </c>
       <c r="J116" t="n">
-        <v>99.94791574</v>
+        <v>100.1</v>
       </c>
       <c r="K116" t="n">
-        <v>99.87615732</v>
+        <v>100.2</v>
       </c>
       <c r="L116" t="n">
-        <v>99.88627651</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M116" t="n">
-        <v>99.68182252</v>
+        <v>100.4</v>
       </c>
       <c r="N116" t="n">
-        <v>100.87393881</v>
+        <v>99.5</v>
       </c>
       <c r="O116" t="n">
-        <v>99.767644</v>
+        <v>100.2</v>
       </c>
       <c r="P116" t="n">
-        <v>101.85502733</v>
+        <v>98.3</v>
       </c>
       <c r="Q116" t="n">
-        <v>102.89286012</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="R116" t="n">
-        <v>100.01176261</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>100.14798025</v>
+        <v>100.1</v>
       </c>
       <c r="C117" t="n">
-        <v>100.15695554</v>
+        <v>100</v>
       </c>
       <c r="D117" t="n">
-        <v>100.10773817</v>
+        <v>100.4</v>
       </c>
       <c r="E117" t="n">
-        <v>99.96568572</v>
+        <v>100</v>
       </c>
       <c r="F117" t="n">
-        <v>100.4687233</v>
+        <v>99.5</v>
       </c>
       <c r="G117" t="n">
-        <v>100.1073389</v>
+        <v>99.8</v>
       </c>
       <c r="H117" t="n">
-        <v>99.99732124000001</v>
+        <v>100.2</v>
       </c>
       <c r="I117" t="n">
-        <v>99.86830154</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J117" t="n">
-        <v>100.00483306</v>
+        <v>100.2</v>
       </c>
       <c r="K117" t="n">
-        <v>99.78916307999999</v>
+        <v>100</v>
       </c>
       <c r="L117" t="n">
-        <v>99.96347686999999</v>
+        <v>100</v>
       </c>
       <c r="M117" t="n">
-        <v>99.48328592999999</v>
+        <v>100.4</v>
       </c>
       <c r="N117" t="n">
-        <v>100.21158884</v>
+        <v>100.4</v>
       </c>
       <c r="O117" t="n">
-        <v>99.99269515</v>
+        <v>100.1</v>
       </c>
       <c r="P117" t="n">
-        <v>106.553735</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="Q117" t="n">
-        <v>101.41715752</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="R117" t="n">
-        <v>100.08570694</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>100.1870411</v>
+        <v>100.1</v>
       </c>
       <c r="C118" t="n">
-        <v>100.198198</v>
+        <v>100.1</v>
       </c>
       <c r="D118" t="n">
-        <v>100.06279588</v>
+        <v>100.2</v>
       </c>
       <c r="E118" t="n">
-        <v>100.00539409</v>
+        <v>100</v>
       </c>
       <c r="F118" t="n">
-        <v>100.12632947</v>
+        <v>101.1</v>
       </c>
       <c r="G118" t="n">
-        <v>100.03865493</v>
+        <v>100</v>
       </c>
       <c r="H118" t="n">
-        <v>100.1398031</v>
+        <v>100</v>
       </c>
       <c r="I118" t="n">
-        <v>100.12269924</v>
+        <v>100.2</v>
       </c>
       <c r="J118" t="n">
-        <v>100.06954732</v>
+        <v>100.4</v>
       </c>
       <c r="K118" t="n">
-        <v>100.08086025</v>
+        <v>100.2</v>
       </c>
       <c r="L118" t="n">
-        <v>99.99100601000001</v>
+        <v>100</v>
       </c>
       <c r="M118" t="n">
-        <v>100.61515897</v>
+        <v>100.3</v>
       </c>
       <c r="N118" t="n">
-        <v>99.74117611</v>
+        <v>103.3</v>
       </c>
       <c r="O118" t="n">
-        <v>99.94948359999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="P118" t="n">
-        <v>99.22641212000001</v>
+        <v>98.5</v>
       </c>
       <c r="Q118" t="n">
-        <v>100.20473827</v>
+        <v>102.8</v>
       </c>
       <c r="R118" t="n">
-        <v>100.14038048</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C119" t="n">
         <v>100.1</v>
       </c>
       <c r="D119" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E119" t="n">
         <v>100.1</v>
       </c>
       <c r="F119" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="G119" t="n">
-        <v>100.9</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H119" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="I119" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="K119" t="n">
         <v>100</v>
       </c>
-      <c r="J119" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="K119" t="n">
+      <c r="L119" t="n">
         <v>100.6</v>
       </c>
-      <c r="L119" t="n">
-        <v>100.2</v>
-      </c>
       <c r="M119" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="N119" t="n">
-        <v>107.7</v>
+        <v>104.2</v>
       </c>
       <c r="O119" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="P119" t="n">
-        <v>99.09999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="Q119" t="n">
-        <v>101</v>
+        <v>103.3</v>
       </c>
       <c r="R119" t="n">
         <v>100.2</v>
@@ -7367,172 +7367,172 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="C120" t="n">
+        <v>100</v>
+      </c>
+      <c r="D120" t="n">
         <v>100.1</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="G120" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="H120" t="n">
+        <v>100</v>
+      </c>
+      <c r="I120" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K120" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="M120" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="N120" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="O120" t="n">
+        <v>100</v>
+      </c>
+      <c r="P120" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>101</v>
+      </c>
+      <c r="R120" t="n">
         <v>99.90000000000001</v>
-      </c>
-      <c r="E120" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="F120" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="G120" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="I120" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="J120" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="K120" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="L120" t="n">
-        <v>99</v>
-      </c>
-      <c r="M120" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="N120" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="O120" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="P120" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="R120" t="n">
-        <v>100.2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B121" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D121" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="C121" t="n">
+      <c r="E121" t="n">
         <v>100.1</v>
       </c>
-      <c r="D121" t="n">
+      <c r="F121" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G121" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H121" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I121" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J121" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="K121" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="L121" t="n">
         <v>100</v>
-      </c>
-      <c r="E121" t="n">
-        <v>100</v>
-      </c>
-      <c r="F121" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G121" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="H121" t="n">
-        <v>100</v>
-      </c>
-      <c r="I121" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="J121" t="n">
-        <v>100</v>
-      </c>
-      <c r="K121" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="L121" t="n">
-        <v>100.5</v>
       </c>
       <c r="M121" t="n">
         <v>100</v>
       </c>
       <c r="N121" t="n">
-        <v>95.90000000000001</v>
+        <v>104.1</v>
       </c>
       <c r="O121" t="n">
+        <v>100</v>
+      </c>
+      <c r="P121" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>97</v>
+      </c>
+      <c r="R121" t="n">
         <v>100.2</v>
-      </c>
-      <c r="P121" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="R121" t="n">
-        <v>100.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C122" t="n">
         <v>100.1</v>
       </c>
       <c r="D122" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="E122" t="n">
         <v>100.1</v>
       </c>
       <c r="F122" t="n">
-        <v>101.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G122" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="H122" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J122" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="K122" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="L122" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="M122" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="N122" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="H122" t="n">
+      <c r="O122" t="n">
         <v>100</v>
       </c>
-      <c r="I122" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="J122" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="K122" t="n">
-        <v>100</v>
-      </c>
-      <c r="L122" t="n">
+      <c r="P122" t="n">
         <v>100.6</v>
       </c>
-      <c r="M122" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="N122" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="O122" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="P122" t="n">
-        <v>100.8</v>
-      </c>
       <c r="Q122" t="n">
-        <v>103.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="R122" t="n">
         <v>100.2</v>
@@ -7541,96 +7541,96 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>100</v>
       </c>
       <c r="C123" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E123" t="n">
         <v>100</v>
       </c>
-      <c r="D123" t="n">
+      <c r="F123" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G123" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>100.1</v>
       </c>
-      <c r="E123" t="n">
+      <c r="I123" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J123" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="L123" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="M123" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="N123" t="n">
+        <v>101</v>
+      </c>
+      <c r="O123" t="n">
         <v>100.1</v>
       </c>
-      <c r="F123" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="G123" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="H123" t="n">
-        <v>100</v>
-      </c>
-      <c r="I123" t="n">
+      <c r="P123" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="R123" t="n">
         <v>100.1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="K123" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="L123" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="M123" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="N123" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="O123" t="n">
-        <v>100</v>
-      </c>
-      <c r="P123" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>101</v>
-      </c>
-      <c r="R123" t="n">
-        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>100.1</v>
       </c>
       <c r="C124" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="D124" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="F124" t="n">
         <v>99.7</v>
       </c>
       <c r="G124" t="n">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="I124" t="n">
-        <v>100.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J124" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="K124" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L124" t="n">
         <v>100</v>
@@ -7639,16 +7639,16 @@
         <v>100</v>
       </c>
       <c r="N124" t="n">
-        <v>104.1</v>
+        <v>101.5</v>
       </c>
       <c r="O124" t="n">
         <v>100</v>
       </c>
       <c r="P124" t="n">
-        <v>97.59999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="Q124" t="n">
-        <v>97</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="R124" t="n">
         <v>100.2</v>
@@ -7657,7 +7657,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -7667,46 +7667,46 @@
         <v>100.1</v>
       </c>
       <c r="D125" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>100</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="G125" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I125" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J125" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K125" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="L125" t="n">
+        <v>101</v>
+      </c>
+      <c r="M125" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="N125" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="O125" t="n">
         <v>100.1</v>
       </c>
-      <c r="E125" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="F125" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G125" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="H125" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="J125" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="K125" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="L125" t="n">
+      <c r="P125" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="Q125" t="n">
         <v>99.8</v>
-      </c>
-      <c r="M125" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="N125" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="O125" t="n">
-        <v>100</v>
-      </c>
-      <c r="P125" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>97.90000000000001</v>
       </c>
       <c r="R125" t="n">
         <v>100.2</v>
@@ -7715,56 +7715,56 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>100</v>
       </c>
       <c r="C126" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="D126" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E126" t="n">
         <v>100</v>
       </c>
       <c r="F126" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="G126" t="n">
-        <v>98.90000000000001</v>
+        <v>101.5</v>
       </c>
       <c r="H126" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I126" t="n">
         <v>100.1</v>
       </c>
-      <c r="I126" t="n">
-        <v>100.4</v>
-      </c>
       <c r="J126" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="K126" t="n">
-        <v>100.3</v>
+        <v>99.7</v>
       </c>
       <c r="L126" t="n">
-        <v>99.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="M126" t="n">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="N126" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="O126" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="P126" t="n">
-        <v>101.1</v>
+        <v>99</v>
       </c>
       <c r="Q126" t="n">
-        <v>98.5</v>
+        <v>100.8</v>
       </c>
       <c r="R126" t="n">
         <v>100.1</v>
@@ -7773,65 +7773,65 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>100.1</v>
       </c>
       <c r="C127" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E127" t="n">
         <v>100.1</v>
       </c>
-      <c r="D127" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E127" t="n">
-        <v>100</v>
-      </c>
       <c r="F127" t="n">
-        <v>99.7</v>
+        <v>100.2</v>
       </c>
       <c r="G127" t="n">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="I127" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="K127" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="L127" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="M127" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="N127" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="O127" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="P127" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="R127" t="n">
         <v>99.90000000000001</v>
-      </c>
-      <c r="J127" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="K127" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="L127" t="n">
-        <v>100</v>
-      </c>
-      <c r="M127" t="n">
-        <v>100</v>
-      </c>
-      <c r="N127" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="O127" t="n">
-        <v>100</v>
-      </c>
-      <c r="P127" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="R127" t="n">
-        <v>100.2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -7841,46 +7841,46 @@
         <v>100.1</v>
       </c>
       <c r="D128" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E128" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="G128" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="H128" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I128" t="n">
         <v>100</v>
       </c>
-      <c r="F128" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="G128" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="I128" t="n">
-        <v>100.5</v>
-      </c>
       <c r="J128" t="n">
-        <v>100.2</v>
+        <v>101.5</v>
       </c>
       <c r="K128" t="n">
         <v>100.6</v>
       </c>
       <c r="L128" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="M128" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="N128" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="O128" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="P128" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="Q128" t="n">
         <v>101</v>
-      </c>
-      <c r="M128" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="N128" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="O128" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="P128" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>99.8</v>
       </c>
       <c r="R128" t="n">
         <v>100.2</v>
@@ -7889,117 +7889,117 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D129" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="F129" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="G129" t="n">
-        <v>101.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H129" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="I129" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J129" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="K129" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="L129" t="n">
+        <v>99</v>
+      </c>
+      <c r="M129" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="N129" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="O129" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="P129" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="R129" t="n">
         <v>100.2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="J129" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="K129" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="L129" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="M129" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="N129" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="O129" t="n">
-        <v>100</v>
-      </c>
-      <c r="P129" t="n">
-        <v>99</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="R129" t="n">
-        <v>100.1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B130" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C130" t="n">
         <v>100.1</v>
       </c>
-      <c r="C130" t="n">
+      <c r="D130" t="n">
+        <v>100</v>
+      </c>
+      <c r="E130" t="n">
+        <v>100</v>
+      </c>
+      <c r="F130" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G130" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="H130" t="n">
+        <v>100</v>
+      </c>
+      <c r="I130" t="n">
         <v>100.4</v>
       </c>
-      <c r="D130" t="n">
+      <c r="J130" t="n">
+        <v>100</v>
+      </c>
+      <c r="K130" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="L130" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="M130" t="n">
+        <v>100</v>
+      </c>
+      <c r="N130" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="O130" t="n">
         <v>100.2</v>
       </c>
-      <c r="E130" t="n">
+      <c r="P130" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="R130" t="n">
         <v>100.1</v>
-      </c>
-      <c r="F130" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="G130" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="K130" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="L130" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="M130" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="N130" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="O130" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="P130" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="R130" t="n">
-        <v>99.90000000000001</v>
       </c>
     </row>
   </sheetData>
